--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,67 +498,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santos Laguna W</t>
+          <t>Mebrat Hayl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Sidama Bunna</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.25</v>
+        <v>3.84</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>5.25</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Adalah</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>JC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.96</v>
+        <v>1.08</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -578,33 +578,33 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>85.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>1.05</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Fuerte San Francisco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Watford</t>
+          <t>Águila</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>4.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -636,21 +636,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gzira United</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hamrun Spartans</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -682,25 +682,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ST Mirren</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Heart Of Midlothian</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>100</v>
@@ -728,67 +728,67 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amazulu</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.8</v>
+        <v>1.32</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>48.6</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Peterborough Sports</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -820,205 +820,205 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Brittons Hill</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Bagatelle</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>82.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J9" t="n">
-        <v>82.7</v>
+        <v>42.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="L9" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>AO Itabaiana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BB Bodrumspor</t>
+          <t>Dorense</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>82.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>28</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J10" t="n">
-        <v>82.7</v>
+        <v>42.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="L10" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Canvey Island</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chichester City</t>
+          <t>Bnei Yehuda</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.2</v>
+        <v>1.27</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>81.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>81.8</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>54.5</v>
+        <v>42.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="L11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kafr Qasim</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>81.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>65.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>23.7</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
-        <v>81.59999999999999</v>
+        <v>42.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.89</v>
+        <v>1.06</v>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Rasi Salai United</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Nakhon Si Thammarat</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1026,91 +1026,91 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>81.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="G13" t="n">
-        <v>65.8</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>23.7</v>
+        <v>28</v>
       </c>
       <c r="I13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>81.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chelsea U19</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PSV U19</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.38</v>
+        <v>3.2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="G14" t="n">
-        <v>65.8</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>23.7</v>
+        <v>18.2</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>81.8</v>
       </c>
       <c r="J14" t="n">
-        <v>81.59999999999999</v>
+        <v>54.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Benfica U19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mostaganem</t>
+          <t>Slavia Praha U19</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1124,177 +1124,177 @@
         <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>15.6</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>1.16</v>
+        <v>0.92</v>
       </c>
       <c r="L15" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Radcliffe</t>
+          <t>Uta Arad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oxford City</t>
+          <t>CFR 1907 Cluj</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.47</v>
+        <v>2.88</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="G16" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>15.6</v>
+        <v>20.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>79.3</v>
       </c>
       <c r="J16" t="n">
-        <v>73.3</v>
+        <v>31</v>
       </c>
       <c r="K16" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Club Brugge U19</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Monaco U19</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>80</v>
+        <v>42.9</v>
       </c>
       <c r="H17" t="n">
-        <v>15.6</v>
+        <v>14.3</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>42.9</v>
       </c>
       <c r="J17" t="n">
-        <v>73.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>1.16</v>
+        <v>0.62</v>
       </c>
       <c r="L17" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Al Ula</t>
+          <t>Mahasarakham United</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Al Arabi SC</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>42.9</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>14.3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="J18" t="n">
-        <v>60</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="L18" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Buckie Thistle</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Brechin</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.47</v>
+        <v>3.64</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1302,45 +1302,45 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>78.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="G19" t="n">
-        <v>42.9</v>
+        <v>66.7</v>
       </c>
       <c r="H19" t="n">
-        <v>14.3</v>
+        <v>33.3</v>
       </c>
       <c r="I19" t="n">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.62</v>
+        <v>2.43</v>
       </c>
       <c r="L19" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Sabah FA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FC St. Pauli</t>
+          <t>Qabala</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1348,45 +1348,45 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="I20" t="n">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="J20" t="n">
-        <v>63.5</v>
+        <v>48.6</v>
       </c>
       <c r="K20" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="L20" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Athletic U19</t>
+          <t>Omonia Nicosia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eintracht Frankf U19</t>
+          <t>AEL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1394,45 +1394,45 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="I21" t="n">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="J21" t="n">
-        <v>63.5</v>
+        <v>48.6</v>
       </c>
       <c r="K21" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="L21" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Spartak Moscow</t>
+          <t>Al Diriyah</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pyunik Yerevan</t>
+          <t>Al Wehda Club</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1446,16 +1446,16 @@
         <v>77.09999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>17.1</v>
+        <v>11.4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>11.4</v>
       </c>
       <c r="J22" t="n">
-        <v>74.3</v>
+        <v>48.6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="L22" t="n">
         <v>35</v>
@@ -1464,21 +1464,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chorley</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Leamington</t>
+          <t>Argentino de Merlo</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,45 +1486,45 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>77.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>77.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>11.4</v>
+        <v>7.3</v>
       </c>
       <c r="I23" t="n">
-        <v>11.4</v>
+        <v>17.1</v>
       </c>
       <c r="J23" t="n">
-        <v>48.6</v>
+        <v>63.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Needham Market</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AFC Sudbury</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1532,45 +1532,45 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="G24" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="H24" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="I24" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="J24" t="n">
-        <v>48.6</v>
+        <v>75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.04</v>
+        <v>0.86</v>
       </c>
       <c r="L24" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hereford</t>
+          <t>Villarreal U19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>Bayer Leverkusen U19</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1578,321 +1578,321 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="G25" t="n">
-        <v>40.4</v>
+        <v>52.3</v>
       </c>
       <c r="H25" t="n">
-        <v>21.1</v>
+        <v>27.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>20.5</v>
       </c>
       <c r="J25" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="K25" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="L25" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cray Valley PM</t>
+          <t>Stellenbosch</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Welling United</t>
+          <t>Kaizer Chiefs</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.16</v>
+        <v>3.02</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>75.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="G26" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>21.1</v>
+        <v>30</v>
       </c>
       <c r="I26" t="n">
-        <v>38.6</v>
+        <v>70</v>
       </c>
       <c r="J26" t="n">
-        <v>75.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="K26" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vizela U23</t>
+          <t>Rīgas FS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Portimonense U23</t>
+          <t>FK Zalgiris Vilnius</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>75.40000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="G27" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="H27" t="n">
-        <v>21.1</v>
+        <v>58.8</v>
       </c>
       <c r="I27" t="n">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>75.40000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="L27" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sumqayıt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.68</v>
+        <v>2.77</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>72.8</v>
+        <v>57.1</v>
       </c>
       <c r="G28" t="n">
-        <v>72.8</v>
+        <v>38.1</v>
       </c>
       <c r="H28" t="n">
-        <v>18.5</v>
+        <v>57.1</v>
       </c>
       <c r="I28" t="n">
-        <v>8.6</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="n">
-        <v>51.9</v>
+        <v>42.9</v>
       </c>
       <c r="K28" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L28" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wingate &amp; Finchley</t>
+          <t>Forge</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Potters Bar Town</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>72.8</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>72.8</v>
+        <v>50</v>
       </c>
       <c r="H29" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="I29" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>1.2</v>
+        <v>2.52</v>
       </c>
       <c r="L29" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ashton United</t>
+          <t>RB Bragantino</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gainsborough Trinity</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>70</v>
+        <v>36.9</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>13.1</v>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>33.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1.78</v>
+        <v>0.79</v>
       </c>
       <c r="L30" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Maranguape</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tirol/CEFAT</t>
+          <t>Dinamo Bucuresti</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.97</v>
+        <v>3.42</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Farense U23</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Marítimo U23</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.42</v>
+        <v>3.74</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1900,45 +1900,45 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>58.8</v>
+        <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>58.8</v>
+        <v>50</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J32" t="n">
-        <v>17.6</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Weston-super-Mare</t>
+          <t>Hadiya Hosaena</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Worthing</t>
+          <t>Mekelakeya</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.77</v>
+        <v>3.85</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1946,45 +1946,45 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>57.1</v>
+        <v>45.5</v>
       </c>
       <c r="G33" t="n">
-        <v>28.6</v>
+        <v>18.2</v>
       </c>
       <c r="H33" t="n">
-        <v>57.1</v>
+        <v>45.5</v>
       </c>
       <c r="I33" t="n">
-        <v>14.3</v>
+        <v>36.4</v>
       </c>
       <c r="J33" t="n">
-        <v>28.6</v>
+        <v>54.5</v>
       </c>
       <c r="K33" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Veraguas</t>
+          <t>Sheger Ketema</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>San Francisco FC</t>
+          <t>Suhul Shire</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.93</v>
+        <v>2.26</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1992,25 +1992,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>56.8</v>
+        <v>41.9</v>
       </c>
       <c r="G34" t="n">
-        <v>16.2</v>
+        <v>12.9</v>
       </c>
       <c r="H34" t="n">
-        <v>56.8</v>
+        <v>41.9</v>
       </c>
       <c r="I34" t="n">
-        <v>27</v>
+        <v>45.2</v>
       </c>
       <c r="J34" t="n">
-        <v>35.1</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="L34" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -2021,16 +2021,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Guiseley AFC</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bamber Bridge</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2038,45 +2038,45 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>52.8</v>
+        <v>41.5</v>
       </c>
       <c r="G35" t="n">
-        <v>22.2</v>
+        <v>41.5</v>
       </c>
       <c r="H35" t="n">
-        <v>52.8</v>
+        <v>41.5</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>17.1</v>
       </c>
       <c r="J35" t="n">
-        <v>44.4</v>
+        <v>63.4</v>
       </c>
       <c r="K35" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="L35" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Eyüpspor</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.74</v>
+        <v>1.61</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2084,45 +2084,45 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>52.6</v>
+        <v>41.4</v>
       </c>
       <c r="G36" t="n">
-        <v>26.3</v>
+        <v>37.9</v>
       </c>
       <c r="H36" t="n">
-        <v>52.6</v>
+        <v>41.4</v>
       </c>
       <c r="I36" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="J36" t="n">
-        <v>52.6</v>
+        <v>65.5</v>
       </c>
       <c r="K36" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="L36" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Žilina U19</t>
+          <t>Tigres FC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Liverpool U19</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.22</v>
+        <v>2.43</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2130,45 +2130,45 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>52</v>
+        <v>41.2</v>
       </c>
       <c r="G37" t="n">
-        <v>16</v>
+        <v>47.1</v>
       </c>
       <c r="H37" t="n">
-        <v>52</v>
+        <v>41.2</v>
       </c>
       <c r="I37" t="n">
-        <v>32</v>
+        <v>11.8</v>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>47.1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.52</v>
+        <v>1.15</v>
       </c>
       <c r="L37" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Macclesfield</t>
+          <t>Onhaye</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers</t>
+          <t>Ganshoren</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2176,45 +2176,45 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G38" t="n">
-        <v>37.5</v>
+        <v>25.7</v>
       </c>
       <c r="H38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I38" t="n">
-        <v>12.5</v>
+        <v>34.3</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>62.9</v>
       </c>
       <c r="K38" t="n">
-        <v>1.03</v>
+        <v>0.63</v>
       </c>
       <c r="L38" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Union St. Gilloise</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4.6</v>
+        <v>3.72</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2222,68 +2222,68 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dover</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Torquay</t>
+          <t>Başakşehir</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.6</v>
+        <v>5.05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>50</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
       <c r="H40" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>50</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="L40" t="n">
         <v>4</v>
@@ -2292,228 +2292,228 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Arnett Gardens</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dunbeholden</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.77</v>
+        <v>3.66</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>45.2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>38.7</v>
+        <v>60</v>
       </c>
       <c r="H41" t="n">
-        <v>45.2</v>
+        <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>16.1</v>
+        <v>20</v>
       </c>
       <c r="J41" t="n">
-        <v>27.4</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>0.68</v>
+        <v>2.19</v>
       </c>
       <c r="L41" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>El Bayadh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>MB Rouisset</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>12.9</v>
+        <v>64.7</v>
       </c>
       <c r="H42" t="n">
-        <v>41.9</v>
+        <v>11.8</v>
       </c>
       <c r="I42" t="n">
-        <v>45.2</v>
+        <v>23.5</v>
       </c>
       <c r="J42" t="n">
-        <v>77.40000000000001</v>
+        <v>38.2</v>
       </c>
       <c r="K42" t="n">
-        <v>0.29</v>
+        <v>1.52</v>
       </c>
       <c r="L42" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Diyala</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Airdrie United</t>
+          <t>Al Karkh</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.65</v>
+        <v>2.58</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>41.4</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>37.9</v>
+        <v>53.8</v>
       </c>
       <c r="H43" t="n">
-        <v>41.4</v>
+        <v>30.8</v>
       </c>
       <c r="I43" t="n">
-        <v>20.7</v>
+        <v>15.4</v>
       </c>
       <c r="J43" t="n">
-        <v>65.5</v>
+        <v>46.2</v>
       </c>
       <c r="K43" t="n">
-        <v>0.63</v>
+        <v>1.37</v>
       </c>
       <c r="L43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Real Bedford</t>
+          <t>Naxxar Lions</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Harborough Town</t>
+          <t>Mosta</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.71</v>
+        <v>2.21</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>40.7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6</v>
+        <v>60.9</v>
       </c>
       <c r="H44" t="n">
-        <v>40.7</v>
+        <v>27.5</v>
       </c>
       <c r="I44" t="n">
-        <v>29.6</v>
+        <v>11.6</v>
       </c>
       <c r="J44" t="n">
-        <v>33.3</v>
+        <v>47.8</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="L44" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>FC Luzern</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40.7</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>29.6</v>
+        <v>44.4</v>
       </c>
       <c r="H45" t="n">
-        <v>40.7</v>
+        <v>11.1</v>
       </c>
       <c r="I45" t="n">
-        <v>29.6</v>
+        <v>44.4</v>
       </c>
       <c r="J45" t="n">
-        <v>33.3</v>
+        <v>55.6</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="L45" t="n">
         <v>27</v>
@@ -2522,44 +2522,44 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>40</v>
       </c>
       <c r="H46" t="n">
+        <v>20</v>
+      </c>
+      <c r="I46" t="n">
         <v>40</v>
       </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K46" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="L46" t="n">
         <v>10</v>
@@ -2568,67 +2568,67 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax FC</t>
+          <t>Chiangmai United</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Police Tero</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>25.7</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I47" t="n">
-        <v>34.3</v>
+        <v>19</v>
       </c>
       <c r="J47" t="n">
-        <v>62.9</v>
+        <v>45.2</v>
       </c>
       <c r="K47" t="n">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="L47" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Selangor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>BG Pathum United</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.5</v>
+        <v>2.23</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>53.1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="I48" t="n">
-        <v>50</v>
+        <v>31.2</v>
       </c>
       <c r="J48" t="n">
         <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>1.78</v>
+        <v>1.19</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Falcon</t>
+          <t>Legia Warszawa U19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atlético Gloriense</t>
+          <t>Ajax U19</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,42 +2685,42 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>64.7</v>
+        <v>37.5</v>
       </c>
       <c r="H49" t="n">
-        <v>11.8</v>
+        <v>18.8</v>
       </c>
       <c r="I49" t="n">
-        <v>23.5</v>
+        <v>43.8</v>
       </c>
       <c r="J49" t="n">
-        <v>38.2</v>
+        <v>62.5</v>
       </c>
       <c r="K49" t="n">
-        <v>1.52</v>
+        <v>1.18</v>
       </c>
       <c r="L49" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Al Khaleej Saihat</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Al-Qadisiyah FC</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="H50" t="n">
-        <v>33.3</v>
+        <v>27.5</v>
       </c>
       <c r="I50" t="n">
-        <v>33.3</v>
+        <v>5.9</v>
       </c>
       <c r="J50" t="n">
-        <v>33.3</v>
+        <v>45.1</v>
       </c>
       <c r="K50" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ballymena United</t>
+          <t>Independ. Rivadavia</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Larne</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.25</v>
+        <v>1.75</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="I51" t="n">
-        <v>66.7</v>
+        <v>5.9</v>
       </c>
       <c r="J51" t="n">
-        <v>66.7</v>
+        <v>45.1</v>
       </c>
       <c r="K51" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Kalsdorf</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>64.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="H52" t="n">
-        <v>22</v>
+        <v>27.5</v>
       </c>
       <c r="I52" t="n">
-        <v>13.6</v>
+        <v>5.9</v>
       </c>
       <c r="J52" t="n">
-        <v>69.5</v>
+        <v>45.1</v>
       </c>
       <c r="K52" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="L52" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bury Town</t>
+          <t>Humaitá</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Leiston</t>
+          <t>Vasco da Gama AC</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.23</v>
+        <v>2.74</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>60.9</v>
+        <v>40.7</v>
       </c>
       <c r="H53" t="n">
-        <v>27.5</v>
+        <v>23.7</v>
       </c>
       <c r="I53" t="n">
-        <v>11.6</v>
+        <v>35.6</v>
       </c>
       <c r="J53" t="n">
-        <v>47.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="L53" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Universitatea Cluj</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>AL Masry</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.27</v>
+        <v>2.73</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,42 +2915,42 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>60.9</v>
+        <v>40.7</v>
       </c>
       <c r="H54" t="n">
-        <v>27.5</v>
+        <v>23.7</v>
       </c>
       <c r="I54" t="n">
-        <v>11.6</v>
+        <v>35.6</v>
       </c>
       <c r="J54" t="n">
-        <v>47.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="L54" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Metaloglobus</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Doncaster</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>42.9</v>
+        <v>40.7</v>
       </c>
       <c r="H55" t="n">
-        <v>35.7</v>
+        <v>23.7</v>
       </c>
       <c r="I55" t="n">
-        <v>21.4</v>
+        <v>35.6</v>
       </c>
       <c r="J55" t="n">
-        <v>57.1</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="L55" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Enfield Town</t>
+          <t>Porto Vitória</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hampton &amp; Richmond</t>
+          <t>Serra Talhada</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2.52</v>
+        <v>1.97</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>57.1</v>
       </c>
       <c r="H56" t="n">
-        <v>35.4</v>
+        <v>15.5</v>
       </c>
       <c r="I56" t="n">
-        <v>14.6</v>
+        <v>27.4</v>
       </c>
       <c r="J56" t="n">
-        <v>37.8</v>
+        <v>57.1</v>
       </c>
       <c r="K56" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="L56" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Carrick Rangers</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>66.7</v>
+        <v>51.3</v>
       </c>
       <c r="H57" t="n">
-        <v>5.6</v>
+        <v>19.7</v>
       </c>
       <c r="I57" t="n">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="J57" t="n">
-        <v>58.3</v>
+        <v>47.4</v>
       </c>
       <c r="K57" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="L57" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Al-Rustaq</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Al-Khabourah</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>59.7</v>
       </c>
       <c r="H58" t="n">
-        <v>31.2</v>
+        <v>17.7</v>
       </c>
       <c r="I58" t="n">
-        <v>18.8</v>
+        <v>22.6</v>
       </c>
       <c r="J58" t="n">
-        <v>46.9</v>
+        <v>61.3</v>
       </c>
       <c r="K58" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="L58" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Hibernians</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Zabbar St. Patrick</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.33</v>
+        <v>2.11</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>51.3</v>
       </c>
       <c r="H59" t="n">
-        <v>31.2</v>
+        <v>19.7</v>
       </c>
       <c r="I59" t="n">
-        <v>18.8</v>
+        <v>28.9</v>
       </c>
       <c r="J59" t="n">
-        <v>46.9</v>
+        <v>47.4</v>
       </c>
       <c r="K59" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="L59" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>40.7</v>
+        <v>43.2</v>
       </c>
       <c r="H60" t="n">
-        <v>23.7</v>
+        <v>11.4</v>
       </c>
       <c r="I60" t="n">
-        <v>35.6</v>
+        <v>45.5</v>
       </c>
       <c r="J60" t="n">
-        <v>64.40000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="K60" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="L60" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Estrela U23</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gil Vicente U23</t>
+          <t>Songkhla</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.76</v>
+        <v>1.99</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,42 +3237,42 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>40.7</v>
+        <v>52.6</v>
       </c>
       <c r="H61" t="n">
-        <v>23.7</v>
+        <v>21.1</v>
       </c>
       <c r="I61" t="n">
-        <v>35.6</v>
+        <v>26.3</v>
       </c>
       <c r="J61" t="n">
-        <v>64.40000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="K61" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="L61" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Estudiantes de Rio Cuarto</t>
+          <t>Aarhus Fremad</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>59.7</v>
+        <v>54.5</v>
       </c>
       <c r="H62" t="n">
-        <v>17.7</v>
+        <v>24.2</v>
       </c>
       <c r="I62" t="n">
-        <v>22.6</v>
+        <v>21.2</v>
       </c>
       <c r="J62" t="n">
-        <v>61.3</v>
+        <v>51.5</v>
       </c>
       <c r="K62" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="L62" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Valletta FC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Floriana</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.82</v>
+        <v>2.91</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>59.7</v>
+        <v>33.3</v>
       </c>
       <c r="H63" t="n">
-        <v>17.7</v>
+        <v>28.6</v>
       </c>
       <c r="I63" t="n">
-        <v>22.6</v>
+        <v>38.1</v>
       </c>
       <c r="J63" t="n">
-        <v>61.3</v>
+        <v>52.4</v>
       </c>
       <c r="K63" t="n">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="L63" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>King's Lynn Town</t>
+          <t>CSA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Southport</t>
+          <t>Cruzeiro Arapiraca</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>51.3</v>
+        <v>58.1</v>
       </c>
       <c r="H64" t="n">
-        <v>19.7</v>
+        <v>32.6</v>
       </c>
       <c r="I64" t="n">
-        <v>28.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>47.4</v>
+        <v>37.2</v>
       </c>
       <c r="K64" t="n">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="L64" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hull City U21</t>
+          <t>Al Sulaibikhat</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21</t>
+          <t>Yarmouk</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.6</v>
+        <v>3.38</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>65.7</v>
+        <v>28.6</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="I65" t="n">
-        <v>34.3</v>
+        <v>57.1</v>
       </c>
       <c r="J65" t="n">
-        <v>34.3</v>
+        <v>57.1</v>
       </c>
       <c r="K65" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="L65" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20:10</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Al-Faisaly FC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>65.7</v>
+        <v>58.1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="I66" t="n">
-        <v>34.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>34.3</v>
+        <v>37.2</v>
       </c>
       <c r="K66" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="L66" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Instituto Cordoba</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.76</v>
+        <v>2.89</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>60.6</v>
+        <v>33.3</v>
       </c>
       <c r="H67" t="n">
-        <v>18.3</v>
+        <v>33.3</v>
       </c>
       <c r="I67" t="n">
-        <v>21.1</v>
+        <v>33.3</v>
       </c>
       <c r="J67" t="n">
-        <v>46.5</v>
+        <v>16.7</v>
       </c>
       <c r="K67" t="n">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="L67" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lancaster City</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hyde United</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.72</v>
+        <v>2.83</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>60.6</v>
+        <v>33.3</v>
       </c>
       <c r="H68" t="n">
-        <v>18.3</v>
+        <v>33.3</v>
       </c>
       <c r="I68" t="n">
-        <v>21.1</v>
+        <v>33.3</v>
       </c>
       <c r="J68" t="n">
-        <v>46.5</v>
+        <v>16.7</v>
       </c>
       <c r="K68" t="n">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="L68" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gimnasia M.</t>
+          <t>Jeonbuk Motors</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>52.6</v>
+        <v>45.3</v>
       </c>
       <c r="H69" t="n">
-        <v>21.1</v>
+        <v>26.4</v>
       </c>
       <c r="I69" t="n">
-        <v>26.3</v>
+        <v>28.3</v>
       </c>
       <c r="J69" t="n">
-        <v>60.5</v>
+        <v>45.3</v>
       </c>
       <c r="K69" t="n">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="L69" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Apoel Nicosia</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>52.6</v>
+        <v>47.2</v>
       </c>
       <c r="H70" t="n">
-        <v>21.1</v>
+        <v>22.2</v>
       </c>
       <c r="I70" t="n">
-        <v>26.3</v>
+        <v>30.6</v>
       </c>
       <c r="J70" t="n">
-        <v>60.5</v>
+        <v>27.8</v>
       </c>
       <c r="K70" t="n">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="L70" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Burgan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FC Sion</t>
+          <t>Khaitan</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>35.9</v>
+        <v>34.8</v>
       </c>
       <c r="H71" t="n">
-        <v>33.3</v>
+        <v>26.1</v>
       </c>
       <c r="I71" t="n">
-        <v>30.8</v>
+        <v>39.1</v>
       </c>
       <c r="J71" t="n">
-        <v>43.6</v>
+        <v>52.2</v>
       </c>
       <c r="K71" t="n">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="L71" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Dulwich Hamlet</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Whitehawk</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>54.5</v>
+        <v>62.5</v>
       </c>
       <c r="H72" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="I72" t="n">
-        <v>21.2</v>
+        <v>12.5</v>
       </c>
       <c r="J72" t="n">
-        <v>51.5</v>
+        <v>40.6</v>
       </c>
       <c r="K72" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="L72" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Charlton Athletic U21</t>
+          <t>Stade Renard</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Millwall U21</t>
+          <t>Aigle Royal de Moungo</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>54.5</v>
+        <v>50.6</v>
       </c>
       <c r="H73" t="n">
-        <v>24.2</v>
+        <v>27.3</v>
       </c>
       <c r="I73" t="n">
-        <v>21.2</v>
+        <v>22.1</v>
       </c>
       <c r="J73" t="n">
-        <v>51.5</v>
+        <v>48.1</v>
       </c>
       <c r="K73" t="n">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="L73" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Petrolul Ploiesti</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>54.5</v>
+        <v>53.3</v>
       </c>
       <c r="H74" t="n">
-        <v>24.2</v>
+        <v>20</v>
       </c>
       <c r="I74" t="n">
-        <v>21.2</v>
+        <v>26.7</v>
       </c>
       <c r="J74" t="n">
-        <v>51.5</v>
+        <v>30</v>
       </c>
       <c r="K74" t="n">
-        <v>1.01</v>
+        <v>0.88</v>
       </c>
       <c r="L74" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cleethorpes Town</t>
+          <t>Eintracht Frankfurt W</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Warrington Town</t>
+          <t>1899 Hoffenheim W</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>48.4</v>
+        <v>50</v>
       </c>
       <c r="H75" t="n">
-        <v>17.2</v>
+        <v>35.7</v>
       </c>
       <c r="I75" t="n">
-        <v>34.4</v>
+        <v>14.3</v>
       </c>
       <c r="J75" t="n">
-        <v>48.4</v>
+        <v>65.7</v>
       </c>
       <c r="K75" t="n">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="L75" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Yate Town</t>
+          <t>B 93</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hungerford Town</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>48.4</v>
+        <v>42.6</v>
       </c>
       <c r="H76" t="n">
-        <v>17.2</v>
+        <v>18.5</v>
       </c>
       <c r="I76" t="n">
-        <v>34.4</v>
+        <v>38.9</v>
       </c>
       <c r="J76" t="n">
-        <v>48.4</v>
+        <v>31.5</v>
       </c>
       <c r="K76" t="n">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="L76" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Argentinos JRS</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Belgrano Cordoba</t>
+          <t>América SE</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>58.1</v>
+        <v>51.4</v>
       </c>
       <c r="H77" t="n">
-        <v>32.6</v>
+        <v>29.7</v>
       </c>
       <c r="I77" t="n">
-        <v>9.300000000000001</v>
+        <v>18.9</v>
       </c>
       <c r="J77" t="n">
-        <v>37.2</v>
+        <v>45.9</v>
       </c>
       <c r="K77" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="L77" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Real Betis U19</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Tottenham Hotspur U19</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,42 +4019,42 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>61.8</v>
+        <v>51.4</v>
       </c>
       <c r="H78" t="n">
-        <v>20.6</v>
+        <v>29.7</v>
       </c>
       <c r="I78" t="n">
-        <v>17.6</v>
+        <v>18.9</v>
       </c>
       <c r="J78" t="n">
-        <v>41.2</v>
+        <v>45.9</v>
       </c>
       <c r="K78" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="L78" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Saham</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sohar</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.65</v>
+        <v>1.26</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>36.4</v>
+        <v>66.7</v>
       </c>
       <c r="H79" t="n">
-        <v>31.8</v>
+        <v>33.3</v>
       </c>
       <c r="I79" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>54.5</v>
+        <v>28.2</v>
       </c>
       <c r="K79" t="n">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="L79" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zenit</t>
+          <t>Penedense</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dynamo</t>
+          <t>Murici Fc</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>58.1</v>
+        <v>36.4</v>
       </c>
       <c r="H80" t="n">
-        <v>32.6</v>
+        <v>22.7</v>
       </c>
       <c r="I80" t="n">
-        <v>9.300000000000001</v>
+        <v>40.9</v>
       </c>
       <c r="J80" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="K80" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="L80" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hekari United</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vanuatu United</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.69</v>
+        <v>1.28</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,42 +4157,42 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>36.4</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>31.8</v>
+        <v>19.2</v>
       </c>
       <c r="I81" t="n">
-        <v>31.8</v>
+        <v>15.4</v>
       </c>
       <c r="J81" t="n">
-        <v>54.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="L81" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Birkirkara</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tarxien Rainbows</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4203,42 +4203,42 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>61.1</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>38.9</v>
+        <v>19.2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J82" t="n">
-        <v>50</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="L82" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Barnet</t>
+          <t>Al Zulfi</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Crewe</t>
+          <t>Al Baten</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4249,42 +4249,42 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>56.7</v>
+        <v>43.8</v>
       </c>
       <c r="H83" t="n">
-        <v>36.7</v>
+        <v>30.1</v>
       </c>
       <c r="I83" t="n">
-        <v>6.7</v>
+        <v>26</v>
       </c>
       <c r="J83" t="n">
-        <v>53.3</v>
+        <v>45.2</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L83" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>FC ST. Gallen</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>FC Basel 1893</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4295,42 +4295,42 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>46.3</v>
+        <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>26.8</v>
+        <v>35</v>
       </c>
       <c r="I84" t="n">
-        <v>26.8</v>
+        <v>35</v>
       </c>
       <c r="J84" t="n">
-        <v>56.1</v>
+        <v>40</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L84" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cheshunt</t>
+          <t>Cacahuatique</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>St Albans City</t>
+          <t>Firpo</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4341,42 +4341,42 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>34.1</v>
+        <v>18.2</v>
       </c>
       <c r="H85" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="I85" t="n">
-        <v>29.3</v>
+        <v>45.5</v>
       </c>
       <c r="J85" t="n">
-        <v>48.8</v>
+        <v>9.1</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="L85" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rylands</t>
+          <t>Khenchela</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rushall Olympic</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4387,42 +4387,42 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J86" t="n">
         <v>50</v>
       </c>
-      <c r="H86" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>65.7</v>
-      </c>
       <c r="K86" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="L86" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Victoria United</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Cotonsport</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4433,42 +4433,42 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J87" t="n">
         <v>50</v>
       </c>
-      <c r="H87" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>65.7</v>
-      </c>
       <c r="K87" t="n">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="L87" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Curzon Ashton</t>
+          <t>Panthère</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bedford Town</t>
+          <t>Fortuna Mfou</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4479,42 +4479,42 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>42.6</v>
+        <v>49</v>
       </c>
       <c r="H88" t="n">
-        <v>18.5</v>
+        <v>25.5</v>
       </c>
       <c r="I88" t="n">
-        <v>38.9</v>
+        <v>25.5</v>
       </c>
       <c r="J88" t="n">
-        <v>31.5</v>
+        <v>54.9</v>
       </c>
       <c r="K88" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="L88" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ebbsfleet United</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town</t>
+          <t>U.N.A.M. - Pumas</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4525,42 +4525,42 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>44.2</v>
+        <v>41.1</v>
       </c>
       <c r="H89" t="n">
-        <v>18.6</v>
+        <v>39.3</v>
       </c>
       <c r="I89" t="n">
-        <v>37.2</v>
+        <v>19.6</v>
       </c>
       <c r="J89" t="n">
-        <v>25.6</v>
+        <v>50</v>
       </c>
       <c r="K89" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="L89" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Colombe</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Dynamo de Douala</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4571,42 +4571,42 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>41.5</v>
+        <v>54.8</v>
       </c>
       <c r="H90" t="n">
-        <v>28.3</v>
+        <v>32.3</v>
       </c>
       <c r="I90" t="n">
-        <v>30.2</v>
+        <v>12.9</v>
       </c>
       <c r="J90" t="n">
-        <v>35.8</v>
+        <v>45.2</v>
       </c>
       <c r="K90" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="L90" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chatham Town</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brentwood Town</t>
+          <t>Omonia Aradippou</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4617,42 +4617,42 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>51.4</v>
+        <v>54.8</v>
       </c>
       <c r="H91" t="n">
-        <v>29.7</v>
+        <v>32.3</v>
       </c>
       <c r="I91" t="n">
-        <v>18.9</v>
+        <v>12.9</v>
       </c>
       <c r="J91" t="n">
-        <v>45.9</v>
+        <v>45.2</v>
       </c>
       <c r="K91" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="L91" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Al Salt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>Al Buqa'a</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4663,42 +4663,42 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I92" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J92" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K92" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="L92" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Al Anwar</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chainat</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4709,42 +4709,42 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I93" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J93" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K93" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="L93" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Bath City</t>
+          <t>CS Cartagines</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4755,42 +4755,42 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>50</v>
+        <v>32.2</v>
       </c>
       <c r="H94" t="n">
-        <v>35</v>
+        <v>32.2</v>
       </c>
       <c r="I94" t="n">
-        <v>15</v>
+        <v>35.6</v>
       </c>
       <c r="J94" t="n">
-        <v>55</v>
+        <v>42.4</v>
       </c>
       <c r="K94" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
       <c r="L94" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Al Wihdat</t>
+          <t>remo</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.25</v>
+        <v>2.69</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4801,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>65.40000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="H95" t="n">
-        <v>19.2</v>
+        <v>34.6</v>
       </c>
       <c r="I95" t="n">
-        <v>15.4</v>
+        <v>38.5</v>
       </c>
       <c r="J95" t="n">
-        <v>65.40000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="K95" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="L95" t="n">
         <v>26</v>
@@ -4822,21 +4822,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Academico Viseu U23</t>
+          <t>Gosport Borough</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Santa Clara U23</t>
+          <t>Gloucester City</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4847,42 +4847,42 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>50</v>
+        <v>27.3</v>
       </c>
       <c r="H96" t="n">
-        <v>35</v>
+        <v>24.2</v>
       </c>
       <c r="I96" t="n">
-        <v>15</v>
+        <v>48.5</v>
       </c>
       <c r="J96" t="n">
-        <v>55</v>
+        <v>51.5</v>
       </c>
       <c r="K96" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="L96" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Real Madrid U19</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Olympique Marseille U19</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.26</v>
+        <v>2.32</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4893,42 +4893,42 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>65.2</v>
+        <v>27.6</v>
       </c>
       <c r="H97" t="n">
-        <v>26.1</v>
+        <v>37.9</v>
       </c>
       <c r="I97" t="n">
-        <v>8.699999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="J97" t="n">
-        <v>43.5</v>
+        <v>27.6</v>
       </c>
       <c r="K97" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="L97" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Công An Nhân Dân</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Tampines Rovers</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4939,42 +4939,42 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>43.8</v>
+        <v>39</v>
       </c>
       <c r="H98" t="n">
-        <v>30.1</v>
+        <v>25.6</v>
       </c>
       <c r="I98" t="n">
-        <v>26</v>
+        <v>35.4</v>
       </c>
       <c r="J98" t="n">
-        <v>45.2</v>
+        <v>53.7</v>
       </c>
       <c r="K98" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="L98" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4985,42 +4985,42 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>30</v>
+        <v>48.8</v>
       </c>
       <c r="H99" t="n">
-        <v>35</v>
+        <v>32.6</v>
       </c>
       <c r="I99" t="n">
-        <v>35</v>
+        <v>18.6</v>
       </c>
       <c r="J99" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="K99" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="L99" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Deportivo Tachira FC</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.69</v>
+        <v>1.21</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5031,42 +5031,42 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>30</v>
+        <v>48.8</v>
       </c>
       <c r="H100" t="n">
-        <v>35</v>
+        <v>32.6</v>
       </c>
       <c r="I100" t="n">
-        <v>35</v>
+        <v>18.6</v>
       </c>
       <c r="J100" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="L100" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Buriram United</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Beyoğlu Yeni Çarşı</t>
+          <t>Dynamic Herb Cebu</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5077,42 +5077,42 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>69.7</v>
+        <v>57.1</v>
       </c>
       <c r="H101" t="n">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
       <c r="I101" t="n">
-        <v>12.1</v>
+        <v>28.6</v>
       </c>
       <c r="J101" t="n">
-        <v>69.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L101" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Quorn</t>
+          <t>Khon Kaen United</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Stamford</t>
+          <t>Phrae United</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5123,42 +5123,42 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H102" t="n">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="I102" t="n">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="J102" t="n">
-        <v>54.9</v>
+        <v>70</v>
       </c>
       <c r="K102" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="L102" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Peterborough United U21</t>
+          <t>Galícia</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Huddersfield Town U21</t>
+          <t>Bahia de Feira</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5169,42 +5169,42 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>49</v>
+        <v>23.4</v>
       </c>
       <c r="H103" t="n">
-        <v>25.5</v>
+        <v>17</v>
       </c>
       <c r="I103" t="n">
-        <v>25.5</v>
+        <v>59.6</v>
       </c>
       <c r="J103" t="n">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="K103" t="n">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="L103" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Taunton Town</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Depor FC</t>
+          <t>Wimborne Town</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5215,42 +5215,42 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>42.4</v>
+        <v>23.4</v>
       </c>
       <c r="H104" t="n">
-        <v>9.1</v>
+        <v>17</v>
       </c>
       <c r="I104" t="n">
-        <v>48.5</v>
+        <v>59.6</v>
       </c>
       <c r="J104" t="n">
-        <v>42.4</v>
+        <v>55.3</v>
       </c>
       <c r="K104" t="n">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="L104" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dartford</t>
+          <t>Internacional Palmira</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ramsgate</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5261,42 +5261,42 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>45</v>
+        <v>20.9</v>
       </c>
       <c r="H105" t="n">
-        <v>20</v>
+        <v>24.2</v>
       </c>
       <c r="I105" t="n">
-        <v>35</v>
+        <v>54.9</v>
       </c>
       <c r="J105" t="n">
-        <v>35</v>
+        <v>69.2</v>
       </c>
       <c r="K105" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="L105" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AFC Hornchurch</t>
+          <t>Fafe</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Salisbury</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.49</v>
+        <v>3.06</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5307,42 +5307,42 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>50</v>
+        <v>15.4</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="I106" t="n">
-        <v>50</v>
+        <v>46.2</v>
       </c>
       <c r="J106" t="n">
-        <v>50</v>
+        <v>61.5</v>
       </c>
       <c r="K106" t="n">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="L106" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Glentoran</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Coleraine FC</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2.27</v>
+        <v>3.05</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5353,42 +5353,42 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>32.2</v>
+        <v>15.4</v>
       </c>
       <c r="H107" t="n">
-        <v>32.2</v>
+        <v>38.5</v>
       </c>
       <c r="I107" t="n">
-        <v>35.6</v>
+        <v>46.2</v>
       </c>
       <c r="J107" t="n">
-        <v>42.4</v>
+        <v>61.5</v>
       </c>
       <c r="K107" t="n">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="L107" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:45</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Spennymoor Town</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>AFC Telford United</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2.39</v>
+        <v>3.16</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5399,42 +5399,42 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>30.3</v>
+        <v>7.7</v>
       </c>
       <c r="H108" t="n">
-        <v>18.2</v>
+        <v>23.1</v>
       </c>
       <c r="I108" t="n">
-        <v>51.5</v>
+        <v>69.2</v>
       </c>
       <c r="J108" t="n">
-        <v>48.5</v>
+        <v>53.8</v>
       </c>
       <c r="K108" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="L108" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Zamalek SC</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2.69</v>
+        <v>3.96</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5445,42 +5445,42 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>57.7</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Khalidiya</t>
+          <t>Estac Troyes</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Al Hala</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.14</v>
+        <v>5.45</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5491,42 +5491,42 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Fethiyespor</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.11</v>
+        <v>6.25</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5537,42 +5537,42 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Hapoel Beer Sheva</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5583,42 +5583,42 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sama Al Sarhan</t>
+          <t>Dagon Port</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Al Jazeera</t>
+          <t>Dagon</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2.38</v>
+        <v>6.85</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5629,42 +5629,42 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>37.9</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Marsaxlokk</t>
+          <t>UMM Salal</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sliema Wanderers</t>
+          <t>Al-Duhail SC</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2.56</v>
+        <v>6.35</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5675,42 +5675,42 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>65.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chesham United</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>AFC Totton</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2.09</v>
+        <v>6.25</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5721,42 +5721,42 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Watford U21</t>
+          <t>NK Domzale</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21</t>
+          <t>Maribor</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5767,42 +5767,42 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>14.8</v>
+        <v>33.3</v>
       </c>
       <c r="I116" t="n">
-        <v>54.1</v>
+        <v>66.7</v>
       </c>
       <c r="J116" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Famalicão U23</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sporting Braga U23</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2.05</v>
+        <v>6.1</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5813,42 +5813,42 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AZ U19</t>
+          <t>Bula</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Borussia Dortmund U19</t>
+          <t>South Melbourne</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.62</v>
+        <v>5.9</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5859,42 +5859,42 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>53.7</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CSKA Moscow</t>
+          <t>HJK U19</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FC Krasnodar</t>
+          <t>Manchester City U19</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2.84</v>
+        <v>12.75</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5905,42 +5905,42 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>55.6</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AC Horsens</t>
+          <t>Puskás Akadémia U19</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FC Fredericia</t>
+          <t>Sporting CP U19</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2.88</v>
+        <v>12.25</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5951,343 +5951,21 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Queen's Park</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Ross County</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>25</v>
-      </c>
-      <c r="I121" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L121" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>National Bank of Egypt</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Al Ahly</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Fleetwood Town U21</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Sheffield United U21</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Loughgall</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Knockbreda</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>AFC Hermannstadt</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Rapid</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,67 +498,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mebrat Hayl</t>
+          <t>Maccabi Kabilio Jaffa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sidama Bunna</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.84</v>
+        <v>6.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92</v>
+        <v>6.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JC</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>3.52</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -578,125 +578,125 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1.05</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fuerte San Francisco</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Águila</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.7</v>
+        <v>1.09</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Bangkok United</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Shan United</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.800000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>São Francisco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>ADESG</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -716,171 +716,171 @@
         <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Hapoel Umm al-Fahm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Hapoel Ironi Karmiel</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.32</v>
+        <v>3.12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>94.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>94.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>48.6</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Querétaro W</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>León W</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>90.5</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>47.6</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brittons Hill</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bagatelle</t>
+          <t>Argentino Monte Maíz</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>🏠 Home Win</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.28</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>🏠 Home Win</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.06</v>
-      </c>
       <c r="L9" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AO Itabaiana</t>
+          <t>Turan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dorense</t>
+          <t>Kapaz</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -888,45 +888,45 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>84.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>84.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>42.3</v>
+        <v>45.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bnei Yehuda</t>
+          <t>Aliağa FAŞ</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -934,45 +934,45 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>84.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>84.59999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42.3</v>
+        <v>45.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="L11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Real Estelí</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Rancho Santana</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -986,16 +986,16 @@
         <v>84.59999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="I12" t="n">
-        <v>11.5</v>
+        <v>7.7</v>
       </c>
       <c r="J12" t="n">
-        <v>42.3</v>
+        <v>19.2</v>
       </c>
       <c r="K12" t="n">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="L12" t="n">
         <v>26</v>
@@ -1004,665 +1004,665 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rasi Salai United</t>
+          <t>Al-Ahli Jeddah</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat</t>
+          <t>Al-Hazm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>28</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>82.7</v>
+        <v>47.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L13" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Al Wahda FC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="H14" t="n">
-        <v>18.2</v>
+        <v>23.7</v>
       </c>
       <c r="I14" t="n">
-        <v>81.8</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>54.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="L14" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Benfica U19</t>
+          <t>Keçiörengücü</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Slavia Praha U19</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.14</v>
+        <v>2.86</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>79.3</v>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>79.3</v>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="K15" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Uta Arad</t>
+          <t>Aluminij</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CFR 1907 Cluj</t>
+          <t>Olimpija Ljubljana</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>79.3</v>
+        <v>77.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="H16" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>79.3</v>
+        <v>55.6</v>
       </c>
       <c r="J16" t="n">
-        <v>31</v>
+        <v>77.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="L16" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Daejeon Citizen</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.41</v>
+        <v>3.96</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>78.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J17" t="n">
         <v>42.9</v>
       </c>
-      <c r="H17" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>78.59999999999999</v>
-      </c>
       <c r="K17" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mahasarakham United</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Al Fahaheel</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.48</v>
+        <v>2.52</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>78.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="G18" t="n">
-        <v>42.9</v>
+        <v>70</v>
       </c>
       <c r="H18" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>42.9</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>78.59999999999999</v>
+        <v>40</v>
       </c>
       <c r="K18" t="n">
-        <v>0.62</v>
+        <v>1.78</v>
       </c>
       <c r="L18" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Buckie Thistle</t>
+          <t>Raya Ghazl</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brechin</t>
+          <t>El Dakhleya</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.64</v>
+        <v>3.06</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>77.8</v>
+        <v>70</v>
       </c>
       <c r="G19" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>33.3</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J19" t="n">
-        <v>77.8</v>
+        <v>50</v>
       </c>
       <c r="K19" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sabah FA</t>
+          <t>Tanta SC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Qabala</t>
+          <t>El Seka El Hadid</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.32</v>
+        <v>3.02</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>77.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>11.4</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>11.4</v>
+        <v>70</v>
       </c>
       <c r="J20" t="n">
-        <v>48.6</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Omonia Nicosia</t>
+          <t>Al Tadhamon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AEL</t>
+          <t>Al Nasar</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.33</v>
+        <v>2.73</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>77.09999999999999</v>
+        <v>57.1</v>
       </c>
       <c r="G21" t="n">
-        <v>77.09999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="H21" t="n">
-        <v>11.4</v>
+        <v>57.1</v>
       </c>
       <c r="I21" t="n">
-        <v>11.4</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>48.6</v>
+        <v>42.9</v>
       </c>
       <c r="K21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="L21" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Al Diriyah</t>
+          <t>Sharjah FC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Al Wehda Club</t>
+          <t>Shabab Al Ahli Dubai</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.32</v>
+        <v>3.44</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>77.09999999999999</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>77.09999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="H22" t="n">
-        <v>11.4</v>
+        <v>50</v>
       </c>
       <c r="I22" t="n">
-        <v>11.4</v>
+        <v>16.7</v>
       </c>
       <c r="J22" t="n">
-        <v>48.6</v>
+        <v>16.7</v>
       </c>
       <c r="K22" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="L22" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Forte FC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Vitória ES</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.21</v>
+        <v>4.05</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>75.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>75.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.3</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>17.1</v>
+        <v>50</v>
       </c>
       <c r="J23" t="n">
-        <v>63.4</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Chanthaburi</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>45.7</v>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H24" t="n">
-        <v>12.5</v>
+        <v>45.7</v>
       </c>
       <c r="I24" t="n">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="J24" t="n">
-        <v>75</v>
+        <v>34.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Villarreal U19</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen U19</t>
+          <t>Al-Wasl FC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.47</v>
+        <v>3.82</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>75</v>
+        <v>45.5</v>
       </c>
       <c r="G25" t="n">
-        <v>52.3</v>
+        <v>18.2</v>
       </c>
       <c r="H25" t="n">
-        <v>27.3</v>
+        <v>45.5</v>
       </c>
       <c r="I25" t="n">
-        <v>20.5</v>
+        <v>36.4</v>
       </c>
       <c r="J25" t="n">
-        <v>75</v>
+        <v>54.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="L25" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.02</v>
+        <v>1.7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>70</v>
+        <v>45.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="H26" t="n">
-        <v>30</v>
+        <v>45.2</v>
       </c>
       <c r="I26" t="n">
-        <v>70</v>
+        <v>16.1</v>
       </c>
       <c r="J26" t="n">
-        <v>50</v>
+        <v>27.4</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rīgas FS</t>
+          <t>Atletico Nacional</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FK Zalgiris Vilnius</t>
+          <t>America de Cali</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1670,45 +1670,45 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>58.8</v>
+        <v>43.3</v>
       </c>
       <c r="G27" t="n">
-        <v>41.2</v>
+        <v>36.7</v>
       </c>
       <c r="H27" t="n">
-        <v>58.8</v>
+        <v>43.3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>17.6</v>
+        <v>66.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="L27" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sumqayıt</t>
+          <t>Rakhine United</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Yadanarbon</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2.77</v>
+        <v>4.6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1716,551 +1716,551 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>57.1</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>38.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.1</v>
+        <v>40</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>60</v>
       </c>
       <c r="J28" t="n">
-        <v>42.9</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Forge</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5.05</v>
+        <v>3.55</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>18.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>36.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.52</v>
+        <v>1.93</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RB Bragantino</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.18</v>
+        <v>3.84</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>50</v>
       </c>
-      <c r="G30" t="n">
-        <v>36.9</v>
-      </c>
       <c r="H30" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="I30" t="n">
-        <v>13.1</v>
+        <v>16.7</v>
       </c>
       <c r="J30" t="n">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.79</v>
+        <v>1.92</v>
       </c>
       <c r="L30" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>PWD Bamenda</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dinamo Bucuresti</t>
+          <t>Gazelle</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>50</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Negelle Arsi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Mekelle Kenema</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.74</v>
+        <v>2.3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>64.7</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>11.8</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>23.5</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>38.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hadiya Hosaena</t>
+          <t>Bahardar</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mekelakeya</t>
+          <t>Ethiopia Nigd Bank</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.85</v>
+        <v>2.27</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>18.2</v>
+        <v>60.9</v>
       </c>
       <c r="H33" t="n">
-        <v>45.5</v>
+        <v>27.5</v>
       </c>
       <c r="I33" t="n">
-        <v>36.4</v>
+        <v>11.6</v>
       </c>
       <c r="J33" t="n">
-        <v>54.5</v>
+        <v>47.8</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7</v>
+        <v>1.37</v>
       </c>
       <c r="L33" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sheger Ketema</t>
+          <t>Al Zawra'a</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Suhul Shire</t>
+          <t>Zakho</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>12.9</v>
+        <v>63.2</v>
       </c>
       <c r="H34" t="n">
-        <v>41.9</v>
+        <v>13.2</v>
       </c>
       <c r="I34" t="n">
-        <v>45.2</v>
+        <v>23.7</v>
       </c>
       <c r="J34" t="n">
-        <v>77.40000000000001</v>
+        <v>42.1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.29</v>
+        <v>1.36</v>
       </c>
       <c r="L34" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Accrington ST</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.58</v>
+        <v>3.02</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.5</v>
+        <v>44.4</v>
       </c>
       <c r="H35" t="n">
-        <v>41.5</v>
+        <v>11.1</v>
       </c>
       <c r="I35" t="n">
-        <v>17.1</v>
+        <v>44.4</v>
       </c>
       <c r="J35" t="n">
-        <v>63.4</v>
+        <v>55.6</v>
       </c>
       <c r="K35" t="n">
-        <v>0.64</v>
+        <v>1.35</v>
       </c>
       <c r="L35" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eyüpspor</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.61</v>
+        <v>2.47</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>41.4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.9</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>41.4</v>
+        <v>38.9</v>
       </c>
       <c r="I36" t="n">
-        <v>20.7</v>
+        <v>11.1</v>
       </c>
       <c r="J36" t="n">
-        <v>65.5</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>0.63</v>
+        <v>1.22</v>
       </c>
       <c r="L36" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tigres FC</t>
+          <t>Guarany de Bagé</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Monsoon</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.43</v>
+        <v>2.26</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>47.1</v>
+        <v>53.1</v>
       </c>
       <c r="H37" t="n">
-        <v>41.2</v>
+        <v>15.6</v>
       </c>
       <c r="I37" t="n">
-        <v>11.8</v>
+        <v>31.2</v>
       </c>
       <c r="J37" t="n">
-        <v>47.1</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="L37" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Onhaye</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ganshoren</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>25.7</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>40</v>
+        <v>31.2</v>
       </c>
       <c r="I38" t="n">
-        <v>34.3</v>
+        <v>18.8</v>
       </c>
       <c r="J38" t="n">
-        <v>62.9</v>
+        <v>46.9</v>
       </c>
       <c r="K38" t="n">
-        <v>0.63</v>
+        <v>1.17</v>
       </c>
       <c r="L38" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Union St. Gilloise</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3.72</v>
+        <v>1.71</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H39" t="n">
-        <v>40</v>
+        <v>27.5</v>
       </c>
       <c r="I39" t="n">
-        <v>60</v>
+        <v>5.9</v>
       </c>
       <c r="J39" t="n">
-        <v>80</v>
+        <v>45.1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L39" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Esan Pattaya</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Başakşehir</t>
+          <t>Pattani</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.05</v>
+        <v>2.34</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2274,39 +2274,39 @@
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
+        <v>18.8</v>
       </c>
       <c r="J40" t="n">
-        <v>50</v>
+        <v>46.9</v>
       </c>
       <c r="K40" t="n">
-        <v>2.52</v>
+        <v>1.17</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Sagaing United</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Thitsar Arman</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.66</v>
+        <v>1.8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2317,42 +2317,42 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>60</v>
+        <v>62.8</v>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>27.9</v>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>58.1</v>
       </c>
       <c r="K41" t="n">
-        <v>2.19</v>
+        <v>1.16</v>
       </c>
       <c r="L41" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>El Bayadh</t>
+          <t>Operário MT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MB Rouisset</t>
+          <t>Nova Mutum EC</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.34</v>
+        <v>3.06</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2363,42 +2363,42 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>64.7</v>
+        <v>37.5</v>
       </c>
       <c r="H42" t="n">
-        <v>11.8</v>
+        <v>25</v>
       </c>
       <c r="I42" t="n">
-        <v>23.5</v>
+        <v>37.5</v>
       </c>
       <c r="J42" t="n">
-        <v>38.2</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="L42" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Diyala</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Al Karkh</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2409,42 +2409,42 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.8</v>
+        <v>40.7</v>
       </c>
       <c r="H43" t="n">
-        <v>30.8</v>
+        <v>23.7</v>
       </c>
       <c r="I43" t="n">
-        <v>15.4</v>
+        <v>35.6</v>
       </c>
       <c r="J43" t="n">
-        <v>46.2</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="L43" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Naxxar Lions</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mosta</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2455,42 +2455,42 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>60.9</v>
+        <v>51.1</v>
       </c>
       <c r="H44" t="n">
-        <v>27.5</v>
+        <v>22.2</v>
       </c>
       <c r="I44" t="n">
-        <v>11.6</v>
+        <v>26.7</v>
       </c>
       <c r="J44" t="n">
-        <v>47.8</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="L44" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Al-Arabi SC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FC Luzern</t>
+          <t>Al Shamal</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.04</v>
+        <v>2.17</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>44.4</v>
+        <v>51.1</v>
       </c>
       <c r="H45" t="n">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="I45" t="n">
-        <v>44.4</v>
+        <v>26.7</v>
       </c>
       <c r="J45" t="n">
-        <v>55.6</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="L45" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Vasco DA Gama</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Chapecoense-sc</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3.38</v>
+        <v>1.6</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2547,42 +2547,42 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>65.7</v>
       </c>
       <c r="H46" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40</v>
+        <v>34.3</v>
       </c>
       <c r="J46" t="n">
-        <v>40</v>
+        <v>34.3</v>
       </c>
       <c r="K46" t="n">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiangmai United</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Police Tero</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.53</v>
+        <v>1.78</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2593,42 +2593,42 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>61.1</v>
       </c>
       <c r="H47" t="n">
-        <v>31</v>
+        <v>18.1</v>
       </c>
       <c r="I47" t="n">
-        <v>19</v>
+        <v>20.8</v>
       </c>
       <c r="J47" t="n">
-        <v>45.2</v>
+        <v>47.2</v>
       </c>
       <c r="K47" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="L47" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Selangor</t>
+          <t>Budaiya</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BG Pathum United</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.23</v>
+        <v>2.41</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>53.1</v>
+        <v>43.2</v>
       </c>
       <c r="H48" t="n">
-        <v>15.6</v>
+        <v>11.4</v>
       </c>
       <c r="I48" t="n">
-        <v>31.2</v>
+        <v>45.5</v>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>31.8</v>
       </c>
       <c r="K48" t="n">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="L48" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Legia Warszawa U19</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ajax U19</t>
+          <t>GO Ahead Eagles</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,42 +2685,42 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>37.5</v>
+        <v>43.2</v>
       </c>
       <c r="H49" t="n">
-        <v>18.8</v>
+        <v>11.4</v>
       </c>
       <c r="I49" t="n">
-        <v>43.8</v>
+        <v>45.5</v>
       </c>
       <c r="J49" t="n">
-        <v>62.5</v>
+        <v>31.8</v>
       </c>
       <c r="K49" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="L49" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Fasil Ketema</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.75</v>
+        <v>3.02</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="H50" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="I50" t="n">
-        <v>5.9</v>
+        <v>40</v>
       </c>
       <c r="J50" t="n">
-        <v>45.1</v>
+        <v>46.7</v>
       </c>
       <c r="K50" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="L50" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>00:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Independ. Rivadavia</t>
+          <t>A'Ali</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>66.7</v>
+        <v>48.9</v>
       </c>
       <c r="H51" t="n">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>5.9</v>
+        <v>31.1</v>
       </c>
       <c r="J51" t="n">
-        <v>45.1</v>
+        <v>53.3</v>
       </c>
       <c r="K51" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>H&amp;H Export</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kalsdorf</t>
+          <t>Jalapa</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>66.7</v>
+        <v>48.9</v>
       </c>
       <c r="H52" t="n">
-        <v>27.5</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>5.9</v>
+        <v>31.1</v>
       </c>
       <c r="J52" t="n">
-        <v>45.1</v>
+        <v>53.3</v>
       </c>
       <c r="K52" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Humaitá</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vasco da Gama AC</t>
+          <t>Capivariano</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.74</v>
+        <v>1.52</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>40.7</v>
+        <v>63.9</v>
       </c>
       <c r="H53" t="n">
-        <v>23.7</v>
+        <v>22.2</v>
       </c>
       <c r="I53" t="n">
-        <v>35.6</v>
+        <v>13.9</v>
       </c>
       <c r="J53" t="n">
-        <v>64.40000000000001</v>
+        <v>61.1</v>
       </c>
       <c r="K53" t="n">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="L53" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AL Masry</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,42 +2915,42 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>40.7</v>
+        <v>34.6</v>
       </c>
       <c r="H54" t="n">
-        <v>23.7</v>
+        <v>26.9</v>
       </c>
       <c r="I54" t="n">
-        <v>35.6</v>
+        <v>38.5</v>
       </c>
       <c r="J54" t="n">
-        <v>64.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="L54" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Metaloglobus</t>
+          <t>Al Najaf</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Al-Qasim</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2.72</v>
+        <v>1.62</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>40.7</v>
+        <v>58.1</v>
       </c>
       <c r="H55" t="n">
-        <v>23.7</v>
+        <v>32.6</v>
       </c>
       <c r="I55" t="n">
-        <v>35.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>64.40000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="K55" t="n">
-        <v>1.12</v>
+        <v>0.96</v>
       </c>
       <c r="L55" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Porto Vitória</t>
+          <t>Nam Dinh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Serra Talhada</t>
+          <t>Johor Darul Takzim FC</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I56" t="n">
         <v>57.1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.4</v>
       </c>
       <c r="J56" t="n">
         <v>57.1</v>
       </c>
       <c r="K56" t="n">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="L56" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Tersana</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Maleyet Kafr El Zayiat</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2.16</v>
+        <v>1.82</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="H57" t="n">
-        <v>19.7</v>
+        <v>22</v>
       </c>
       <c r="I57" t="n">
-        <v>28.9</v>
+        <v>26.8</v>
       </c>
       <c r="J57" t="n">
-        <v>47.4</v>
+        <v>43.9</v>
       </c>
       <c r="K57" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="L57" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Erbil</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Naft</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>59.7</v>
+        <v>45.3</v>
       </c>
       <c r="H58" t="n">
-        <v>17.7</v>
+        <v>26.4</v>
       </c>
       <c r="I58" t="n">
-        <v>22.6</v>
+        <v>28.3</v>
       </c>
       <c r="J58" t="n">
-        <v>61.3</v>
+        <v>45.3</v>
       </c>
       <c r="K58" t="n">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="L58" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hibernians</t>
+          <t>Shimshon Tel Aviv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Zabbar St. Patrick</t>
+          <t>Holon Yermiyahu</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>51.3</v>
+        <v>45.3</v>
       </c>
       <c r="H59" t="n">
-        <v>19.7</v>
+        <v>26.4</v>
       </c>
       <c r="I59" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="J59" t="n">
-        <v>47.4</v>
+        <v>45.3</v>
       </c>
       <c r="K59" t="n">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="L59" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>43.2</v>
+        <v>47.2</v>
       </c>
       <c r="H60" t="n">
-        <v>11.4</v>
+        <v>22.2</v>
       </c>
       <c r="I60" t="n">
-        <v>45.5</v>
+        <v>30.6</v>
       </c>
       <c r="J60" t="n">
-        <v>31.8</v>
+        <v>27.8</v>
       </c>
       <c r="K60" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="L60" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Songkhla</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,42 +3237,42 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>52.6</v>
+        <v>43.8</v>
       </c>
       <c r="H61" t="n">
-        <v>21.1</v>
+        <v>25</v>
       </c>
       <c r="I61" t="n">
-        <v>26.3</v>
+        <v>31.2</v>
       </c>
       <c r="J61" t="n">
-        <v>60.5</v>
+        <v>42.5</v>
       </c>
       <c r="K61" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="L61" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Beitar Yavne</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Aarhus Fremad</t>
+          <t>Hapoel Marmorek</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>54.5</v>
+        <v>43.8</v>
       </c>
       <c r="H62" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="I62" t="n">
-        <v>21.2</v>
+        <v>31.2</v>
       </c>
       <c r="J62" t="n">
-        <v>51.5</v>
+        <v>42.5</v>
       </c>
       <c r="K62" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="L62" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Valletta FC</t>
+          <t>Orijent 1919</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Floriana</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2.91</v>
+        <v>2.64</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>33.3</v>
+        <v>34.1</v>
       </c>
       <c r="H63" t="n">
-        <v>28.6</v>
+        <v>36.6</v>
       </c>
       <c r="I63" t="n">
-        <v>38.1</v>
+        <v>29.3</v>
       </c>
       <c r="J63" t="n">
-        <v>52.4</v>
+        <v>48.8</v>
       </c>
       <c r="K63" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="L63" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CSA</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cruzeiro Arapiraca</t>
+          <t>Bogota FC</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>58.1</v>
+        <v>42.6</v>
       </c>
       <c r="H64" t="n">
-        <v>32.6</v>
+        <v>18.5</v>
       </c>
       <c r="I64" t="n">
-        <v>9.300000000000001</v>
+        <v>38.9</v>
       </c>
       <c r="J64" t="n">
-        <v>37.2</v>
+        <v>31.5</v>
       </c>
       <c r="K64" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="L64" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Al Sulaibikhat</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Yarmouk</t>
+          <t>Isidro Metapán</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3.38</v>
+        <v>2.06</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>28.6</v>
+        <v>42.6</v>
       </c>
       <c r="H65" t="n">
-        <v>14.3</v>
+        <v>18.5</v>
       </c>
       <c r="I65" t="n">
-        <v>57.1</v>
+        <v>38.9</v>
       </c>
       <c r="J65" t="n">
-        <v>57.1</v>
+        <v>31.5</v>
       </c>
       <c r="K65" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="L65" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Al-Faisaly FC</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Oţelul</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>58.1</v>
+        <v>51.2</v>
       </c>
       <c r="H66" t="n">
-        <v>32.6</v>
+        <v>34.1</v>
       </c>
       <c r="I66" t="n">
-        <v>9.300000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="J66" t="n">
-        <v>37.2</v>
+        <v>56.1</v>
       </c>
       <c r="K66" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="L66" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>00:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Instituto Cordoba</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.89</v>
+        <v>1.18</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>33.3</v>
+        <v>69.7</v>
       </c>
       <c r="H67" t="n">
-        <v>33.3</v>
+        <v>18.2</v>
       </c>
       <c r="I67" t="n">
-        <v>33.3</v>
+        <v>12.1</v>
       </c>
       <c r="J67" t="n">
-        <v>16.7</v>
+        <v>69.7</v>
       </c>
       <c r="K67" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="L67" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Abu Qair Semad</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>El Entag EL Harby</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>33.3</v>
+        <v>49</v>
       </c>
       <c r="H68" t="n">
-        <v>33.3</v>
+        <v>25.5</v>
       </c>
       <c r="I68" t="n">
-        <v>33.3</v>
+        <v>25.5</v>
       </c>
       <c r="J68" t="n">
-        <v>16.7</v>
+        <v>54.9</v>
       </c>
       <c r="K68" t="n">
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="L68" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jeonbuk Motors</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2.06</v>
+        <v>1.32</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>45.3</v>
+        <v>53.6</v>
       </c>
       <c r="H69" t="n">
-        <v>26.4</v>
+        <v>32.1</v>
       </c>
       <c r="I69" t="n">
-        <v>28.3</v>
+        <v>14.3</v>
       </c>
       <c r="J69" t="n">
-        <v>45.3</v>
+        <v>50</v>
       </c>
       <c r="K69" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="L69" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Al-Karma</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Apoel Nicosia</t>
+          <t>Al Talaba</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>47.2</v>
+        <v>32.2</v>
       </c>
       <c r="H70" t="n">
-        <v>22.2</v>
+        <v>32.2</v>
       </c>
       <c r="I70" t="n">
-        <v>30.6</v>
+        <v>35.6</v>
       </c>
       <c r="J70" t="n">
-        <v>27.8</v>
+        <v>42.4</v>
       </c>
       <c r="K70" t="n">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="L70" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Burgan</t>
+          <t>Municipal Limeño</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Khaitan</t>
+          <t>FAS</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>34.8</v>
+        <v>27.3</v>
       </c>
       <c r="H71" t="n">
-        <v>26.1</v>
+        <v>24.2</v>
       </c>
       <c r="I71" t="n">
-        <v>39.1</v>
+        <v>48.5</v>
       </c>
       <c r="J71" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="K71" t="n">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="L71" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Al-Fayha</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>62.5</v>
+        <v>39</v>
       </c>
       <c r="H72" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="I72" t="n">
-        <v>12.5</v>
+        <v>35.4</v>
       </c>
       <c r="J72" t="n">
-        <v>40.6</v>
+        <v>53.7</v>
       </c>
       <c r="K72" t="n">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="L72" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Stade Renard</t>
+          <t>Toluca W</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Aigle Royal de Moungo</t>
+          <t>Atlético San Luis W</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.74</v>
+        <v>1.22</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>50.6</v>
+        <v>50</v>
       </c>
       <c r="H73" t="n">
-        <v>27.3</v>
+        <v>31.8</v>
       </c>
       <c r="I73" t="n">
-        <v>22.1</v>
+        <v>18.2</v>
       </c>
       <c r="J73" t="n">
-        <v>48.1</v>
+        <v>38.6</v>
       </c>
       <c r="K73" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="L73" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Al Sadd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Al Shahaniya</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="H74" t="n">
-        <v>20</v>
+        <v>31.8</v>
       </c>
       <c r="I74" t="n">
-        <v>26.7</v>
+        <v>18.2</v>
       </c>
       <c r="J74" t="n">
-        <v>30</v>
+        <v>38.6</v>
       </c>
       <c r="K74" t="n">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="L74" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt W</t>
+          <t>Nacional AM</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1899 Hoffenheim W</t>
+          <t>Princesa Solimões</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>50</v>
+        <v>30.8</v>
       </c>
       <c r="H75" t="n">
-        <v>35.7</v>
+        <v>34.6</v>
       </c>
       <c r="I75" t="n">
-        <v>14.3</v>
+        <v>34.6</v>
       </c>
       <c r="J75" t="n">
-        <v>65.7</v>
+        <v>69.2</v>
       </c>
       <c r="K75" t="n">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="L75" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B 93</t>
+          <t>Popayan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>42.6</v>
+        <v>23.4</v>
       </c>
       <c r="H76" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="I76" t="n">
-        <v>38.9</v>
+        <v>59.6</v>
       </c>
       <c r="J76" t="n">
-        <v>31.5</v>
+        <v>55.3</v>
       </c>
       <c r="K76" t="n">
-        <v>0.87</v>
+        <v>0.57</v>
       </c>
       <c r="L76" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lagarto</t>
+          <t>Arsenal Tivat</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>América SE</t>
+          <t>Jezero</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.62</v>
+        <v>2.57</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>51.4</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>29.7</v>
+        <v>34.3</v>
       </c>
       <c r="I77" t="n">
-        <v>18.9</v>
+        <v>45.7</v>
       </c>
       <c r="J77" t="n">
-        <v>45.9</v>
+        <v>37.1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.85</v>
+        <v>0.51</v>
       </c>
       <c r="L77" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Real Betis U19</t>
+          <t>Kedus Giorgis</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur U19</t>
+          <t>Welwalo Adigrat Uni</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,42 +4019,42 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>51.4</v>
+        <v>24</v>
       </c>
       <c r="H78" t="n">
-        <v>29.7</v>
+        <v>24</v>
       </c>
       <c r="I78" t="n">
-        <v>18.9</v>
+        <v>52</v>
       </c>
       <c r="J78" t="n">
-        <v>45.9</v>
+        <v>60</v>
       </c>
       <c r="K78" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="L78" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>El Mokawloon</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.26</v>
+        <v>2.62</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>66.7</v>
+        <v>17.9</v>
       </c>
       <c r="H79" t="n">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="J79" t="n">
-        <v>28.2</v>
+        <v>60.7</v>
       </c>
       <c r="K79" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="L79" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Penedense</t>
+          <t>Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Murici Fc</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.28</v>
+        <v>3.12</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>36.4</v>
+        <v>7.7</v>
       </c>
       <c r="H80" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="I80" t="n">
-        <v>40.9</v>
+        <v>69.2</v>
       </c>
       <c r="J80" t="n">
-        <v>36.4</v>
+        <v>53.8</v>
       </c>
       <c r="K80" t="n">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
       <c r="L80" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Keshla FC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.28</v>
+        <v>8.1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,42 +4157,42 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>Al-Hilal Saudi FC</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.23</v>
+        <v>14</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4203,42 +4203,42 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>15.4</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Al Zulfi</t>
+          <t>Xelajú</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Al Baten</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.84</v>
+        <v>6.8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4249,42 +4249,42 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>45.2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FC ST. Gallen</t>
+          <t>Vancouver FC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FC Basel 1893</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.68</v>
+        <v>15.5</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4295,42 +4295,42 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cacahuatique</t>
+          <t>Guayaquil City FC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Firpo</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4341,1631 +4341,21 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Khenchela</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>ASO Chlef</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>50</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L86" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Victoria United</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Cotonsport</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>50</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L87" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Panthère</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Fortuna Mfou</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>49</v>
-      </c>
-      <c r="H88" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I88" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L88" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>San Diego</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>U.N.A.M. - Pumas</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="I89" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>50</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L89" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Colombe</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Dynamo de Douala</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="H90" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L90" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Apollon Limassol</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Omonia Aradippou</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="H91" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J91" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L91" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Al Salt</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Al Buqa'a</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>45</v>
-      </c>
-      <c r="H92" t="n">
-        <v>20</v>
-      </c>
-      <c r="I92" t="n">
-        <v>35</v>
-      </c>
-      <c r="J92" t="n">
-        <v>35</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L92" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Al Anwar</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Al Jubail</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>45</v>
-      </c>
-      <c r="H93" t="n">
-        <v>20</v>
-      </c>
-      <c r="I93" t="n">
-        <v>35</v>
-      </c>
-      <c r="J93" t="n">
-        <v>35</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L93" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Sporting San Jose</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>CS Cartagines</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="H94" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L94" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>remo</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="H95" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="L95" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Gosport Borough</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Gloucester City</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="H96" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L96" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Lorient</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Paris FC</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="H97" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="I97" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L97" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Công An Nhân Dân</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Tampines Rovers</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>39</v>
-      </c>
-      <c r="H98" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="I98" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L98" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Laval</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="H99" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L99" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>The Strongest</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Deportivo Tachira FC</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="H100" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="I100" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="L100" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Buriram United</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Dynamic Herb Cebu</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I101" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L101" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Khon Kaen United</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Phrae United</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>32</v>
-      </c>
-      <c r="H102" t="n">
-        <v>34</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34</v>
-      </c>
-      <c r="J102" t="n">
-        <v>70</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L102" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Galícia</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Bahia de Feira</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="H103" t="n">
-        <v>17</v>
-      </c>
-      <c r="I103" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L103" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Taunton Town</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Wimborne Town</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>17</v>
-      </c>
-      <c r="I104" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L104" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Internacional Palmira</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="H105" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L105" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>20:15</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Fafe</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H106" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="I106" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L106" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Alaves</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H107" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="I107" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L107" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>00:45</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Patriotas</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H108" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L108" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Kahraba Ismailia</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Zamalek SC</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Estac Troyes</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Lens</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Holstein Kiel</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>VfB Stuttgart</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Maccabi Bnei Raina</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Hapoel Beer Sheva</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Dagon Port</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Dagon</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>14:45</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>UMM Salal</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Al-Duhail SC</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>NK Domzale</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Maribor</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>4</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="I116" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Alanyaspor</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Bula</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>South Melbourne</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>HJK U19</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Manchester City U19</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Puskás Akadémia U19</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Sporting CP U19</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,21 +498,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>Tigres UANL W</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Cruz Azul W</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.9</v>
+        <v>1.52</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,33 +532,33 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
-        <v>6.95</v>
+        <v>1.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Wisla Krakow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Tychy 71</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.52</v>
+        <v>1.29</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -581,122 +581,122 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Flamurtari</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Egnatia Rrogozhinë</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.09</v>
+        <v>3.14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bangkok United</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shan United</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>5.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>100</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>São Francisco</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADESG</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.4</v>
+        <v>3.14</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -716,33 +716,33 @@
         <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hapoel Umm al-Fahm</t>
+          <t>Juárez W</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hapoel Ironi Karmiel</t>
+          <t>América W</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.12</v>
+        <v>6.55</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -768,27 +768,27 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Querétaro W</t>
+          <t>Cañoneros Marina</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>León W</t>
+          <t>Montañeses</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.25</v>
+        <v>5.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -808,286 +808,286 @@
         <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Limavady United</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Argentino Monte Maíz</t>
+          <t>Linfield</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.33</v>
+        <v>6.2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>94.7</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.3</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kapaz</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.28</v>
+        <v>3.72</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>90.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>90.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aliağa FAŞ</t>
+          <t>Al-Rayyan SC</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.21</v>
+        <v>4.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>90.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>90.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Real Estelí</t>
+          <t>Tanjong Pagar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rancho Santana</t>
+          <t>Geylang International</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.06</v>
+        <v>6.6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>84.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>84.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.7</v>
+        <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>19.2</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Al-Ahli Jeddah</t>
+          <t>Masfut</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Al-Hazm</t>
+          <t>Al Urooba</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.16</v>
+        <v>5.4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>82.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>82.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>8.699999999999999</v>
+        <v>100</v>
       </c>
       <c r="J13" t="n">
-        <v>47.8</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Al Wahda FC</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>81.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="G14" t="n">
-        <v>65.8</v>
+        <v>94.7</v>
       </c>
       <c r="H14" t="n">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="J14" t="n">
-        <v>81.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>0.89</v>
+        <v>1.28</v>
       </c>
       <c r="L14" t="n">
         <v>38</v>
@@ -1096,205 +1096,205 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Keçiörengücü</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Karkonosze Jelenia Góra</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.86</v>
+        <v>1.27</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>79.3</v>
+        <v>91.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H15" t="n">
-        <v>20.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>79.3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>31</v>
+        <v>47.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aluminij</t>
+          <t>Deportivo Saprissa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Olimpija Ljubljana</t>
+          <t>AD Carmelita</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.15</v>
+        <v>1.21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>77.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>44.4</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>55.6</v>
+        <v>11.5</v>
       </c>
       <c r="J16" t="n">
-        <v>77.8</v>
+        <v>42.3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Fylkir</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Daejeon Citizen</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.96</v>
+        <v>1.11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>71.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>71.40000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>28.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>42.9</v>
+        <v>47.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Quwa Al Jawiya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Al Fahaheel</t>
+          <t>Naft Maysan</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.52</v>
+        <v>1.38</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>70</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>70</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>10.3</v>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>1.78</v>
+        <v>0.87</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Raya Ghazl</t>
+          <t>Kyoto Sanga</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El Dakhleya</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.06</v>
+        <v>3.28</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1302,45 +1302,45 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>70</v>
+        <v>81.8</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>18.2</v>
       </c>
       <c r="I19" t="n">
-        <v>70</v>
+        <v>81.8</v>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tanta SC</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>El Seka El Hadid</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.02</v>
+        <v>3.28</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1348,68 +1348,68 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>70</v>
+        <v>81.8</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>30</v>
+        <v>18.2</v>
       </c>
       <c r="I20" t="n">
-        <v>70</v>
+        <v>81.8</v>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al Tadhamon</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Al Nasar</t>
+          <t>AZ Picerno</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.73</v>
+        <v>1.19</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>57.1</v>
+        <v>81</v>
       </c>
       <c r="G21" t="n">
-        <v>38.1</v>
+        <v>81</v>
       </c>
       <c r="H21" t="n">
-        <v>57.1</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>42.9</v>
+        <v>61.9</v>
       </c>
       <c r="K21" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="L21" t="n">
         <v>21</v>
@@ -1418,1519 +1418,1519 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sharjah FC</t>
+          <t>Bourg-en-bresse 01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai</t>
+          <t>Le Puy Foot</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G22" t="n">
-        <v>33.3</v>
+        <v>80</v>
       </c>
       <c r="H22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="J22" t="n">
-        <v>16.7</v>
+        <v>40</v>
       </c>
       <c r="K22" t="n">
-        <v>1.15</v>
+        <v>3.32</v>
       </c>
       <c r="L22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>03:06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Forte FC</t>
+          <t>Atlas W</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vitória ES</t>
+          <t>Pumas UNAM W</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Al Qadsia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Chanthaburi</t>
+          <t>Al Kuwait</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.42</v>
+        <v>4.8</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45.7</v>
+        <v>80</v>
       </c>
       <c r="G24" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.3</v>
+        <v>80</v>
       </c>
       <c r="J24" t="n">
-        <v>34.3</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L24" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Al-Wasl FC</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.82</v>
+        <v>1.43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>45.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>18.2</v>
+        <v>43.9</v>
       </c>
       <c r="H25" t="n">
-        <v>45.5</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>36.4</v>
+        <v>42.1</v>
       </c>
       <c r="J25" t="n">
-        <v>54.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="L25" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Barakaldo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>CF Talavera</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>45.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>38.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>45.2</v>
+        <v>12.9</v>
       </c>
       <c r="I26" t="n">
-        <v>16.1</v>
+        <v>9.4</v>
       </c>
       <c r="J26" t="n">
-        <v>27.4</v>
+        <v>63.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.68</v>
+        <v>1.2</v>
       </c>
       <c r="L26" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Atletico Nacional</t>
+          <t>Vllaznia Shkodër</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>America de Cali</t>
+          <t>Vora</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>43.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>36.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>43.3</v>
+        <v>17.1</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>66.7</v>
+        <v>74.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.61</v>
+        <v>1.12</v>
       </c>
       <c r="L27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rakhine United</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yadanarbon</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.6</v>
+        <v>2.18</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>21.1</v>
       </c>
       <c r="I28" t="n">
-        <v>60</v>
+        <v>38.6</v>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>FC OSS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G29" t="n">
-        <v>54.5</v>
+        <v>25</v>
       </c>
       <c r="H29" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.3</v>
+        <v>75</v>
       </c>
       <c r="J29" t="n">
-        <v>36.4</v>
+        <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>1.93</v>
+        <v>0.71</v>
       </c>
       <c r="L29" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>SpVgg Greuther Fürth</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>1. FC Magdeburg</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.84</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="I30" t="n">
-        <v>16.7</v>
+        <v>75</v>
       </c>
       <c r="J30" t="n">
-        <v>66.7</v>
+        <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PWD Bamenda</t>
+          <t>Cannes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gazelle</t>
+          <t>Saint-Priest</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.38</v>
+        <v>1.69</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>72.8</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="I31" t="n">
-        <v>30</v>
+        <v>8.6</v>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>51.9</v>
       </c>
       <c r="K31" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Negelle Arsi</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mekelle Kenema</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="G32" t="n">
-        <v>64.7</v>
+        <v>72.8</v>
       </c>
       <c r="H32" t="n">
-        <v>11.8</v>
+        <v>18.5</v>
       </c>
       <c r="I32" t="n">
-        <v>23.5</v>
+        <v>8.6</v>
       </c>
       <c r="J32" t="n">
-        <v>38.2</v>
+        <v>51.9</v>
       </c>
       <c r="K32" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="L32" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bahardar</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ethiopia Nigd Bank</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.27</v>
+        <v>1.68</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="G33" t="n">
-        <v>60.9</v>
+        <v>72.8</v>
       </c>
       <c r="H33" t="n">
-        <v>27.5</v>
+        <v>18.5</v>
       </c>
       <c r="I33" t="n">
-        <v>11.6</v>
+        <v>8.6</v>
       </c>
       <c r="J33" t="n">
-        <v>47.8</v>
+        <v>51.9</v>
       </c>
       <c r="K33" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="L33" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Al Zawra'a</t>
+          <t>FC Orenburg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Zakho</t>
+          <t>Arsenal Tula</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.16</v>
+        <v>1.61</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="G34" t="n">
-        <v>63.2</v>
+        <v>72.8</v>
       </c>
       <c r="H34" t="n">
-        <v>13.2</v>
+        <v>18.5</v>
       </c>
       <c r="I34" t="n">
-        <v>23.7</v>
+        <v>8.6</v>
       </c>
       <c r="J34" t="n">
-        <v>42.1</v>
+        <v>51.9</v>
       </c>
       <c r="K34" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="L34" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Accrington ST</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>KRC Genk II</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.02</v>
+        <v>1.39</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>44.4</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>11.1</v>
+        <v>17.1</v>
       </c>
       <c r="I35" t="n">
-        <v>44.4</v>
+        <v>11.4</v>
       </c>
       <c r="J35" t="n">
-        <v>55.6</v>
+        <v>34.3</v>
       </c>
       <c r="K35" t="n">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
       <c r="L35" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Tira</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Ironi Nesher</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.47</v>
+        <v>1.39</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>38.9</v>
+        <v>17.1</v>
       </c>
       <c r="I36" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>34.3</v>
       </c>
       <c r="K36" t="n">
-        <v>1.22</v>
+        <v>0.96</v>
       </c>
       <c r="L36" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Guarany de Bagé</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Monsoon</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.26</v>
+        <v>2.95</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
-        <v>53.1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.6</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
-        <v>31.2</v>
+        <v>70</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K37" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Gobelins</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>31.2</v>
+        <v>66.7</v>
       </c>
       <c r="I38" t="n">
-        <v>18.8</v>
+        <v>33.3</v>
       </c>
       <c r="J38" t="n">
-        <v>46.9</v>
+        <v>33.3</v>
       </c>
       <c r="K38" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="G39" t="n">
-        <v>66.7</v>
+        <v>41.2</v>
       </c>
       <c r="H39" t="n">
-        <v>27.5</v>
+        <v>58.8</v>
       </c>
       <c r="I39" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>45.1</v>
+        <v>17.6</v>
       </c>
       <c r="K39" t="n">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="L39" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Esan Pattaya</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pattani</t>
+          <t>Étoile Carouge</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.34</v>
+        <v>1.44</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>41.2</v>
       </c>
       <c r="H40" t="n">
-        <v>31.2</v>
+        <v>58.8</v>
       </c>
       <c r="I40" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9</v>
+        <v>17.6</v>
       </c>
       <c r="K40" t="n">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="L40" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sagaing United</t>
+          <t>Hapoel Nazareth Illit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Thitsar Arman</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.8</v>
+        <v>2.73</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="G41" t="n">
-        <v>62.8</v>
+        <v>28.6</v>
       </c>
       <c r="H41" t="n">
-        <v>27.9</v>
+        <v>57.1</v>
       </c>
       <c r="I41" t="n">
-        <v>9.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="J41" t="n">
-        <v>58.1</v>
+        <v>28.6</v>
       </c>
       <c r="K41" t="n">
-        <v>1.16</v>
+        <v>0.79</v>
       </c>
       <c r="L41" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Operário MT</t>
+          <t>Ethiopia Bunna</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nova Mutum EC</t>
+          <t>Welayta Dicha</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.06</v>
+        <v>2.65</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="G42" t="n">
-        <v>37.5</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>57.1</v>
       </c>
       <c r="I42" t="n">
-        <v>37.5</v>
+        <v>23.8</v>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="K42" t="n">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="L42" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Preußen Münster</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>VfL Bochum</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="G43" t="n">
-        <v>40.7</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>23.7</v>
+        <v>57.1</v>
       </c>
       <c r="I43" t="n">
-        <v>35.6</v>
+        <v>23.8</v>
       </c>
       <c r="J43" t="n">
-        <v>64.40000000000001</v>
+        <v>38.1</v>
       </c>
       <c r="K43" t="n">
-        <v>1.12</v>
+        <v>0.5</v>
       </c>
       <c r="L43" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Hapoel Tirat HaCarmel</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Tzeirey Tamra</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="G44" t="n">
-        <v>51.1</v>
+        <v>26.3</v>
       </c>
       <c r="H44" t="n">
-        <v>22.2</v>
+        <v>52.6</v>
       </c>
       <c r="I44" t="n">
-        <v>26.7</v>
+        <v>21.1</v>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>52.6</v>
       </c>
       <c r="K44" t="n">
-        <v>1.1</v>
+        <v>0.72</v>
       </c>
       <c r="L44" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Al-Arabi SC</t>
+          <t>Tecos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Al Shamal</t>
+          <t>Cimarrones</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>52.6</v>
       </c>
       <c r="G45" t="n">
-        <v>51.1</v>
+        <v>26.3</v>
       </c>
       <c r="H45" t="n">
-        <v>22.2</v>
+        <v>52.6</v>
       </c>
       <c r="I45" t="n">
-        <v>26.7</v>
+        <v>21.1</v>
       </c>
       <c r="J45" t="n">
-        <v>60</v>
+        <v>52.6</v>
       </c>
       <c r="K45" t="n">
-        <v>1.1</v>
+        <v>0.72</v>
       </c>
       <c r="L45" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vasco DA Gama</t>
+          <t>Airdrie United</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chapecoense-sc</t>
+          <t>ST Mirren</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.6</v>
+        <v>5.85</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>65.7</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I46" t="n">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.3</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>1.08</v>
+        <v>2.92</v>
       </c>
       <c r="L46" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Jong PSV U21</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.78</v>
+        <v>2.7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>61.1</v>
+        <v>37.5</v>
       </c>
       <c r="H47" t="n">
-        <v>18.1</v>
+        <v>50</v>
       </c>
       <c r="I47" t="n">
-        <v>20.8</v>
+        <v>12.5</v>
       </c>
       <c r="J47" t="n">
-        <v>47.2</v>
+        <v>25</v>
       </c>
       <c r="K47" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="L47" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Budaiya</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.41</v>
+        <v>2.14</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>43.2</v>
+        <v>36.9</v>
       </c>
       <c r="H48" t="n">
-        <v>11.4</v>
+        <v>50</v>
       </c>
       <c r="I48" t="n">
-        <v>45.5</v>
+        <v>13.1</v>
       </c>
       <c r="J48" t="n">
-        <v>31.8</v>
+        <v>33.3</v>
       </c>
       <c r="K48" t="n">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="L48" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GO Ahead Eagles</t>
+          <t>AFC Hermannstadt</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.42</v>
+        <v>2.11</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>43.2</v>
+        <v>36.9</v>
       </c>
       <c r="H49" t="n">
-        <v>11.4</v>
+        <v>50</v>
       </c>
       <c r="I49" t="n">
-        <v>45.5</v>
+        <v>13.1</v>
       </c>
       <c r="J49" t="n">
-        <v>31.8</v>
+        <v>33.3</v>
       </c>
       <c r="K49" t="n">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
       <c r="L49" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Al-Dhafra</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fasil Ketema</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3.02</v>
+        <v>2.17</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="H50" t="n">
+        <v>50</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J50" t="n">
         <v>33.3</v>
       </c>
-      <c r="H50" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>46.7</v>
-      </c>
       <c r="K50" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="L50" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A'Ali</t>
+          <t>UCV Moquegua</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Al Najma</t>
+          <t>UTC Cajamarca</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="G51" t="n">
-        <v>48.9</v>
+        <v>40</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>45.7</v>
       </c>
       <c r="I51" t="n">
-        <v>31.1</v>
+        <v>14.3</v>
       </c>
       <c r="J51" t="n">
-        <v>53.3</v>
+        <v>34.3</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L51" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H&amp;H Export</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jalapa</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="G52" t="n">
-        <v>48.9</v>
+        <v>38.7</v>
       </c>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>45.2</v>
       </c>
       <c r="I52" t="n">
-        <v>31.1</v>
+        <v>16.1</v>
       </c>
       <c r="J52" t="n">
-        <v>53.3</v>
+        <v>27.4</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="L52" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Capivariano</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="G53" t="n">
-        <v>63.9</v>
+        <v>38.7</v>
       </c>
       <c r="H53" t="n">
-        <v>22.2</v>
+        <v>45.2</v>
       </c>
       <c r="I53" t="n">
-        <v>13.9</v>
+        <v>16.1</v>
       </c>
       <c r="J53" t="n">
-        <v>61.1</v>
+        <v>27.4</v>
       </c>
       <c r="K53" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="L53" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Durban City</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Chippa United</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="G54" t="n">
-        <v>34.6</v>
+        <v>38.7</v>
       </c>
       <c r="H54" t="n">
-        <v>26.9</v>
+        <v>45.2</v>
       </c>
       <c r="I54" t="n">
-        <v>38.5</v>
+        <v>16.1</v>
       </c>
       <c r="J54" t="n">
-        <v>65.40000000000001</v>
+        <v>27.4</v>
       </c>
       <c r="K54" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="L54" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
@@ -2941,272 +2941,272 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Al Najaf</t>
+          <t>Arba Minch Kenema</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Al-Qasim</t>
+          <t>Dire Dawa Kenema</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.62</v>
+        <v>2.41</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G55" t="n">
-        <v>58.1</v>
+        <v>24.7</v>
       </c>
       <c r="H55" t="n">
-        <v>32.6</v>
+        <v>42</v>
       </c>
       <c r="I55" t="n">
-        <v>9.300000000000001</v>
+        <v>33.3</v>
       </c>
       <c r="J55" t="n">
-        <v>37.2</v>
+        <v>64.2</v>
       </c>
       <c r="K55" t="n">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="L55" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Johor Darul Takzim FC</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="G56" t="n">
-        <v>28.6</v>
+        <v>12.9</v>
       </c>
       <c r="H56" t="n">
-        <v>14.3</v>
+        <v>41.9</v>
       </c>
       <c r="I56" t="n">
-        <v>57.1</v>
+        <v>45.2</v>
       </c>
       <c r="J56" t="n">
-        <v>57.1</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.96</v>
+        <v>0.29</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tersana</t>
+          <t>Ústí nad Labem</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Maleyet Kafr El Zayiat</t>
+          <t>Kladno</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="G57" t="n">
-        <v>51.2</v>
+        <v>12.9</v>
       </c>
       <c r="H57" t="n">
-        <v>22</v>
+        <v>41.9</v>
       </c>
       <c r="I57" t="n">
-        <v>26.8</v>
+        <v>45.2</v>
       </c>
       <c r="J57" t="n">
-        <v>43.9</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>0.95</v>
+        <v>0.29</v>
       </c>
       <c r="L57" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Itesalat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Naft</t>
+          <t>Proxy</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>40.7</v>
       </c>
       <c r="G58" t="n">
-        <v>45.3</v>
+        <v>29.6</v>
       </c>
       <c r="H58" t="n">
-        <v>26.4</v>
+        <v>40.7</v>
       </c>
       <c r="I58" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="J58" t="n">
-        <v>45.3</v>
+        <v>33.3</v>
       </c>
       <c r="K58" t="n">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv</t>
+          <t>Al Kahrabaa</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Holon Yermiyahu</t>
+          <t>Duhok</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.04</v>
+        <v>3.68</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G59" t="n">
-        <v>45.3</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
-        <v>26.4</v>
+        <v>40</v>
       </c>
       <c r="I59" t="n">
-        <v>28.3</v>
+        <v>20</v>
       </c>
       <c r="J59" t="n">
-        <v>45.3</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
-        <v>0.93</v>
+        <v>1.46</v>
       </c>
       <c r="L59" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Mazatlan FC U21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Guadalajara Chivas U21</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G60" t="n">
-        <v>47.2</v>
+        <v>40</v>
       </c>
       <c r="H60" t="n">
-        <v>22.2</v>
+        <v>40</v>
       </c>
       <c r="I60" t="n">
-        <v>30.6</v>
+        <v>20</v>
       </c>
       <c r="J60" t="n">
-        <v>27.8</v>
+        <v>40</v>
       </c>
       <c r="K60" t="n">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="L60" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -3217,62 +3217,62 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Cavese</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.01</v>
+        <v>2.46</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G61" t="n">
-        <v>43.8</v>
+        <v>25.7</v>
       </c>
       <c r="H61" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I61" t="n">
-        <v>31.2</v>
+        <v>34.3</v>
       </c>
       <c r="J61" t="n">
-        <v>42.5</v>
+        <v>62.9</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9</v>
+        <v>0.63</v>
       </c>
       <c r="L61" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Beitar Yavne</t>
+          <t>Puebla W</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek</t>
+          <t>Santos Laguna W</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.04</v>
+        <v>4.05</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>43.8</v>
+        <v>50</v>
       </c>
       <c r="H62" t="n">
         <v>25</v>
       </c>
       <c r="I62" t="n">
-        <v>31.2</v>
+        <v>25</v>
       </c>
       <c r="J62" t="n">
-        <v>42.5</v>
+        <v>50</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9</v>
+        <v>2.02</v>
       </c>
       <c r="L62" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Orijent 1919</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2.64</v>
+        <v>3.52</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>34.1</v>
+        <v>54.5</v>
       </c>
       <c r="H63" t="n">
-        <v>36.6</v>
+        <v>18.2</v>
       </c>
       <c r="I63" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="J63" t="n">
-        <v>48.8</v>
+        <v>36.4</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9</v>
+        <v>1.93</v>
       </c>
       <c r="L63" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>V-varen Nagasaki</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bogota FC</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>42.6</v>
+        <v>54.5</v>
       </c>
       <c r="H64" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="I64" t="n">
-        <v>38.9</v>
+        <v>27.3</v>
       </c>
       <c r="J64" t="n">
-        <v>31.5</v>
+        <v>36.4</v>
       </c>
       <c r="K64" t="n">
-        <v>0.87</v>
+        <v>1.93</v>
       </c>
       <c r="L64" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Isidro Metapán</t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.06</v>
+        <v>3.64</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>42.6</v>
+        <v>50</v>
       </c>
       <c r="H65" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="I65" t="n">
-        <v>38.9</v>
+        <v>25</v>
       </c>
       <c r="J65" t="n">
-        <v>31.5</v>
+        <v>50</v>
       </c>
       <c r="K65" t="n">
-        <v>0.87</v>
+        <v>1.82</v>
       </c>
       <c r="L65" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>FC Krasnodar</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Oţelul</t>
+          <t>Zenit</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.69</v>
+        <v>3.36</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="H66" t="n">
-        <v>34.1</v>
+        <v>20</v>
       </c>
       <c r="I66" t="n">
-        <v>14.6</v>
+        <v>30</v>
       </c>
       <c r="J66" t="n">
-        <v>56.1</v>
+        <v>60</v>
       </c>
       <c r="K66" t="n">
-        <v>0.84</v>
+        <v>1.67</v>
       </c>
       <c r="L66" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>RC Arba</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>WA Tlemcen</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.18</v>
+        <v>2.25</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>69.7</v>
+        <v>66.7</v>
       </c>
       <c r="H67" t="n">
-        <v>18.2</v>
+        <v>7.4</v>
       </c>
       <c r="I67" t="n">
-        <v>12.1</v>
+        <v>25.9</v>
       </c>
       <c r="J67" t="n">
-        <v>69.7</v>
+        <v>44.4</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="L67" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Abu Qair Semad</t>
+          <t>A. Italiano</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>El Entag EL Harby</t>
+          <t>Universidad de Concepcion</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.56</v>
+        <v>2.26</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>49</v>
+        <v>66.7</v>
       </c>
       <c r="H68" t="n">
-        <v>25.5</v>
+        <v>7.4</v>
       </c>
       <c r="I68" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="J68" t="n">
-        <v>54.9</v>
+        <v>44.4</v>
       </c>
       <c r="K68" t="n">
-        <v>0.76</v>
+        <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Les Herbiers</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Saint-Malo</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.32</v>
+        <v>2.28</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,38 +3605,38 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>53.6</v>
+        <v>66.7</v>
       </c>
       <c r="H69" t="n">
-        <v>32.1</v>
+        <v>7.4</v>
       </c>
       <c r="I69" t="n">
-        <v>14.3</v>
+        <v>25.9</v>
       </c>
       <c r="J69" t="n">
-        <v>50</v>
+        <v>44.4</v>
       </c>
       <c r="K69" t="n">
-        <v>0.72</v>
+        <v>1.5</v>
       </c>
       <c r="L69" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Al-Karma</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Al Talaba</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>32.2</v>
+        <v>66.7</v>
       </c>
       <c r="H70" t="n">
-        <v>32.2</v>
+        <v>7.4</v>
       </c>
       <c r="I70" t="n">
-        <v>35.6</v>
+        <v>25.9</v>
       </c>
       <c r="J70" t="n">
-        <v>42.4</v>
+        <v>44.4</v>
       </c>
       <c r="K70" t="n">
-        <v>0.72</v>
+        <v>1.5</v>
       </c>
       <c r="L70" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Municipal Limeño</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FAS</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>27.3</v>
+        <v>56</v>
       </c>
       <c r="H71" t="n">
-        <v>24.2</v>
+        <v>20</v>
       </c>
       <c r="I71" t="n">
-        <v>48.5</v>
+        <v>24</v>
       </c>
       <c r="J71" t="n">
-        <v>51.5</v>
+        <v>48</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7</v>
+        <v>1.43</v>
       </c>
       <c r="L71" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Al-Fayha</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Al Najma</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H72" t="n">
-        <v>25.6</v>
+        <v>20</v>
       </c>
       <c r="I72" t="n">
-        <v>35.4</v>
+        <v>24</v>
       </c>
       <c r="J72" t="n">
-        <v>53.7</v>
+        <v>48</v>
       </c>
       <c r="K72" t="n">
-        <v>0.64</v>
+        <v>1.43</v>
       </c>
       <c r="L72" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Toluca W</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Atlético San Luis W</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.22</v>
+        <v>2.53</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H73" t="n">
-        <v>31.8</v>
+        <v>20</v>
       </c>
       <c r="I73" t="n">
-        <v>18.2</v>
+        <v>24</v>
       </c>
       <c r="J73" t="n">
-        <v>38.6</v>
+        <v>48</v>
       </c>
       <c r="K73" t="n">
-        <v>0.62</v>
+        <v>1.43</v>
       </c>
       <c r="L73" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Al Sadd</t>
+          <t>Nordia Jerusalem</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Al Shahaniya</t>
+          <t>Hapoel Ramat HaSharon</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.21</v>
+        <v>2.29</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>50</v>
+        <v>60.9</v>
       </c>
       <c r="H74" t="n">
-        <v>31.8</v>
+        <v>27.5</v>
       </c>
       <c r="I74" t="n">
-        <v>18.2</v>
+        <v>11.6</v>
       </c>
       <c r="J74" t="n">
-        <v>38.6</v>
+        <v>47.8</v>
       </c>
       <c r="K74" t="n">
-        <v>0.62</v>
+        <v>1.37</v>
       </c>
       <c r="L74" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nacional AM</t>
+          <t>Kiryat Yam SC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Princesa Solimões</t>
+          <t>Hapoel Kfar Saba</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>30.8</v>
+        <v>60.9</v>
       </c>
       <c r="H75" t="n">
-        <v>34.6</v>
+        <v>27.5</v>
       </c>
       <c r="I75" t="n">
-        <v>34.6</v>
+        <v>11.6</v>
       </c>
       <c r="J75" t="n">
-        <v>69.2</v>
+        <v>47.8</v>
       </c>
       <c r="K75" t="n">
-        <v>0.57</v>
+        <v>1.37</v>
       </c>
       <c r="L75" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Popayan</t>
+          <t>NK Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>23.4</v>
+        <v>63.2</v>
       </c>
       <c r="H76" t="n">
-        <v>17</v>
+        <v>13.2</v>
       </c>
       <c r="I76" t="n">
-        <v>59.6</v>
+        <v>23.7</v>
       </c>
       <c r="J76" t="n">
-        <v>55.3</v>
+        <v>42.1</v>
       </c>
       <c r="K76" t="n">
-        <v>0.57</v>
+        <v>1.36</v>
       </c>
       <c r="L76" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Arsenal Tivat</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jezero</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>63.2</v>
       </c>
       <c r="H77" t="n">
-        <v>34.3</v>
+        <v>13.2</v>
       </c>
       <c r="I77" t="n">
-        <v>45.7</v>
+        <v>23.7</v>
       </c>
       <c r="J77" t="n">
-        <v>37.1</v>
+        <v>42.1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.51</v>
+        <v>1.36</v>
       </c>
       <c r="L77" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kedus Giorgis</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Welwalo Adigrat Uni</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.07</v>
+        <v>2.26</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,42 +4019,42 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>24</v>
+        <v>57.4</v>
       </c>
       <c r="H78" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="I78" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J78" t="n">
-        <v>60</v>
+        <v>31.9</v>
       </c>
       <c r="K78" t="n">
-        <v>0.49</v>
+        <v>1.29</v>
       </c>
       <c r="L78" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Hapoel Bnei Musmus</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>El Mokawloon</t>
+          <t>Hapoel Beit Shean</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>17.9</v>
+        <v>57.4</v>
       </c>
       <c r="H79" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="I79" t="n">
-        <v>57.1</v>
+        <v>17</v>
       </c>
       <c r="J79" t="n">
-        <v>60.7</v>
+        <v>31.9</v>
       </c>
       <c r="K79" t="n">
-        <v>0.47</v>
+        <v>1.29</v>
       </c>
       <c r="L79" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Metalist 1925 Kharkiv</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3.12</v>
+        <v>2.99</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>7.7</v>
+        <v>42.9</v>
       </c>
       <c r="H80" t="n">
-        <v>23.1</v>
+        <v>35.7</v>
       </c>
       <c r="I80" t="n">
-        <v>69.2</v>
+        <v>21.4</v>
       </c>
       <c r="J80" t="n">
-        <v>53.8</v>
+        <v>57.1</v>
       </c>
       <c r="K80" t="n">
-        <v>0.24</v>
+        <v>1.27</v>
       </c>
       <c r="L80" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4137,16 +4137,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Keshla FC</t>
+          <t>Hapoel Herzliya</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>FC Jerusalem</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8.1</v>
+        <v>2.96</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,42 +4157,42 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al-Jazira</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Al-Hilal Saudi FC</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>14</v>
+        <v>3.62</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4203,42 +4203,42 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Xelajú</t>
+          <t>Al-Shabab</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Al-Nahda</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6.8</v>
+        <v>3.14</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4249,42 +4249,42 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vancouver FC</t>
+          <t>AF Elbasani</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Teuta Durrës</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>15.5</v>
+        <v>1.76</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4295,67 +4295,3931 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PSIM Yogyakarta</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L85" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Ironi Baka El Garbiya</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Maccabi Neve Sha'anan</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>50</v>
+      </c>
+      <c r="H86" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L86" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Zaglebie Lubin</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I87" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L87" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>23:20</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I88" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L88" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Hồ Chí Minh II</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Dong Thap</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L89" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L90" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Portuguesa FC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Deportivo Tachira FC</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L91" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Otrant-Olympic</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L92" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Caxias</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ypiranga-RS</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Al Wakrah</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Al Ahli Doha</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="H94" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L94" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Red Bull Salzburg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Austria Vienna</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L95" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Atlético Artajonés</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Beti Onak</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>50</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I96" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L96" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>WA Mostaganem</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Témouchent</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L97" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SSV Ulm 1846</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="H98" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L98" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Throttur Reykjavik</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FH hafnarfjordur</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>37</v>
+      </c>
+      <c r="H99" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I99" t="n">
+        <v>37</v>
+      </c>
+      <c r="J99" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L99" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Sanna Khanh Hoa</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ho Chi Minh</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H100" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L100" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ironi Modi'in</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Hapoel Rishon LeZion</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>40</v>
+      </c>
+      <c r="J101" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L101" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Team Altamura</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SS Monopoli</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L102" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Juventud</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Universidad Catolica</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="H103" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I103" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L103" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Liège</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>K. Lierse S.K.</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="H104" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I104" t="n">
+        <v>17</v>
+      </c>
+      <c r="J104" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="H105" t="n">
+        <v>20</v>
+      </c>
+      <c r="I105" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="H106" t="n">
+        <v>20</v>
+      </c>
+      <c r="I106" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Betim</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Itabirito</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="H107" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L107" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>WSPG Wels</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Gurten</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="H108" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L108" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Inter Santa Maria</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Avenida</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>22</v>
+      </c>
+      <c r="I109" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L109" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Sunderland W</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sheffield United W</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>22</v>
+      </c>
+      <c r="I110" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L110" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="H111" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J111" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L111" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Almere City FC</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H112" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L112" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Club Sp. San Lorenzo</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H113" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L113" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="I114" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L114" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Magdeburg II</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Chemnitzer FC</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="H115" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I115" t="n">
+        <v>20</v>
+      </c>
+      <c r="J115" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L115" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Keflavik</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>HK Kopavogur</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H116" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I116" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L116" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GAP Connah S Quay FC</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I117" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L117" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Joinville</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L118" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Baladiyyat Al Mehalla</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Dayrout</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I119" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>42</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L119" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Andrézieux</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Hyères</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I120" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>42</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L120" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Academia Anzoátegui</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="H121" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L121" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ham-Kam</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H122" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I122" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>42</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L122" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>50</v>
+      </c>
+      <c r="H123" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L123" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Concarneau</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Aubagne</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H124" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J124" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L124" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>NEOM</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H125" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L125" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Derry City</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>00:15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I127" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L127" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Kisvarda FC</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Kazincbarcikai</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I128" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L128" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H129" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J129" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L129" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Al Hussein</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Shabab Al Ordon</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J130" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L130" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H131" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="I131" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L131" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Odra Opole</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Pogoń Siedlce</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H132" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="I132" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L132" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>25</v>
+      </c>
+      <c r="I133" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J133" t="n">
+        <v>50</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L133" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth U21</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Bristol City U21</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H134" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L134" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rapid</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Petrolul Ploiesti</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>45</v>
+      </c>
+      <c r="H135" t="n">
+        <v>20</v>
+      </c>
+      <c r="I135" t="n">
+        <v>35</v>
+      </c>
+      <c r="J135" t="n">
+        <v>35</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L135" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I136" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L136" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Hapoel Migdal HaEmek</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tzeirei Umm al-Fahm</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="I137" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="J137" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L137" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Lillestrom</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Stabaek</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I138" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L138" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>30</v>
+      </c>
+      <c r="H139" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I139" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L139" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H140" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="J140" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L140" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H141" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L141" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Maccabi Ashdod</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tzeirey Tira</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="H142" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="J142" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L142" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MC Alger</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Al Hilal Omdurman</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H143" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I143" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L143" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Dynamo</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H144" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I144" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L144" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Haverfordwest County AFC</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I145" t="n">
+        <v>35</v>
+      </c>
+      <c r="J145" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L145" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Lokomotive Leipzig</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Hertha Zehlendorf</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H146" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I146" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J146" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L146" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Maccabi Herzliya</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Hapoel Kfar Shalem</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I147" t="n">
+        <v>50</v>
+      </c>
+      <c r="J147" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L147" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I148" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L148" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H149" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I149" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J149" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L149" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Fleury 91</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I150" t="n">
+        <v>51</v>
+      </c>
+      <c r="J150" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L150" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Persib Bandung</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Malut United</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H151" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I151" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L151" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Al-Nassr</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Al-Ittihad FC</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H152" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I152" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J152" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L152" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CSKA Sofia</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Arda Kardzhali</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H153" t="n">
+        <v>27</v>
+      </c>
+      <c r="I153" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J153" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L153" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>La Viena FC</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Aswan Sc</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H154" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I154" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J154" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L154" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Afturelding</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Grotta</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>27</v>
+      </c>
+      <c r="I155" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J155" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L155" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Hapoel Afula</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I156" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L156" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Terengganu</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Kuala Lumpur FA</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H157" t="n">
+        <v>27</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J157" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L157" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Guimaraes B</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H158" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I158" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J158" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L158" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>14:35</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Dubai United</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Al Hamriyah</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H159" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I159" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L159" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Perth Glory</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>24</v>
+      </c>
+      <c r="H160" t="n">
+        <v>24</v>
+      </c>
+      <c r="I160" t="n">
+        <v>52</v>
+      </c>
+      <c r="J160" t="n">
+        <v>60</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L160" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>RED Star FC 93</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PAU</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>25</v>
+      </c>
+      <c r="I161" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L161" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Galway United</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Drogheda United</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>24</v>
+      </c>
+      <c r="H162" t="n">
+        <v>24</v>
+      </c>
+      <c r="I162" t="n">
+        <v>52</v>
+      </c>
+      <c r="J162" t="n">
+        <v>60</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L162" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>El Gouna FC</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Future FC</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H163" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I163" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L163" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Lyn</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I164" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>31</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L164" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H165" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L165" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>CSKA 1948</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SC Freiburg W</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Bayern Munich W</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Maccabi Nujeidat Ahmed</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Maccabi K. Ata Bialik</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Guayaquil City FC</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Barcelona SC</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Necaxa W</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Guadalajara W</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,21 +498,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>4.85</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -544,113 +544,113 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FC Koln W</t>
+          <t>Scarborough Athletic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SGS Essen W</t>
+          <t>South Shields</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.49</v>
+        <v>3.94</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J3" t="n">
         <v>100</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>1.45</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aliağa FAŞ</t>
+          <t>Ferro 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Somaspor</t>
+          <t>Belgrano Córdoba Res.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.05</v>
+        <v>4.9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>85.7</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bogota FC</t>
+          <t>Keshla FC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.05</v>
+        <v>8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -682,25 +682,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cruz Azul W</t>
+          <t>Macclesfield</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>América W</t>
+          <t>Leamington</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.9</v>
+        <v>1.32</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -710,223 +710,223 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Lewes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sao Jose</t>
+          <t>Billericay Town</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.35</v>
+        <v>4.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.5</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nam Dinh</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hồng Lĩnh Hà Tĩnh</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.32</v>
+        <v>4.33</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>52.5</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Nouakchott Academie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>Nouadhibou</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.19</v>
+        <v>4.25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>89.2</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>83.8</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sebat Gençlikspor</t>
+          <t>San Giovanni</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Tre Penne</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>89.2</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>83.8</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Coleraine FC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Portadown</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -934,45 +934,45 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>89.2</v>
+        <v>91.7</v>
       </c>
       <c r="G11" t="n">
-        <v>89.2</v>
+        <v>91.7</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.8</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="L11" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Yate Town</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Poole Town</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1004,21 +1004,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.36</v>
+        <v>3.34</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1026,45 +1026,45 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>82.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="G13" t="n">
-        <v>60.5</v>
+        <v>36.4</v>
       </c>
       <c r="H13" t="n">
-        <v>27.6</v>
+        <v>18.2</v>
       </c>
       <c r="I13" t="n">
-        <v>11.8</v>
+        <v>45.5</v>
       </c>
       <c r="J13" t="n">
-        <v>82.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.82</v>
+        <v>1.22</v>
       </c>
       <c r="L13" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Bylis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Vllaznia Shkodër</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1072,45 +1072,45 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>82.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>60.5</v>
+        <v>42.9</v>
       </c>
       <c r="H14" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="I14" t="n">
-        <v>11.8</v>
+        <v>28.6</v>
       </c>
       <c r="J14" t="n">
-        <v>82.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K14" t="n">
-        <v>0.82</v>
+        <v>1.35</v>
       </c>
       <c r="L14" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>AFC Fylde</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Popayan</t>
+          <t>Spennymoor Town</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1118,41 +1118,41 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="J15" t="n">
-        <v>73.3</v>
+        <v>63.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="L15" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jalapa</t>
+          <t>Manauara</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UNAN Managua</t>
+          <t>Parintins</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1164,45 +1164,45 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>78.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>43.9</v>
+        <v>43.1</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="I16" t="n">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="J16" t="n">
-        <v>78.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L16" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Marcílio Dias</t>
+          <t>Tigres UANL W</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carlos Renaux</t>
+          <t>Juárez W</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1210,367 +1210,367 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="I17" t="n">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="J17" t="n">
-        <v>63.5</v>
+        <v>48.6</v>
       </c>
       <c r="K17" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="L17" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Bristol City U21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Guadalupe FC</t>
+          <t>Colchester United U21</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>76.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>76.3</v>
+        <v>55.3</v>
       </c>
       <c r="H18" t="n">
-        <v>18.4</v>
+        <v>25.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>19.1</v>
       </c>
       <c r="J18" t="n">
-        <v>71.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>1.11</v>
+        <v>0.8</v>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al Wahda FC</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Al-Ahli Jeddah</t>
+          <t>Stupčanica Olovo</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.05</v>
+        <v>1.21</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>72.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>27.3</v>
+        <v>7.3</v>
       </c>
       <c r="I19" t="n">
-        <v>72.7</v>
+        <v>17.1</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5</v>
+        <v>63.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Brickfield Rangers</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Guilsfield</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.7</v>
+        <v>3.54</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>57.1</v>
+        <v>75</v>
       </c>
       <c r="G20" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>57.1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>14.3</v>
+        <v>75</v>
       </c>
       <c r="J20" t="n">
-        <v>28.6</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bangkok</t>
+          <t>Virtus Entella</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kasetsart FC</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>57.1</v>
+        <v>75</v>
       </c>
       <c r="G21" t="n">
-        <v>28.6</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>57.1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14.3</v>
+        <v>75</v>
       </c>
       <c r="J21" t="n">
-        <v>28.6</v>
+        <v>81.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Monsoon</t>
+          <t>Boston United</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Inter Santa Maria</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>52.6</v>
+        <v>73.2</v>
       </c>
       <c r="G22" t="n">
-        <v>23.7</v>
+        <v>73.2</v>
       </c>
       <c r="H22" t="n">
-        <v>52.6</v>
+        <v>18.3</v>
       </c>
       <c r="I22" t="n">
-        <v>23.7</v>
+        <v>8.5</v>
       </c>
       <c r="J22" t="n">
-        <v>42.1</v>
+        <v>51.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="L22" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>37.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>9.5</v>
       </c>
       <c r="I23" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>47.6</v>
       </c>
       <c r="K23" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="L23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Sisaket United</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Trat FC</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>48.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>37.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>48.8</v>
+        <v>9.5</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J24" t="n">
-        <v>33.7</v>
+        <v>47.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8</v>
+        <v>1.11</v>
       </c>
       <c r="L24" t="n">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dinamo Bucuresti</t>
+          <t>Eastbourne Borough</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Maidstone Utd</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1578,45 +1578,45 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>48.8</v>
+        <v>56.8</v>
       </c>
       <c r="G25" t="n">
-        <v>37.2</v>
+        <v>16.2</v>
       </c>
       <c r="H25" t="n">
-        <v>48.8</v>
+        <v>56.8</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J25" t="n">
-        <v>33.7</v>
+        <v>35.1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="L25" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Linfield</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Dungannon Swifts</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1624,45 +1624,45 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>45.2</v>
+        <v>55.6</v>
       </c>
       <c r="G26" t="n">
-        <v>38.7</v>
+        <v>44.4</v>
       </c>
       <c r="H26" t="n">
-        <v>45.2</v>
+        <v>55.6</v>
       </c>
       <c r="I26" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>27.4</v>
+        <v>16.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="L26" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Leicester City U21</t>
+          <t>Banfield Res.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Norwich City U21</t>
+          <t>San Lorenzo Res.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.68</v>
+        <v>2.72</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1670,45 +1670,45 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>43.3</v>
+        <v>52.6</v>
       </c>
       <c r="G27" t="n">
-        <v>36.7</v>
+        <v>26.3</v>
       </c>
       <c r="H27" t="n">
-        <v>43.3</v>
+        <v>52.6</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>21.1</v>
       </c>
       <c r="J27" t="n">
-        <v>66.7</v>
+        <v>52.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="L27" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Krylia Sovetov</t>
+          <t>Puebla W</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>KAMAZ</t>
+          <t>Atlas W</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.62</v>
+        <v>4.8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1716,45 +1716,45 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>43.3</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>36.7</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>43.3</v>
+        <v>50</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>0.61</v>
+        <v>2.42</v>
       </c>
       <c r="L28" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HLM</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sonacos</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1762,45 +1762,45 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>28.6</v>
+        <v>37.5</v>
       </c>
       <c r="H29" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="I29" t="n">
-        <v>28.6</v>
+        <v>12.5</v>
       </c>
       <c r="J29" t="n">
-        <v>32.1</v>
+        <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="L29" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai</t>
+          <t>Nakhon Si Thammarat</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Al-Hilal Saudi FC</t>
+          <t>Khon Kaen United</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.9</v>
+        <v>3.72</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1808,505 +1808,505 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="H30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>60</v>
+        <v>33.3</v>
       </c>
       <c r="J30" t="n">
-        <v>40</v>
+        <v>83.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Faetano</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3.5</v>
+        <v>6.05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>58.3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16.7</v>
+        <v>50</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J31" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Latina</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.12</v>
+        <v>2.4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="G32" t="n">
-        <v>57.9</v>
+        <v>38.9</v>
       </c>
       <c r="H32" t="n">
-        <v>10.5</v>
+        <v>44.4</v>
       </c>
       <c r="I32" t="n">
-        <v>31.6</v>
+        <v>16.7</v>
       </c>
       <c r="J32" t="n">
-        <v>57.9</v>
+        <v>33.3</v>
       </c>
       <c r="K32" t="n">
-        <v>1.82</v>
+        <v>0.95</v>
       </c>
       <c r="L32" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Depor FC</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Internacional Palmira</t>
+          <t>Ind. Yumbo</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.14</v>
+        <v>1.72</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="G33" t="n">
-        <v>57.9</v>
+        <v>40.6</v>
       </c>
       <c r="H33" t="n">
-        <v>10.5</v>
+        <v>43.8</v>
       </c>
       <c r="I33" t="n">
-        <v>31.6</v>
+        <v>15.6</v>
       </c>
       <c r="J33" t="n">
-        <v>57.9</v>
+        <v>29.7</v>
       </c>
       <c r="K33" t="n">
-        <v>1.82</v>
+        <v>0.71</v>
       </c>
       <c r="L33" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Watford U21</t>
+          <t>Carrick Rangers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Charlton Athletic U21</t>
+          <t>Glenavon FC</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="G34" t="n">
-        <v>67.90000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="H34" t="n">
-        <v>7.1</v>
+        <v>43.8</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>15.6</v>
       </c>
       <c r="J34" t="n">
-        <v>42.9</v>
+        <v>29.7</v>
       </c>
       <c r="K34" t="n">
-        <v>1.53</v>
+        <v>0.71</v>
       </c>
       <c r="L34" t="n">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tirol/CEFAT</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Maracanã</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.13</v>
+        <v>2.72</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="G35" t="n">
-        <v>65</v>
+        <v>28.6</v>
       </c>
       <c r="H35" t="n">
-        <v>21.7</v>
+        <v>42.9</v>
       </c>
       <c r="I35" t="n">
-        <v>13.3</v>
+        <v>28.6</v>
       </c>
       <c r="J35" t="n">
-        <v>68.3</v>
+        <v>32.1</v>
       </c>
       <c r="K35" t="n">
-        <v>1.4</v>
+        <v>0.79</v>
       </c>
       <c r="L35" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gimnasia M.</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Instituto Cordoba</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G36" t="n">
-        <v>45.5</v>
+        <v>24.7</v>
       </c>
       <c r="H36" t="n">
-        <v>36.4</v>
+        <v>42</v>
       </c>
       <c r="I36" t="n">
-        <v>18.2</v>
+        <v>33.3</v>
       </c>
       <c r="J36" t="n">
-        <v>63.6</v>
+        <v>64.2</v>
       </c>
       <c r="K36" t="n">
-        <v>1.39</v>
+        <v>0.61</v>
       </c>
       <c r="L36" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vilavelhense</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Serra Talhada</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.02</v>
+        <v>2.49</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="G37" t="n">
-        <v>44.4</v>
+        <v>25</v>
       </c>
       <c r="H37" t="n">
-        <v>11.1</v>
+        <v>41.7</v>
       </c>
       <c r="I37" t="n">
-        <v>44.4</v>
+        <v>33.3</v>
       </c>
       <c r="J37" t="n">
-        <v>55.6</v>
+        <v>63.9</v>
       </c>
       <c r="K37" t="n">
-        <v>1.35</v>
+        <v>0.61</v>
       </c>
       <c r="L37" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20:01</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Casarano</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.22</v>
+        <v>1.51</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="G38" t="n">
-        <v>57.4</v>
+        <v>41.5</v>
       </c>
       <c r="H38" t="n">
-        <v>25.5</v>
+        <v>41.5</v>
       </c>
       <c r="I38" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="J38" t="n">
-        <v>31.9</v>
+        <v>63.4</v>
       </c>
       <c r="K38" t="n">
-        <v>1.29</v>
+        <v>0.64</v>
       </c>
       <c r="L38" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Chippenham Town</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Torquay</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.96</v>
+        <v>5.8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>42.9</v>
+        <v>60</v>
       </c>
       <c r="H39" t="n">
-        <v>35.7</v>
+        <v>40</v>
       </c>
       <c r="I39" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>57.1</v>
+        <v>40</v>
       </c>
       <c r="K39" t="n">
-        <v>1.27</v>
+        <v>3.51</v>
       </c>
       <c r="L39" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Krasava Ypsonas</t>
+          <t>Canvey Island</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AEL</t>
+          <t>Chatham Town</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3.22</v>
+        <v>4.6</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G40" t="n">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11.1</v>
+        <v>40</v>
       </c>
       <c r="I40" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J40" t="n">
-        <v>33.3</v>
+        <v>60</v>
       </c>
       <c r="K40" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Bishop's Stortford</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Harborough Town</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.77</v>
+        <v>4.1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2317,42 +2317,42 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>40.7</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>35.6</v>
+        <v>50</v>
       </c>
       <c r="J41" t="n">
-        <v>64.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="K41" t="n">
-        <v>1.12</v>
+        <v>2.07</v>
       </c>
       <c r="L41" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Silivrispor</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galata</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.99</v>
+        <v>3.18</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2363,42 +2363,42 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>57.1</v>
+        <v>63.6</v>
       </c>
       <c r="H42" t="n">
-        <v>15.5</v>
+        <v>9.1</v>
       </c>
       <c r="I42" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="J42" t="n">
-        <v>57.1</v>
+        <v>63.6</v>
       </c>
       <c r="K42" t="n">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jaguares</t>
+          <t>Al Zawra'a</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Al-Wasl FC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.13</v>
+        <v>3.14</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2409,42 +2409,42 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>49.4</v>
+        <v>63.6</v>
       </c>
       <c r="H43" t="n">
-        <v>20.3</v>
+        <v>9.1</v>
       </c>
       <c r="I43" t="n">
-        <v>30.4</v>
+        <v>27.3</v>
       </c>
       <c r="J43" t="n">
-        <v>49.4</v>
+        <v>63.6</v>
       </c>
       <c r="K43" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Dynamo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>FC Krasnodar</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.44</v>
+        <v>3.6</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2455,42 +2455,42 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>43.2</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>11.4</v>
+        <v>25</v>
       </c>
       <c r="I44" t="n">
-        <v>45.5</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
-        <v>31.8</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="L44" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nasaf</t>
+          <t>Tractor Sazi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Al Shorta</t>
+          <t>Al Sadd</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>43.2</v>
+        <v>33.3</v>
       </c>
       <c r="H45" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>45.5</v>
+        <v>66.7</v>
       </c>
       <c r="J45" t="n">
-        <v>31.8</v>
+        <v>66.7</v>
       </c>
       <c r="K45" t="n">
-        <v>1.06</v>
+        <v>1.55</v>
       </c>
       <c r="L45" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Darlington 1883</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Radcliffe</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2547,42 +2547,42 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>53.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>22</v>
+        <v>7.1</v>
       </c>
       <c r="I46" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
-        <v>58.5</v>
+        <v>42.9</v>
       </c>
       <c r="K46" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="L46" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Middlesbrough U21</t>
+          <t>Burgess Hill Town</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2593,42 +2593,42 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>59.7</v>
+        <v>64.7</v>
       </c>
       <c r="H47" t="n">
-        <v>18.2</v>
+        <v>11.8</v>
       </c>
       <c r="I47" t="n">
-        <v>22.1</v>
+        <v>23.5</v>
       </c>
       <c r="J47" t="n">
-        <v>48.1</v>
+        <v>38.2</v>
       </c>
       <c r="K47" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="L47" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Inter Nouakchott</t>
+          <t>CFR 1907 Cluj</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N'Zidane</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.38</v>
+        <v>2.17</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>30.8</v>
+        <v>65</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="I48" t="n">
-        <v>69.2</v>
+        <v>13.3</v>
       </c>
       <c r="J48" t="n">
-        <v>61.5</v>
+        <v>68.3</v>
       </c>
       <c r="K48" t="n">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="L48" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jeunes Fauves</t>
+          <t>Barnsley U21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PWD Bamenda</t>
+          <t>Fleetwood Town U21</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.81</v>
+        <v>2.11</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>35.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>33.3</v>
+        <v>12.8</v>
       </c>
       <c r="I49" t="n">
-        <v>30.8</v>
+        <v>23.1</v>
       </c>
       <c r="J49" t="n">
         <v>43.6</v>
       </c>
       <c r="K49" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="L49" t="n">
         <v>39</v>
@@ -2706,21 +2706,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Teuta Durrës</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Egnatia Rrogozhinë</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>35.9</v>
+        <v>53.8</v>
       </c>
       <c r="H50" t="n">
-        <v>33.3</v>
+        <v>23.1</v>
       </c>
       <c r="I50" t="n">
-        <v>30.8</v>
+        <v>23.1</v>
       </c>
       <c r="J50" t="n">
-        <v>43.6</v>
+        <v>46.2</v>
       </c>
       <c r="K50" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="L50" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.86</v>
+        <v>2.23</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>35.9</v>
+        <v>60.9</v>
       </c>
       <c r="H51" t="n">
-        <v>33.3</v>
+        <v>27.5</v>
       </c>
       <c r="I51" t="n">
-        <v>30.8</v>
+        <v>11.6</v>
       </c>
       <c r="J51" t="n">
-        <v>43.6</v>
+        <v>47.8</v>
       </c>
       <c r="K51" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="L51" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Quixada</t>
+          <t>Royston Town</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Maranguape</t>
+          <t>Bury Town</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2.08</v>
+        <v>2.53</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>49.3</v>
+        <v>53.6</v>
       </c>
       <c r="H52" t="n">
-        <v>16.4</v>
+        <v>28.6</v>
       </c>
       <c r="I52" t="n">
-        <v>34.3</v>
+        <v>17.9</v>
       </c>
       <c r="J52" t="n">
-        <v>49.3</v>
+        <v>46.4</v>
       </c>
       <c r="K52" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="L52" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chainat</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chiangmai United</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.81</v>
+        <v>2.59</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>53.5</v>
+        <v>53.8</v>
       </c>
       <c r="H53" t="n">
-        <v>20.9</v>
+        <v>23.1</v>
       </c>
       <c r="I53" t="n">
-        <v>25.6</v>
+        <v>23.1</v>
       </c>
       <c r="J53" t="n">
-        <v>46.5</v>
+        <v>46.2</v>
       </c>
       <c r="K53" t="n">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="L53" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Al Anwar</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,42 +2915,42 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>61.8</v>
+        <v>60.9</v>
       </c>
       <c r="H54" t="n">
-        <v>20.6</v>
+        <v>27.5</v>
       </c>
       <c r="I54" t="n">
-        <v>17.6</v>
+        <v>11.6</v>
       </c>
       <c r="J54" t="n">
-        <v>41.2</v>
+        <v>47.8</v>
       </c>
       <c r="K54" t="n">
-        <v>0.96</v>
+        <v>1.37</v>
       </c>
       <c r="L54" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Flint Mountain</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FC Fredericia</t>
+          <t>Buckley Town</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.95</v>
+        <v>2.54</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>48.8</v>
+        <v>53.8</v>
       </c>
       <c r="H55" t="n">
-        <v>25.6</v>
+        <v>23.1</v>
       </c>
       <c r="I55" t="n">
-        <v>25.6</v>
+        <v>23.1</v>
       </c>
       <c r="J55" t="n">
-        <v>53.5</v>
+        <v>46.2</v>
       </c>
       <c r="K55" t="n">
-        <v>0.95</v>
+        <v>1.37</v>
       </c>
       <c r="L55" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chrobry Głogów</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Stal Rzeszów</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.96</v>
+        <v>3.04</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>48.6</v>
+        <v>44.4</v>
       </c>
       <c r="H56" t="n">
-        <v>21.6</v>
+        <v>11.1</v>
       </c>
       <c r="I56" t="n">
-        <v>29.7</v>
+        <v>44.4</v>
       </c>
       <c r="J56" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L56" t="n">
         <v>27</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L56" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Hertha BSC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kanchanaburi</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.92</v>
+        <v>3.38</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>48.8</v>
+        <v>40</v>
       </c>
       <c r="H57" t="n">
-        <v>25.6</v>
+        <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>25.6</v>
+        <v>40</v>
       </c>
       <c r="J57" t="n">
-        <v>53.5</v>
+        <v>40</v>
       </c>
       <c r="K57" t="n">
-        <v>0.95</v>
+        <v>1.34</v>
       </c>
       <c r="L57" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Albirex Niigata S</t>
+          <t>Santa Clara U23</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Hougang United</t>
+          <t>Famalicão U23</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.6</v>
+        <v>2.98</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>56.2</v>
+        <v>42.9</v>
       </c>
       <c r="H58" t="n">
-        <v>34.4</v>
+        <v>35.7</v>
       </c>
       <c r="I58" t="n">
-        <v>9.4</v>
+        <v>21.4</v>
       </c>
       <c r="J58" t="n">
-        <v>50</v>
+        <v>57.1</v>
       </c>
       <c r="K58" t="n">
-        <v>0.93</v>
+        <v>1.27</v>
       </c>
       <c r="L58" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mil-Muğan</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kapaz</t>
+          <t>Machida Zelvia</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.1</v>
+        <v>2.99</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="H59" t="n">
-        <v>34</v>
+        <v>35.7</v>
       </c>
       <c r="I59" t="n">
-        <v>23.4</v>
+        <v>21.4</v>
       </c>
       <c r="J59" t="n">
-        <v>44.7</v>
+        <v>57.1</v>
       </c>
       <c r="K59" t="n">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="L59" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hapoel Ra'anana</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kafr Qasim</t>
+          <t>Norwich</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>34.8</v>
+        <v>42.1</v>
       </c>
       <c r="H60" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="I60" t="n">
-        <v>39.1</v>
+        <v>31.6</v>
       </c>
       <c r="J60" t="n">
-        <v>52.2</v>
+        <v>52.6</v>
       </c>
       <c r="K60" t="n">
-        <v>0.92</v>
+        <v>1.24</v>
       </c>
       <c r="L60" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Whitehawk</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Cheshunt</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.53</v>
+        <v>2.27</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,42 +3237,42 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>59.5</v>
+        <v>52.9</v>
       </c>
       <c r="H61" t="n">
-        <v>21.4</v>
+        <v>17.6</v>
       </c>
       <c r="I61" t="n">
-        <v>19</v>
+        <v>29.4</v>
       </c>
       <c r="J61" t="n">
-        <v>40.5</v>
+        <v>50</v>
       </c>
       <c r="K61" t="n">
-        <v>0.92</v>
+        <v>1.19</v>
       </c>
       <c r="L61" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Karaköprü Belediyespor</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Diyarbekirspor</t>
+          <t>Giugliano</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.57</v>
+        <v>2.21</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>59.5</v>
+        <v>52.9</v>
       </c>
       <c r="H62" t="n">
-        <v>21.4</v>
+        <v>17.6</v>
       </c>
       <c r="I62" t="n">
-        <v>19</v>
+        <v>29.4</v>
       </c>
       <c r="J62" t="n">
-        <v>40.5</v>
+        <v>50</v>
       </c>
       <c r="K62" t="n">
-        <v>0.92</v>
+        <v>1.19</v>
       </c>
       <c r="L62" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Sitra</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.41</v>
+        <v>3.16</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,19 +3329,19 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="J63" t="n">
         <v>62.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>25</v>
-      </c>
-      <c r="I63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>40.6</v>
-      </c>
       <c r="K63" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="L63" t="n">
         <v>32</v>
@@ -3350,21 +3350,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Zenit</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dinamo Samarqand</t>
+          <t>CSKA 1948</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3378,39 +3378,39 @@
         <v>66.7</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="I64" t="n">
-        <v>33.3</v>
+        <v>5.6</v>
       </c>
       <c r="J64" t="n">
-        <v>66.7</v>
+        <v>44.4</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FC Sochi</t>
+          <t>Buxton</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Surkhon</t>
+          <t>Peterborough Sports</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>43.4</v>
+        <v>66.7</v>
       </c>
       <c r="H65" t="n">
-        <v>24.1</v>
+        <v>27.8</v>
       </c>
       <c r="I65" t="n">
-        <v>32.5</v>
+        <v>5.6</v>
       </c>
       <c r="J65" t="n">
-        <v>41</v>
+        <v>44.4</v>
       </c>
       <c r="K65" t="n">
-        <v>0.89</v>
+        <v>1.17</v>
       </c>
       <c r="L65" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bnei Yehuda</t>
+          <t>Leixões U23</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hapoel Acre</t>
+          <t>Sporting CP U23</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.73</v>
+        <v>2.56</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J66" t="n">
         <v>50</v>
       </c>
-      <c r="H66" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>65.7</v>
-      </c>
       <c r="K66" t="n">
-        <v>0.88</v>
+        <v>1.15</v>
       </c>
       <c r="L66" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jong PSV U21</t>
+          <t>Slough Town</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FC OSS</t>
+          <t>Weston-super-Mare</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>41.8</v>
+        <v>40.7</v>
       </c>
       <c r="H67" t="n">
-        <v>29.1</v>
+        <v>23.7</v>
       </c>
       <c r="I67" t="n">
-        <v>29.1</v>
+        <v>35.6</v>
       </c>
       <c r="J67" t="n">
-        <v>36.4</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="L67" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FC Cajamarca</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Deportivo Garcilaso</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>41.8</v>
+        <v>57.1</v>
       </c>
       <c r="H68" t="n">
-        <v>29.1</v>
+        <v>15.5</v>
       </c>
       <c r="I68" t="n">
-        <v>29.1</v>
+        <v>27.4</v>
       </c>
       <c r="J68" t="n">
-        <v>36.4</v>
+        <v>57.1</v>
       </c>
       <c r="K68" t="n">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="L68" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Omonia Aradippou</t>
+          <t>King's Lynn Town</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Akritas</t>
+          <t>Worksop Town</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>46.1</v>
+        <v>60</v>
       </c>
       <c r="H69" t="n">
-        <v>28.9</v>
+        <v>18.5</v>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>21.5</v>
       </c>
       <c r="J69" t="n">
-        <v>43.4</v>
+        <v>61.5</v>
       </c>
       <c r="K69" t="n">
-        <v>0.85</v>
+        <v>1.11</v>
       </c>
       <c r="L69" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Antigua GFC</t>
+          <t>Bracknell Town</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mixco</t>
+          <t>Berkhamsted</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>51.4</v>
+        <v>57.1</v>
       </c>
       <c r="H70" t="n">
-        <v>29.7</v>
+        <v>15.5</v>
       </c>
       <c r="I70" t="n">
-        <v>18.9</v>
+        <v>27.4</v>
       </c>
       <c r="J70" t="n">
-        <v>45.9</v>
+        <v>57.1</v>
       </c>
       <c r="K70" t="n">
-        <v>0.85</v>
+        <v>1.11</v>
       </c>
       <c r="L70" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tuzlaspor</t>
+          <t>Heart Of Midlothian</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Buca FK</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H71" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="I71" t="n">
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>61.5</v>
       </c>
       <c r="K71" t="n">
-        <v>0.85</v>
+        <v>1.11</v>
       </c>
       <c r="L71" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Al-Duhail SC</t>
+          <t>Gimnasia La Plata Res.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sharjah FC</t>
+          <t>Instituto Res.</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>46.1</v>
+        <v>50.6</v>
       </c>
       <c r="H72" t="n">
-        <v>28.9</v>
+        <v>19.8</v>
       </c>
       <c r="I72" t="n">
-        <v>25</v>
+        <v>29.6</v>
       </c>
       <c r="J72" t="n">
-        <v>43.4</v>
+        <v>50.6</v>
       </c>
       <c r="K72" t="n">
-        <v>0.85</v>
+        <v>1.09</v>
       </c>
       <c r="L72" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Serra Branca</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nacional de Patos</t>
+          <t>Futbol Consultants Moravia</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.64</v>
+        <v>2.18</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>51.2</v>
+        <v>50.6</v>
       </c>
       <c r="H73" t="n">
-        <v>34.1</v>
+        <v>19.8</v>
       </c>
       <c r="I73" t="n">
-        <v>14.6</v>
+        <v>29.6</v>
       </c>
       <c r="J73" t="n">
-        <v>56.1</v>
+        <v>50.6</v>
       </c>
       <c r="K73" t="n">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="L73" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Wigan Athletic U21</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Coventry City U21</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>69.7</v>
+        <v>50.6</v>
       </c>
       <c r="H74" t="n">
-        <v>18.2</v>
+        <v>19.8</v>
       </c>
       <c r="I74" t="n">
-        <v>12.1</v>
+        <v>29.6</v>
       </c>
       <c r="J74" t="n">
-        <v>69.7</v>
+        <v>50.6</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="L74" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Stockton Town</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Prescot Cables</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>34</v>
+        <v>60.3</v>
       </c>
       <c r="H75" t="n">
-        <v>23.4</v>
+        <v>17.9</v>
       </c>
       <c r="I75" t="n">
-        <v>42.6</v>
+        <v>21.8</v>
       </c>
       <c r="J75" t="n">
-        <v>46.8</v>
+        <v>48.7</v>
       </c>
       <c r="K75" t="n">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="L75" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>Atalanta II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Karvan</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.27</v>
+        <v>1.76</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>62.5</v>
+        <v>60.3</v>
       </c>
       <c r="H76" t="n">
-        <v>25</v>
+        <v>17.9</v>
       </c>
       <c r="I76" t="n">
-        <v>12.5</v>
+        <v>21.8</v>
       </c>
       <c r="J76" t="n">
-        <v>41.7</v>
+        <v>48.7</v>
       </c>
       <c r="K76" t="n">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="L76" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>42.4</v>
+        <v>48.9</v>
       </c>
       <c r="H77" t="n">
-        <v>37.3</v>
+        <v>23.4</v>
       </c>
       <c r="I77" t="n">
-        <v>20.3</v>
+        <v>27.7</v>
       </c>
       <c r="J77" t="n">
-        <v>50.8</v>
+        <v>57.4</v>
       </c>
       <c r="K77" t="n">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
       <c r="L77" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Vasco da Gama AC</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Independência</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,42 +4019,42 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>44.1</v>
+        <v>42.6</v>
       </c>
       <c r="H78" t="n">
-        <v>8.800000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="I78" t="n">
-        <v>47.1</v>
+        <v>42.6</v>
       </c>
       <c r="J78" t="n">
-        <v>41.2</v>
+        <v>31.9</v>
       </c>
       <c r="K78" t="n">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="L78" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Burnley U21</t>
+          <t>Horsham</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Brentford U21</t>
+          <t>Dagenham &amp; Redbridge</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.68</v>
+        <v>2.47</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>27.6</v>
+        <v>42.6</v>
       </c>
       <c r="H79" t="n">
-        <v>31</v>
+        <v>14.9</v>
       </c>
       <c r="I79" t="n">
-        <v>41.4</v>
+        <v>42.6</v>
       </c>
       <c r="J79" t="n">
-        <v>55.2</v>
+        <v>31.9</v>
       </c>
       <c r="K79" t="n">
-        <v>0.73</v>
+        <v>1.04</v>
       </c>
       <c r="L79" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>GOŠK Gabela</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.66</v>
+        <v>3.46</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>43.9</v>
+        <v>30</v>
       </c>
       <c r="H80" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>34.1</v>
+        <v>65</v>
       </c>
       <c r="J80" t="n">
-        <v>36.6</v>
+        <v>70</v>
       </c>
       <c r="K80" t="n">
-        <v>0.72</v>
+        <v>1.03</v>
       </c>
       <c r="L80" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cavalier</t>
+          <t>Estudiantes de Rio Cuarto</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Spanish Town Police</t>
+          <t>Independ. Rivadavia</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.19</v>
+        <v>3.5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,42 +4157,42 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>60</v>
+        <v>28.6</v>
       </c>
       <c r="H81" t="n">
-        <v>30</v>
+        <v>14.3</v>
       </c>
       <c r="I81" t="n">
-        <v>10</v>
+        <v>57.1</v>
       </c>
       <c r="J81" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="L81" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>León W</t>
+          <t>Chester</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Necaxa W</t>
+          <t>Alfreton Town</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4203,42 +4203,42 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="H82" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="J82" t="n">
-        <v>30</v>
+        <v>43.8</v>
       </c>
       <c r="K82" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="L82" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fasil Ketema</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hadiya Hosaena</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.33</v>
+        <v>3.04</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4249,42 +4249,42 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>28.1</v>
+        <v>33.3</v>
       </c>
       <c r="H83" t="n">
-        <v>37.5</v>
+        <v>26.7</v>
       </c>
       <c r="I83" t="n">
-        <v>34.4</v>
+        <v>40</v>
       </c>
       <c r="J83" t="n">
-        <v>25</v>
+        <v>46.7</v>
       </c>
       <c r="K83" t="n">
-        <v>0.66</v>
+        <v>1.02</v>
       </c>
       <c r="L83" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Rosario Central Res.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Tigre Res.</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4295,42 +4295,42 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>32.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>14.5</v>
+        <v>18.9</v>
       </c>
       <c r="I84" t="n">
-        <v>53.2</v>
+        <v>16.2</v>
       </c>
       <c r="J84" t="n">
-        <v>30.6</v>
+        <v>37.8</v>
       </c>
       <c r="K84" t="n">
-        <v>0.66</v>
+        <v>1.01</v>
       </c>
       <c r="L84" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Arnavutköy Belediyespor</t>
+          <t>Hednesford Town</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Hebburn Town</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.88</v>
+        <v>1.88</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4341,42 +4341,42 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>22.2</v>
+        <v>54.5</v>
       </c>
       <c r="H85" t="n">
-        <v>33.3</v>
+        <v>24.2</v>
       </c>
       <c r="I85" t="n">
-        <v>44.4</v>
+        <v>21.2</v>
       </c>
       <c r="J85" t="n">
-        <v>55.6</v>
+        <v>51.5</v>
       </c>
       <c r="K85" t="n">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="L85" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Zenit</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>CSKA Moscow</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4387,42 +4387,42 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>37.2</v>
+        <v>54.5</v>
       </c>
       <c r="H86" t="n">
-        <v>27.9</v>
+        <v>24.2</v>
       </c>
       <c r="I86" t="n">
-        <v>34.9</v>
+        <v>21.2</v>
       </c>
       <c r="J86" t="n">
-        <v>52.3</v>
+        <v>51.5</v>
       </c>
       <c r="K86" t="n">
-        <v>0.61</v>
+        <v>1.01</v>
       </c>
       <c r="L86" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4433,42 +4433,42 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>30.8</v>
+        <v>37.5</v>
       </c>
       <c r="H87" t="n">
-        <v>34.6</v>
+        <v>33.3</v>
       </c>
       <c r="I87" t="n">
-        <v>34.6</v>
+        <v>29.2</v>
       </c>
       <c r="J87" t="n">
-        <v>69.2</v>
+        <v>54.2</v>
       </c>
       <c r="K87" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="L87" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4479,42 +4479,42 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>23.4</v>
+        <v>53.5</v>
       </c>
       <c r="H88" t="n">
-        <v>17</v>
+        <v>20.9</v>
       </c>
       <c r="I88" t="n">
-        <v>59.6</v>
+        <v>25.6</v>
       </c>
       <c r="J88" t="n">
-        <v>55.3</v>
+        <v>46.5</v>
       </c>
       <c r="K88" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="L88" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dagon</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>I.S.P.E</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4525,42 +4525,42 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>30.8</v>
+        <v>53.5</v>
       </c>
       <c r="H89" t="n">
-        <v>34.6</v>
+        <v>20.9</v>
       </c>
       <c r="I89" t="n">
-        <v>34.6</v>
+        <v>25.6</v>
       </c>
       <c r="J89" t="n">
-        <v>69.2</v>
+        <v>46.5</v>
       </c>
       <c r="K89" t="n">
-        <v>0.57</v>
+        <v>0.99</v>
       </c>
       <c r="L89" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kerkennah</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Progrès Sakiet Eddaïer</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.99</v>
+        <v>1.99</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4571,42 +4571,42 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>13.8</v>
+        <v>50</v>
       </c>
       <c r="H90" t="n">
-        <v>27.6</v>
+        <v>21.1</v>
       </c>
       <c r="I90" t="n">
-        <v>58.6</v>
+        <v>28.9</v>
       </c>
       <c r="J90" t="n">
-        <v>31</v>
+        <v>28.9</v>
       </c>
       <c r="K90" t="n">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="L90" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Al Baten</t>
+          <t>AFC Hornchurch</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Al Ula</t>
+          <t>Chelmsford City</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6.65</v>
+        <v>2.07</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4617,42 +4617,42 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Annan Athletic</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Al Zulfi</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4663,42 +4663,42 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>28.9</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Sheffield United U21</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Al Diriyah</t>
+          <t>Peterborough United U21</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9.199999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4709,42 +4709,42 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>41.9</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5.15</v>
+        <v>1.67</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4755,21 +4755,2459 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="L94" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ECUS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Grêmio Sãocarlense</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H95" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L95" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Larne</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Glentoran</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>34</v>
+      </c>
+      <c r="I96" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L96" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Chanthaburi</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mahasarakham United</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>34</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L97" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Chorley</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Southport</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H98" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L98" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Kidderminster Harriers</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Merthyr Town</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>25</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L99" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Dorking Wanderers</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>25</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L100" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Audace Cerignola</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>25</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L101" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="I102" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L102" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L103" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Vasco da Gama AC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Independência</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H104" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L104" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Doncaster</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>50</v>
+      </c>
+      <c r="H105" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I105" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L105" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Hemel Hempstead Town</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Hampton &amp; Richmond</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>50</v>
+      </c>
+      <c r="H106" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I106" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L106" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pumas UNAM W</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Guadalajara W</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L107" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>01:06</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Querétaro W</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mazatlán W</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="H108" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L108" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Ballymena United</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Crusaders FC</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="I109" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L109" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Cliftonville FC</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Bangor</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Chengdu Better City</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Buriram United</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="I111" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L111" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe Res.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Aldosivi Res.</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I112" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J112" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L112" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>FC Luzern</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>46</v>
+      </c>
+      <c r="H113" t="n">
+        <v>36</v>
+      </c>
+      <c r="I113" t="n">
+        <v>18</v>
+      </c>
+      <c r="J113" t="n">
+        <v>50</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L113" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Tonbridge Angels</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Maidenhead</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I114" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Yangon United</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Thitsar Arman</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="H115" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L115" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L116" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Siracusa</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L117" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Monterrey W</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Toluca W</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H118" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L118" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Scunthorpe</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="H119" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J119" t="n">
+        <v>49</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L119" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>AFC Telford United</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Hereford</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L120" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>AFC Totton</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Bath City</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="H121" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I121" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>49</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L121" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>02:05</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>FC Racing</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Gorilas de Juanacatlan</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L122" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Curzon Ashton</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Marine</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>31</v>
+      </c>
+      <c r="H123" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L123" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Neftchi Baku</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Qabala</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="H124" t="n">
+        <v>22</v>
+      </c>
+      <c r="I124" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L124" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Ebbsfleet United</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Enfield Town</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J125" t="n">
+        <v>50</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L125" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H126" t="n">
+        <v>30</v>
+      </c>
+      <c r="I126" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L126" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Morecambe</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Tamworth</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I127" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J127" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L127" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Montrose</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Peterhead</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H128" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I128" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L128" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Polokwane City</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Amazulu</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J129" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L129" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Songkhla</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Esan Pattaya</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="H130" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I130" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L130" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>23:20</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I131" t="n">
+        <v>49</v>
+      </c>
+      <c r="J131" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L131" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lancaster City</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rushall Olympic</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H132" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="I132" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J132" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L132" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="J133" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L133" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Foggia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AZ Picerno</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L134" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Johor Darul Takzim FC</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I135" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L135" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Bamber Bridge</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Gainsborough Trinity</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>17</v>
+      </c>
+      <c r="I136" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L136" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cavese</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SS Monopoli</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J137" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L137" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Tiverton Town</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Wimborne Town</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I138" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>50</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L138" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>15:55</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Al Wehda Club</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Al-Faisaly FC</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H139" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I139" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="J139" t="n">
+        <v>50</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L139" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I140" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="J140" t="n">
+        <v>31</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L140" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Independiente Medellin</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Trapani 1905</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Ayeyawady United</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Shan United</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Dumbrăviţa</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Sănătatea Cluj</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Petrolul Ploiesti</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Murata</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Juvenes / Dogana</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ST Johnstone</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ayr Utd</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,21 +498,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.78</v>
+        <v>4.45</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,122 +535,122 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>4.45</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scarborough Athletic</t>
+          <t>Apoel Nicosia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>South Shields</t>
+          <t>Enosis</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.94</v>
+        <v>1.04</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>85.7</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>1.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ferro 2</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Belgrano Córdoba Res.</t>
+          <t>Forge</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.9</v>
+        <v>1.07</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>54.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Keshla FC</t>
+          <t>Atlético Cajazeirense</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>Botafogo PB</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>3.76</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -670,37 +670,37 @@
         <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Macclesfield</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leamington</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.32</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -710,39 +710,39 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>100</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lewes</t>
+          <t>La Fiorita</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Billericay Town</t>
+          <t>Fiorentino</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.3</v>
+        <v>1.34</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -762,75 +762,75 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.33</v>
+        <v>1.21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nouakchott Academie</t>
+          <t>CRAC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nouadhibou</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -838,95 +838,95 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Giovanni</t>
+          <t>Công An Nhân Dân</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tre Penne</t>
+          <t>Tampines Rovers</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>1.34</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>51.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coleraine FC</t>
+          <t>Kalju Nomme</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Portadown</t>
+          <t>Tukums</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -934,183 +934,183 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>91.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>91.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>51.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="L11" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yate Town</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Poole Town</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.88</v>
+        <v>1.71</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H12" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>66.7</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Budapest Honved</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>ESMTK</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.34</v>
+        <v>1.13</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>81.8</v>
+        <v>80</v>
       </c>
       <c r="G13" t="n">
-        <v>36.4</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
-        <v>18.2</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>45.5</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>81.8</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
-        <v>1.22</v>
+        <v>0.92</v>
       </c>
       <c r="L13" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bylis</t>
+          <t>Kaya</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vllaznia Shkodër</t>
+          <t>Maharlika</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.1</v>
+        <v>1.16</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="n">
-        <v>42.9</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
-        <v>28.6</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>28.6</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>1.35</v>
+        <v>0.92</v>
       </c>
       <c r="L14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AFC Fylde</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Spennymoor Town</t>
+          <t>Kruševo</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1118,91 +1118,91 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>77.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G15" t="n">
-        <v>77.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="H15" t="n">
-        <v>12.9</v>
+        <v>21.7</v>
       </c>
       <c r="I15" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>63.5</v>
+        <v>56.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L15" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Manauara</t>
+          <t>Vardar Skopje</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parintins</t>
+          <t>Aresimi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>77.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G16" t="n">
-        <v>43.1</v>
+        <v>78.3</v>
       </c>
       <c r="H16" t="n">
-        <v>13.8</v>
+        <v>21.7</v>
       </c>
       <c r="I16" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.59999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="L16" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tigres UANL W</t>
+          <t>Eintracht Frankfurt W</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Juárez W</t>
+          <t>Nordsjælland</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1210,209 +1210,209 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>77.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G17" t="n">
-        <v>77.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="H17" t="n">
-        <v>11.4</v>
+        <v>21.7</v>
       </c>
       <c r="I17" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>48.6</v>
+        <v>56.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="L17" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bristol City U21</t>
+          <t>Häcken</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Colchester United U21</t>
+          <t>Breidablik W</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.49</v>
+        <v>1.12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>76.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G18" t="n">
-        <v>55.3</v>
+        <v>78.3</v>
       </c>
       <c r="H18" t="n">
-        <v>25.5</v>
+        <v>21.7</v>
       </c>
       <c r="I18" t="n">
-        <v>19.1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.59999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L18" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stupčanica Olovo</t>
+          <t>Virtus Verona</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>75.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>75.59999999999999</v>
+        <v>43.1</v>
       </c>
       <c r="H19" t="n">
-        <v>7.3</v>
+        <v>13.8</v>
       </c>
       <c r="I19" t="n">
-        <v>17.1</v>
+        <v>43.1</v>
       </c>
       <c r="J19" t="n">
-        <v>63.4</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="L19" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brickfield Rangers</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Guilsfield</t>
+          <t>Bashkimi Kumanovo</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.54</v>
+        <v>1.41</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>75</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>43.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="I20" t="n">
-        <v>75</v>
+        <v>43.1</v>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Virtus Entella</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.89</v>
+        <v>1.4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G21" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="H21" t="n">
         <v>25</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>75</v>
+        <v>18.8</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1423,16 +1423,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Boston United</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Yeovil Town</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1440,45 +1440,45 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>73.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>73.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="I22" t="n">
         <v>8.5</v>
       </c>
       <c r="J22" t="n">
-        <v>51.2</v>
+        <v>70.2</v>
       </c>
       <c r="K22" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="L22" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sportivo Belgrano</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,45 +1486,45 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>71.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="G23" t="n">
-        <v>71.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="H23" t="n">
-        <v>9.5</v>
+        <v>11.8</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>11.8</v>
       </c>
       <c r="J23" t="n">
-        <v>47.6</v>
+        <v>58.8</v>
       </c>
       <c r="K23" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="L23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sisaket United</t>
+          <t>Virtus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>Libertas</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1532,25 +1532,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>71.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="G24" t="n">
-        <v>71.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="H24" t="n">
-        <v>9.5</v>
+        <v>11.8</v>
       </c>
       <c r="I24" t="n">
-        <v>19</v>
+        <v>11.8</v>
       </c>
       <c r="J24" t="n">
-        <v>47.6</v>
+        <v>58.8</v>
       </c>
       <c r="K24" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="L24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1561,246 +1561,246 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Eastbourne Borough</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Maidstone Utd</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.91</v>
+        <v>1.14</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>56.8</v>
+        <v>76.5</v>
       </c>
       <c r="G25" t="n">
-        <v>16.2</v>
+        <v>76.5</v>
       </c>
       <c r="H25" t="n">
-        <v>56.8</v>
+        <v>11.8</v>
       </c>
       <c r="I25" t="n">
-        <v>27</v>
+        <v>11.8</v>
       </c>
       <c r="J25" t="n">
-        <v>35.1</v>
+        <v>76.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="L25" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Linfield</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dungannon Swifts</t>
+          <t>remo</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>55.6</v>
+        <v>76.3</v>
       </c>
       <c r="G26" t="n">
-        <v>44.4</v>
+        <v>76.3</v>
       </c>
       <c r="H26" t="n">
-        <v>55.6</v>
+        <v>18.4</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="J26" t="n">
-        <v>16.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.64</v>
+        <v>1.11</v>
       </c>
       <c r="L26" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Banfield Res.</t>
+          <t>Avellino</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>San Lorenzo Res.</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>52.6</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
-        <v>26.3</v>
+        <v>33.3</v>
       </c>
       <c r="H27" t="n">
-        <v>52.6</v>
+        <v>16.7</v>
       </c>
       <c r="I27" t="n">
-        <v>21.1</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
-        <v>52.6</v>
+        <v>75</v>
       </c>
       <c r="K27" t="n">
-        <v>0.72</v>
+        <v>1.12</v>
       </c>
       <c r="L27" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Puebla W</t>
+          <t>Boca Juniors Res.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Atlas W</t>
+          <t>Deportivo Riestra Res.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.8</v>
+        <v>1.61</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>72.3</v>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>72.3</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>18.1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>50.6</v>
       </c>
       <c r="K28" t="n">
-        <v>2.42</v>
+        <v>1.19</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.79</v>
+        <v>1.62</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>72.3</v>
       </c>
       <c r="G29" t="n">
-        <v>37.5</v>
+        <v>72.3</v>
       </c>
       <c r="H29" t="n">
-        <v>50</v>
+        <v>18.1</v>
       </c>
       <c r="I29" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>50.6</v>
       </c>
       <c r="K29" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="L29" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Khon Kaen United</t>
+          <t>Arda Kardzhali</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1808,45 +1808,45 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="G30" t="n">
-        <v>16.7</v>
+        <v>33.3</v>
       </c>
       <c r="H30" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="I30" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>83.3</v>
+        <v>55.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.63</v>
+        <v>1.18</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Faetano</t>
+          <t>Pro Patria</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6.05</v>
+        <v>4.1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1854,45 +1854,45 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="I31" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Metalul Buzău</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Latina</t>
+          <t>Sepsi OSK Sfantu Gheorghe</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1900,45 +1900,45 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>44.4</v>
+        <v>56.8</v>
       </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>16.2</v>
       </c>
       <c r="H32" t="n">
-        <v>44.4</v>
+        <v>56.8</v>
       </c>
       <c r="I32" t="n">
-        <v>16.7</v>
+        <v>27</v>
       </c>
       <c r="J32" t="n">
-        <v>33.3</v>
+        <v>35.1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.95</v>
+        <v>0.48</v>
       </c>
       <c r="L32" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Phrae United</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ind. Yumbo</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1946,45 +1946,45 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>43.8</v>
+        <v>55</v>
       </c>
       <c r="G33" t="n">
-        <v>40.6</v>
+        <v>22.5</v>
       </c>
       <c r="H33" t="n">
-        <v>43.8</v>
+        <v>55</v>
       </c>
       <c r="I33" t="n">
-        <v>15.6</v>
+        <v>22.5</v>
       </c>
       <c r="J33" t="n">
-        <v>29.7</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="L33" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Carrick Rangers</t>
+          <t>Arzignano Valchiampo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Glenavon FC</t>
+          <t>Trento</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.7</v>
+        <v>2.77</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1992,25 +1992,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>43.8</v>
+        <v>52.6</v>
       </c>
       <c r="G34" t="n">
-        <v>40.6</v>
+        <v>26.3</v>
       </c>
       <c r="H34" t="n">
-        <v>43.8</v>
+        <v>52.6</v>
       </c>
       <c r="I34" t="n">
-        <v>15.6</v>
+        <v>21.1</v>
       </c>
       <c r="J34" t="n">
-        <v>29.7</v>
+        <v>52.6</v>
       </c>
       <c r="K34" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="L34" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2021,16 +2021,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Retrô</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.72</v>
+        <v>3.52</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2038,45 +2038,45 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>28.6</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="I35" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32.1</v>
+        <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>0.79</v>
+        <v>1.78</v>
       </c>
       <c r="L35" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Real FC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Sobradinho EC</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.42</v>
+        <v>4.65</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2084,45 +2084,45 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I36" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="J36" t="n">
-        <v>64.2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.49</v>
+        <v>2.17</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2130,45 +2130,45 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>41.7</v>
+        <v>47.2</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
+        <v>39.3</v>
       </c>
       <c r="H37" t="n">
-        <v>41.7</v>
+        <v>47.2</v>
       </c>
       <c r="I37" t="n">
-        <v>33.3</v>
+        <v>13.5</v>
       </c>
       <c r="J37" t="n">
-        <v>63.9</v>
+        <v>32.6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="L37" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Casarano</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.51</v>
+        <v>2.12</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2176,45 +2176,45 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>41.5</v>
+        <v>47.2</v>
       </c>
       <c r="G38" t="n">
-        <v>41.5</v>
+        <v>39.3</v>
       </c>
       <c r="H38" t="n">
-        <v>41.5</v>
+        <v>47.2</v>
       </c>
       <c r="I38" t="n">
-        <v>17.1</v>
+        <v>13.5</v>
       </c>
       <c r="J38" t="n">
-        <v>63.4</v>
+        <v>32.6</v>
       </c>
       <c r="K38" t="n">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="L38" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chippenham Town</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Torquay</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.8</v>
+        <v>2.12</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2222,45 +2222,45 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>47.2</v>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>39.3</v>
       </c>
       <c r="H39" t="n">
-        <v>40</v>
+        <v>47.2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="J39" t="n">
-        <v>40</v>
+        <v>32.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.51</v>
+        <v>0.84</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Canvey Island</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chatham Town</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2268,71 +2268,71 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>47.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>39.3</v>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>47.2</v>
       </c>
       <c r="I40" t="n">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="J40" t="n">
-        <v>60</v>
+        <v>32.6</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bishop's Stortford</t>
+          <t>Cailungo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Harborough Town</t>
+          <t>San Marino Academy</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>39.3</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="I41" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>32.6</v>
       </c>
       <c r="K41" t="n">
-        <v>2.07</v>
+        <v>0.84</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
@@ -2343,292 +2343,292 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Rio Preto</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Marília</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.18</v>
+        <v>2.49</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>45.9</v>
       </c>
       <c r="G42" t="n">
-        <v>63.6</v>
+        <v>37.8</v>
       </c>
       <c r="H42" t="n">
-        <v>9.1</v>
+        <v>45.9</v>
       </c>
       <c r="I42" t="n">
-        <v>27.3</v>
+        <v>16.2</v>
       </c>
       <c r="J42" t="n">
-        <v>63.6</v>
+        <v>32.4</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>0.93</v>
       </c>
       <c r="L42" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Al Zawra'a</t>
+          <t>Bandeirante SP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Al-Wasl FC</t>
+          <t>XV de Jau</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.14</v>
+        <v>2.79</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="G43" t="n">
-        <v>63.6</v>
+        <v>45.5</v>
       </c>
       <c r="H43" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I43" t="n">
         <v>9.1</v>
       </c>
-      <c r="I43" t="n">
-        <v>27.3</v>
-      </c>
       <c r="J43" t="n">
-        <v>63.6</v>
+        <v>18.2</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L43" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dynamo</t>
+          <t>Zumbi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FC Krasnodar</t>
+          <t>CSE</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>28.6</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>42.9</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>14.3</v>
       </c>
       <c r="K44" t="n">
-        <v>1.82</v>
+        <v>1.13</v>
       </c>
       <c r="L44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tractor Sazi</t>
+          <t>Chapecoense-sc</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Al Sadd</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.6</v>
+        <v>2.45</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="G45" t="n">
+        <v>25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="I45" t="n">
         <v>33.3</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>66.7</v>
-      </c>
       <c r="J45" t="n">
-        <v>66.7</v>
+        <v>63.9</v>
       </c>
       <c r="K45" t="n">
-        <v>1.55</v>
+        <v>0.61</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Darlington 1883</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Radcliffe</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.25</v>
+        <v>3.65</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>67.90000000000001</v>
+        <v>40</v>
       </c>
       <c r="H46" t="n">
-        <v>7.1</v>
+        <v>40</v>
       </c>
       <c r="I46" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
-        <v>42.9</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="L46" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wingate &amp; Finchley</t>
+          <t>PRO Vercelli</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Burgess Hill Town</t>
+          <t>Vicenza Virtus</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.32</v>
+        <v>4.65</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>11.8</v>
+        <v>40</v>
       </c>
       <c r="I47" t="n">
-        <v>23.5</v>
+        <v>60</v>
       </c>
       <c r="J47" t="n">
-        <v>38.2</v>
+        <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CFR 1907 Cluj</t>
+          <t>Génesis</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.17</v>
+        <v>3.22</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>65</v>
+        <v>63.6</v>
       </c>
       <c r="H48" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>13.3</v>
+        <v>36.4</v>
       </c>
       <c r="J48" t="n">
-        <v>68.3</v>
+        <v>54.5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.4</v>
+        <v>2.07</v>
       </c>
       <c r="L48" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Barnsley U21</t>
+          <t>Čelik</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fleetwood Town U21</t>
+          <t>FK Sarajevo</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.11</v>
+        <v>4.75</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,42 +2685,42 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>64.09999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="H49" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>23.1</v>
+        <v>66.7</v>
       </c>
       <c r="J49" t="n">
-        <v>43.6</v>
+        <v>33.3</v>
       </c>
       <c r="K49" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="L49" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Teuta Durrës</t>
+          <t>AEA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Egnatia Rrogozhinë</t>
+          <t>EC Lemense</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.54</v>
+        <v>2.25</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>53.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>23.1</v>
+        <v>7.1</v>
       </c>
       <c r="I50" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="J50" t="n">
-        <v>46.2</v>
+        <v>42.9</v>
       </c>
       <c r="K50" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="L50" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Rio Ave U23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Estrela U23</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>60.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>27.5</v>
+        <v>7.1</v>
       </c>
       <c r="I51" t="n">
-        <v>11.6</v>
+        <v>25</v>
       </c>
       <c r="J51" t="n">
-        <v>47.8</v>
+        <v>42.9</v>
       </c>
       <c r="K51" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="L51" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Royston Town</t>
+          <t>ADESG</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bury Town</t>
+          <t>Rio Branco</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2.53</v>
+        <v>4.25</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>53.6</v>
+        <v>33.3</v>
       </c>
       <c r="H52" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>17.9</v>
+        <v>66.7</v>
       </c>
       <c r="J52" t="n">
-        <v>46.4</v>
+        <v>66.7</v>
       </c>
       <c r="K52" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="L52" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Atlético Choloma</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.59</v>
+        <v>4.25</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>53.8</v>
+        <v>33.3</v>
       </c>
       <c r="H53" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>23.1</v>
+        <v>66.7</v>
       </c>
       <c r="J53" t="n">
-        <v>46.2</v>
+        <v>66.7</v>
       </c>
       <c r="K53" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="L53" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Al Anwar</t>
+          <t>FC Lugano</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Servette FC</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,42 +2915,42 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>60.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>27.5</v>
+        <v>12.8</v>
       </c>
       <c r="I54" t="n">
-        <v>11.6</v>
+        <v>23.1</v>
       </c>
       <c r="J54" t="n">
-        <v>47.8</v>
+        <v>43.6</v>
       </c>
       <c r="K54" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="L54" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Flint Mountain</t>
+          <t>Água Santa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Buckley Town</t>
+          <t>Ferroviária</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,22 +2961,22 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="H55" t="n">
-        <v>23.1</v>
+        <v>28.6</v>
       </c>
       <c r="I55" t="n">
-        <v>23.1</v>
+        <v>17.9</v>
       </c>
       <c r="J55" t="n">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
       <c r="K55" t="n">
         <v>1.37</v>
       </c>
       <c r="L55" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -2987,16 +2987,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3.04</v>
+        <v>2.54</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>44.4</v>
+        <v>53.8</v>
       </c>
       <c r="H56" t="n">
-        <v>11.1</v>
+        <v>23.1</v>
       </c>
       <c r="I56" t="n">
-        <v>44.4</v>
+        <v>23.1</v>
       </c>
       <c r="J56" t="n">
-        <v>55.6</v>
+        <v>46.2</v>
       </c>
       <c r="K56" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="L56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -3033,16 +3033,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hertha BSC</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SC Freiburg</t>
+          <t>ST Mirren</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.38</v>
+        <v>2.78</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>46.4</v>
       </c>
       <c r="H57" t="n">
-        <v>20</v>
+        <v>35.7</v>
       </c>
       <c r="I57" t="n">
-        <v>40</v>
+        <v>17.9</v>
       </c>
       <c r="J57" t="n">
-        <v>40</v>
+        <v>39.3</v>
       </c>
       <c r="K57" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="L57" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Santa Clara U23</t>
+          <t>EC São Bernardo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Famalicão U23</t>
+          <t>Catanduva</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="H58" t="n">
-        <v>35.7</v>
+        <v>34.5</v>
       </c>
       <c r="I58" t="n">
-        <v>21.4</v>
+        <v>15.5</v>
       </c>
       <c r="J58" t="n">
-        <v>57.1</v>
+        <v>38.1</v>
       </c>
       <c r="K58" t="n">
         <v>1.27</v>
       </c>
       <c r="L58" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Puntarenas FC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Machida Zelvia</t>
+          <t>CS Herediano</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>42.9</v>
+        <v>42.1</v>
       </c>
       <c r="H59" t="n">
-        <v>35.7</v>
+        <v>26.3</v>
       </c>
       <c r="I59" t="n">
-        <v>21.4</v>
+        <v>31.6</v>
       </c>
       <c r="J59" t="n">
-        <v>57.1</v>
+        <v>52.6</v>
       </c>
       <c r="K59" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="L59" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Uniao Barbarense</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Norwich</t>
+          <t>Francana</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2.92</v>
+        <v>2.25</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>42.1</v>
+        <v>54</v>
       </c>
       <c r="H60" t="n">
-        <v>26.3</v>
+        <v>24</v>
       </c>
       <c r="I60" t="n">
-        <v>31.6</v>
+        <v>22</v>
       </c>
       <c r="J60" t="n">
-        <v>52.6</v>
+        <v>36</v>
       </c>
       <c r="K60" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="L60" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Whitehawk</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cheshunt</t>
+          <t>Persib Bandung</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,38 +3237,38 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>52.9</v>
+        <v>54</v>
       </c>
       <c r="H61" t="n">
-        <v>17.6</v>
+        <v>24</v>
       </c>
       <c r="I61" t="n">
-        <v>29.4</v>
+        <v>22</v>
       </c>
       <c r="J61" t="n">
+        <v>36</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L61" t="n">
         <v>50</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L61" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sorrento</t>
+          <t>Anapolina</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Giugliano</t>
+          <t>Jataiense</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -3304,21 +3304,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sitra</t>
+          <t>Police Tero</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Rasi Salai United</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3.16</v>
+        <v>2.22</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>37.5</v>
+        <v>52.9</v>
       </c>
       <c r="H63" t="n">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="I63" t="n">
-        <v>43.8</v>
+        <v>29.4</v>
       </c>
       <c r="J63" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="L63" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Sparta Praha W</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CSKA 1948</t>
+          <t>Austria Wien W</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.76</v>
+        <v>2.21</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>66.7</v>
+        <v>52.9</v>
       </c>
       <c r="H64" t="n">
-        <v>27.8</v>
+        <v>17.6</v>
       </c>
       <c r="I64" t="n">
-        <v>5.6</v>
+        <v>29.4</v>
       </c>
       <c r="J64" t="n">
-        <v>44.4</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="L64" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Buxton</t>
+          <t>Santos Laguna W</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Peterborough Sports</t>
+          <t>Tijuana W</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.72</v>
+        <v>3.56</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>66.7</v>
+        <v>33.3</v>
       </c>
       <c r="H65" t="n">
-        <v>27.8</v>
+        <v>13.3</v>
       </c>
       <c r="I65" t="n">
-        <v>5.6</v>
+        <v>53.3</v>
       </c>
       <c r="J65" t="n">
-        <v>44.4</v>
+        <v>46.7</v>
       </c>
       <c r="K65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="L65" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Leixões U23</t>
+          <t>Moto Club</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sporting CP U23</t>
+          <t>IAPE</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2.56</v>
+        <v>1.71</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>45.2</v>
+        <v>66.7</v>
       </c>
       <c r="H66" t="n">
-        <v>32.3</v>
+        <v>7.7</v>
       </c>
       <c r="I66" t="n">
-        <v>22.6</v>
+        <v>25.6</v>
       </c>
       <c r="J66" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K66" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="L66" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Slough Town</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Weston-super-Mare</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>40.7</v>
+        <v>50</v>
       </c>
       <c r="H67" t="n">
-        <v>23.7</v>
+        <v>31.2</v>
       </c>
       <c r="I67" t="n">
-        <v>35.6</v>
+        <v>18.8</v>
       </c>
       <c r="J67" t="n">
-        <v>64.40000000000001</v>
+        <v>46.9</v>
       </c>
       <c r="K67" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="L67" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>57.1</v>
+        <v>66.7</v>
       </c>
       <c r="H68" t="n">
-        <v>15.5</v>
+        <v>7.7</v>
       </c>
       <c r="I68" t="n">
-        <v>27.4</v>
+        <v>25.6</v>
       </c>
       <c r="J68" t="n">
-        <v>57.1</v>
+        <v>59</v>
       </c>
       <c r="K68" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="L68" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>King's Lynn Town</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Worksop Town</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.88</v>
+        <v>2.31</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H69" t="n">
-        <v>18.5</v>
+        <v>31.2</v>
       </c>
       <c r="I69" t="n">
-        <v>21.5</v>
+        <v>18.8</v>
       </c>
       <c r="J69" t="n">
-        <v>61.5</v>
+        <v>46.9</v>
       </c>
       <c r="K69" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="L69" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bracknell Town</t>
+          <t>Tuna Luso</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Berkhamsted</t>
+          <t>Sao Francisco</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>57.1</v>
+        <v>62.8</v>
       </c>
       <c r="H70" t="n">
-        <v>15.5</v>
+        <v>27.9</v>
       </c>
       <c r="I70" t="n">
-        <v>27.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>57.1</v>
+        <v>58.1</v>
       </c>
       <c r="K70" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="L70" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Heart Of Midlothian</t>
+          <t>Pompiers</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Gendrim</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>60</v>
+        <v>62.8</v>
       </c>
       <c r="H71" t="n">
-        <v>18.5</v>
+        <v>27.9</v>
       </c>
       <c r="I71" t="n">
-        <v>21.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>61.5</v>
+        <v>58.1</v>
       </c>
       <c r="K71" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="L71" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata Res.</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Instituto Res.</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.17</v>
+        <v>2.54</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>50.6</v>
+        <v>45.2</v>
       </c>
       <c r="H72" t="n">
-        <v>19.8</v>
+        <v>32.3</v>
       </c>
       <c r="I72" t="n">
-        <v>29.6</v>
+        <v>22.6</v>
       </c>
       <c r="J72" t="n">
-        <v>50.6</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="L72" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>GO Ahead Eagles</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Futbol Consultants Moravia</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2.18</v>
+        <v>2.51</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>50.6</v>
+        <v>45.2</v>
       </c>
       <c r="H73" t="n">
-        <v>19.8</v>
+        <v>32.3</v>
       </c>
       <c r="I73" t="n">
-        <v>29.6</v>
+        <v>22.6</v>
       </c>
       <c r="J73" t="n">
-        <v>50.6</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="L73" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21</t>
+          <t>Tirana</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Coventry City U21</t>
+          <t>Dinamo Tirana</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,22 +3835,22 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>50.6</v>
+        <v>40.7</v>
       </c>
       <c r="H74" t="n">
-        <v>19.8</v>
+        <v>23.7</v>
       </c>
       <c r="I74" t="n">
-        <v>29.6</v>
+        <v>35.6</v>
       </c>
       <c r="J74" t="n">
-        <v>50.6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="L74" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
@@ -3861,16 +3861,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Stockton Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Prescot Cables</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>60.3</v>
+        <v>60</v>
       </c>
       <c r="H75" t="n">
-        <v>17.9</v>
+        <v>18.5</v>
       </c>
       <c r="I75" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="J75" t="n">
-        <v>48.7</v>
+        <v>61.5</v>
       </c>
       <c r="K75" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="L75" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Atalanta II</t>
+          <t>Huddersfield Town U21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Hull City U21</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>60.3</v>
+        <v>50.6</v>
       </c>
       <c r="H76" t="n">
-        <v>17.9</v>
+        <v>19.8</v>
       </c>
       <c r="I76" t="n">
-        <v>21.8</v>
+        <v>29.6</v>
       </c>
       <c r="J76" t="n">
-        <v>48.7</v>
+        <v>50.6</v>
       </c>
       <c r="K76" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="L76" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Sepahan FC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Al Ahli Doha</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>48.9</v>
+        <v>50.6</v>
       </c>
       <c r="H77" t="n">
-        <v>23.4</v>
+        <v>19.8</v>
       </c>
       <c r="I77" t="n">
-        <v>27.7</v>
+        <v>29.6</v>
       </c>
       <c r="J77" t="n">
-        <v>57.4</v>
+        <v>50.6</v>
       </c>
       <c r="K77" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="L77" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Manaus FC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Princesa Solimões</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.45</v>
+        <v>2.19</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>42.6</v>
+        <v>48.9</v>
       </c>
       <c r="H78" t="n">
-        <v>14.9</v>
+        <v>23.4</v>
       </c>
       <c r="I78" t="n">
-        <v>42.6</v>
+        <v>27.7</v>
       </c>
       <c r="J78" t="n">
-        <v>31.9</v>
+        <v>57.4</v>
       </c>
       <c r="K78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="L78" t="n">
         <v>47</v>
@@ -4040,21 +4040,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Horsham</t>
+          <t>Portuguesa Santista</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dagenham &amp; Redbridge</t>
+          <t>Rio Claro</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.47</v>
+        <v>1.73</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>42.6</v>
+        <v>58.8</v>
       </c>
       <c r="H79" t="n">
-        <v>14.9</v>
+        <v>20</v>
       </c>
       <c r="I79" t="n">
-        <v>42.6</v>
+        <v>21.2</v>
       </c>
       <c r="J79" t="n">
-        <v>31.9</v>
+        <v>47.5</v>
       </c>
       <c r="K79" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L79" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GOŠK Gabela</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3.46</v>
+        <v>1.74</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>30</v>
+        <v>58.8</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I80" t="n">
-        <v>65</v>
+        <v>21.2</v>
       </c>
       <c r="J80" t="n">
-        <v>70</v>
+        <v>47.5</v>
       </c>
       <c r="K80" t="n">
         <v>1.03</v>
       </c>
       <c r="L80" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Estudiantes de Rio Cuarto</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Independ. Rivadavia</t>
+          <t>FC Winterthur</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3.5</v>
+        <v>1.71</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,42 +4157,42 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>28.6</v>
+        <v>58.8</v>
       </c>
       <c r="H81" t="n">
-        <v>14.3</v>
+        <v>20</v>
       </c>
       <c r="I81" t="n">
-        <v>57.1</v>
+        <v>21.2</v>
       </c>
       <c r="J81" t="n">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="K81" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="L81" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chester</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Alfreton Town</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4203,42 +4203,42 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>58.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>25</v>
+        <v>18.9</v>
       </c>
       <c r="I82" t="n">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="J82" t="n">
-        <v>43.8</v>
+        <v>37.8</v>
       </c>
       <c r="K82" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L82" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Bari</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4249,42 +4249,42 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>33.3</v>
+        <v>29.3</v>
       </c>
       <c r="H83" t="n">
-        <v>26.7</v>
+        <v>7.3</v>
       </c>
       <c r="I83" t="n">
-        <v>40</v>
+        <v>63.4</v>
       </c>
       <c r="J83" t="n">
-        <v>46.7</v>
+        <v>68.3</v>
       </c>
       <c r="K83" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L83" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rosario Central Res.</t>
+          <t>Venados FC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tigre Res.</t>
+          <t>Cancún</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4295,42 +4295,42 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>64.90000000000001</v>
+        <v>49.3</v>
       </c>
       <c r="H84" t="n">
-        <v>18.9</v>
+        <v>16.4</v>
       </c>
       <c r="I84" t="n">
-        <v>16.2</v>
+        <v>34.3</v>
       </c>
       <c r="J84" t="n">
-        <v>37.8</v>
+        <v>49.3</v>
       </c>
       <c r="K84" t="n">
         <v>1.01</v>
       </c>
       <c r="L84" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hednesford Town</t>
+          <t>Tuntum</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Hebburn Town</t>
+          <t>Imperatriz</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4341,42 +4341,42 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>54.5</v>
+        <v>37.5</v>
       </c>
       <c r="H85" t="n">
-        <v>24.2</v>
+        <v>33.3</v>
       </c>
       <c r="I85" t="n">
-        <v>21.2</v>
+        <v>29.2</v>
       </c>
       <c r="J85" t="n">
-        <v>51.5</v>
+        <v>54.2</v>
       </c>
       <c r="K85" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="L85" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Zenit</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CSKA Moscow</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.88</v>
+        <v>2.65</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4387,42 +4387,42 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>54.5</v>
+        <v>37.5</v>
       </c>
       <c r="H86" t="n">
-        <v>24.2</v>
+        <v>33.3</v>
       </c>
       <c r="I86" t="n">
-        <v>21.2</v>
+        <v>29.2</v>
       </c>
       <c r="J86" t="n">
-        <v>51.5</v>
+        <v>54.2</v>
       </c>
       <c r="K86" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="L86" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4433,42 +4433,42 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="H87" t="n">
-        <v>33.3</v>
+        <v>21.1</v>
       </c>
       <c r="I87" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="J87" t="n">
-        <v>54.2</v>
+        <v>28.9</v>
       </c>
       <c r="K87" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L87" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>São Caetano</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Nacional SP</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4479,42 +4479,42 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="H88" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="I88" t="n">
-        <v>25.6</v>
+        <v>28.9</v>
       </c>
       <c r="J88" t="n">
-        <v>46.5</v>
+        <v>28.9</v>
       </c>
       <c r="K88" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L88" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>AL Masry</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Elgin City</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4525,42 +4525,42 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>53.5</v>
+        <v>47.8</v>
       </c>
       <c r="H89" t="n">
-        <v>20.9</v>
+        <v>19.6</v>
       </c>
       <c r="I89" t="n">
-        <v>25.6</v>
+        <v>32.6</v>
       </c>
       <c r="J89" t="n">
-        <v>46.5</v>
+        <v>54.3</v>
       </c>
       <c r="K89" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L89" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Grimsby</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Accrington ST</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4571,42 +4571,42 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>50</v>
+        <v>52.9</v>
       </c>
       <c r="H90" t="n">
-        <v>21.1</v>
+        <v>26.5</v>
       </c>
       <c r="I90" t="n">
-        <v>28.9</v>
+        <v>20.6</v>
       </c>
       <c r="J90" t="n">
-        <v>28.9</v>
+        <v>52.9</v>
       </c>
       <c r="K90" t="n">
         <v>0.98</v>
       </c>
       <c r="L90" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AFC Hornchurch</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chelmsford City</t>
+          <t>Kecskeméti TE</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4638,21 +4638,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Annan Athletic</t>
+          <t>Hellas Verona U20</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Atalanta U20</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4663,42 +4663,42 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>50</v>
+        <v>52.9</v>
       </c>
       <c r="H92" t="n">
-        <v>21.1</v>
+        <v>26.5</v>
       </c>
       <c r="I92" t="n">
-        <v>28.9</v>
+        <v>20.6</v>
       </c>
       <c r="J92" t="n">
-        <v>28.9</v>
+        <v>52.9</v>
       </c>
       <c r="K92" t="n">
         <v>0.98</v>
       </c>
       <c r="L92" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sheffield United U21</t>
+          <t>Grêmio Prudente</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Peterborough United U21</t>
+          <t>Monte Azul</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.55</v>
+        <v>1.96</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4709,19 +4709,19 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>60.5</v>
+        <v>48.8</v>
       </c>
       <c r="H93" t="n">
-        <v>20.9</v>
+        <v>25.6</v>
       </c>
       <c r="I93" t="n">
-        <v>18.6</v>
+        <v>25.6</v>
       </c>
       <c r="J93" t="n">
-        <v>41.9</v>
+        <v>53.5</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L93" t="n">
         <v>43</v>
@@ -4730,21 +4730,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Gangwon FC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>SHANGHAI SIPG</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4755,42 +4755,42 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>56.2</v>
+        <v>60.5</v>
       </c>
       <c r="H94" t="n">
-        <v>34.4</v>
+        <v>20.9</v>
       </c>
       <c r="I94" t="n">
-        <v>9.4</v>
+        <v>18.6</v>
       </c>
       <c r="J94" t="n">
-        <v>50</v>
+        <v>34.9</v>
       </c>
       <c r="K94" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L94" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECUS</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Grêmio Sãocarlense</t>
+          <t>Rionegro Aguilas</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2.69</v>
+        <v>1.65</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4801,42 +4801,42 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>34.8</v>
+        <v>56.2</v>
       </c>
       <c r="H95" t="n">
-        <v>26.1</v>
+        <v>34.4</v>
       </c>
       <c r="I95" t="n">
-        <v>39.1</v>
+        <v>9.4</v>
       </c>
       <c r="J95" t="n">
-        <v>52.2</v>
+        <v>50</v>
       </c>
       <c r="K95" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="L95" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Larne</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Glentoran</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4868,21 +4868,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chanthaburi</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mahasarakham United</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4893,42 +4893,42 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>42.6</v>
+        <v>52.1</v>
       </c>
       <c r="H97" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="I97" t="n">
-        <v>23.4</v>
+        <v>13.7</v>
       </c>
       <c r="J97" t="n">
-        <v>44.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="L97" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chorley</t>
+          <t>Cascavel</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Southport</t>
+          <t>Andraus Brasil</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4939,42 +4939,42 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>51.9</v>
+        <v>57.9</v>
       </c>
       <c r="H98" t="n">
-        <v>26.6</v>
+        <v>36.8</v>
       </c>
       <c r="I98" t="n">
-        <v>21.5</v>
+        <v>5.3</v>
       </c>
       <c r="J98" t="n">
-        <v>48.1</v>
+        <v>52.6</v>
       </c>
       <c r="K98" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L98" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers</t>
+          <t>AF Elbasani</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Merthyr Town</t>
+          <t>Partizani</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.48</v>
+        <v>1.94</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4985,42 +4985,42 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>62.5</v>
+        <v>45.5</v>
       </c>
       <c r="H99" t="n">
-        <v>25</v>
+        <v>34.8</v>
       </c>
       <c r="I99" t="n">
-        <v>12.5</v>
+        <v>19.7</v>
       </c>
       <c r="J99" t="n">
-        <v>40.6</v>
+        <v>42.4</v>
       </c>
       <c r="K99" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="L99" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dorking Wanderers</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dover</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5031,42 +5031,42 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>62.5</v>
+        <v>43.4</v>
       </c>
       <c r="H100" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="I100" t="n">
-        <v>12.5</v>
+        <v>32.5</v>
       </c>
       <c r="J100" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="K100" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="L100" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Sassuolo U20</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Fiorentina U20</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5077,42 +5077,42 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>62.5</v>
+        <v>43.6</v>
       </c>
       <c r="H101" t="n">
-        <v>25</v>
+        <v>18.2</v>
       </c>
       <c r="I101" t="n">
-        <v>12.5</v>
+        <v>38.2</v>
       </c>
       <c r="J101" t="n">
-        <v>40.6</v>
+        <v>32.7</v>
       </c>
       <c r="K101" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="L101" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Sporting CP W</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FC Seoul</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5123,42 +5123,42 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>51.9</v>
+        <v>45.5</v>
       </c>
       <c r="H102" t="n">
-        <v>26.6</v>
+        <v>34.8</v>
       </c>
       <c r="I102" t="n">
-        <v>21.5</v>
+        <v>19.7</v>
       </c>
       <c r="J102" t="n">
-        <v>48.1</v>
+        <v>42.4</v>
       </c>
       <c r="K102" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="L102" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Barretos</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Vocem</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5169,42 +5169,42 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>43.6</v>
+        <v>44.2</v>
       </c>
       <c r="H103" t="n">
-        <v>18.2</v>
+        <v>18.6</v>
       </c>
       <c r="I103" t="n">
-        <v>38.2</v>
+        <v>37.2</v>
       </c>
       <c r="J103" t="n">
-        <v>32.7</v>
+        <v>25.6</v>
       </c>
       <c r="K103" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L103" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Vasco da Gama AC</t>
+          <t>Ulsan Hyundai FC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Independência</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5215,42 +5215,42 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>42.9</v>
+        <v>44.2</v>
       </c>
       <c r="H104" t="n">
-        <v>28.6</v>
+        <v>18.6</v>
       </c>
       <c r="I104" t="n">
-        <v>28.6</v>
+        <v>37.2</v>
       </c>
       <c r="J104" t="n">
-        <v>35.7</v>
+        <v>25.6</v>
       </c>
       <c r="K104" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L104" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Velež</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Doncaster</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5261,42 +5261,42 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>50</v>
+        <v>45.2</v>
       </c>
       <c r="H105" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="I105" t="n">
-        <v>14.3</v>
+        <v>19.4</v>
       </c>
       <c r="J105" t="n">
-        <v>65.7</v>
+        <v>53.2</v>
       </c>
       <c r="K105" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="L105" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town</t>
+          <t>Inter U23</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Hampton &amp; Richmond</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5307,42 +5307,42 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>50</v>
+        <v>45.2</v>
       </c>
       <c r="H106" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="I106" t="n">
-        <v>14.3</v>
+        <v>19.4</v>
       </c>
       <c r="J106" t="n">
-        <v>65.7</v>
+        <v>53.2</v>
       </c>
       <c r="K106" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="L106" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pumas UNAM W</t>
+          <t>Votuporanguense</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Guadalajara W</t>
+          <t>Taubaté</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2.64</v>
+        <v>1.82</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5353,42 +5353,42 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>32.6</v>
+        <v>45.1</v>
       </c>
       <c r="H107" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="I107" t="n">
-        <v>30.2</v>
+        <v>17.6</v>
       </c>
       <c r="J107" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="K107" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="L107" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>01:06</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Querétaro W</t>
+          <t>Gama</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mazatlán W</t>
+          <t>Ceilândia</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5399,42 +5399,42 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>52.4</v>
+        <v>50</v>
       </c>
       <c r="H108" t="n">
-        <v>33.3</v>
+        <v>31.6</v>
       </c>
       <c r="I108" t="n">
-        <v>14.3</v>
+        <v>18.4</v>
       </c>
       <c r="J108" t="n">
-        <v>57.1</v>
+        <v>47.4</v>
       </c>
       <c r="K108" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L108" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ballymena United</t>
+          <t>Zalaegerszegi TE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Crusaders FC</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5445,42 +5445,42 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>44.2</v>
+        <v>36.4</v>
       </c>
       <c r="H109" t="n">
-        <v>18.6</v>
+        <v>22.7</v>
       </c>
       <c r="I109" t="n">
-        <v>37.2</v>
+        <v>40.9</v>
       </c>
       <c r="J109" t="n">
-        <v>25.6</v>
+        <v>36.4</v>
       </c>
       <c r="K109" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L109" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cliftonville FC</t>
+          <t>Slatina</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Metaloglobus</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.55</v>
+        <v>2.84</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5491,42 +5491,42 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>55.6</v>
+        <v>28.6</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I110" t="n">
-        <v>44.4</v>
+        <v>42.9</v>
       </c>
       <c r="J110" t="n">
-        <v>66.7</v>
+        <v>14.3</v>
       </c>
       <c r="K110" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L110" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Chengdu Better City</t>
+          <t>Universitatea Cluj</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Buriram United</t>
+          <t>Oţelul</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5537,42 +5537,42 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>44.2</v>
+        <v>36.4</v>
       </c>
       <c r="H111" t="n">
-        <v>18.6</v>
+        <v>22.7</v>
       </c>
       <c r="I111" t="n">
-        <v>37.2</v>
+        <v>40.9</v>
       </c>
       <c r="J111" t="n">
-        <v>25.6</v>
+        <v>36.4</v>
       </c>
       <c r="K111" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L111" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Unión Santa Fe Res.</t>
+          <t>Folgore</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Aldosivi Res.</t>
+          <t>Domagnano</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5583,42 +5583,42 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>51.4</v>
+        <v>50</v>
       </c>
       <c r="H112" t="n">
-        <v>29.7</v>
+        <v>31.6</v>
       </c>
       <c r="I112" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
       </c>
       <c r="J112" t="n">
-        <v>45.9</v>
+        <v>47.4</v>
       </c>
       <c r="K112" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="L112" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FC Luzern</t>
+          <t>Aldershot Town</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1.88</v>
+        <v>3.28</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5629,42 +5629,42 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H113" t="n">
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="I113" t="n">
-        <v>18</v>
+        <v>37.5</v>
       </c>
       <c r="J113" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="K113" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L113" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tonbridge Angels</t>
+          <t>Alcione</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Maidenhead</t>
+          <t>Ospitaletto</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3.72</v>
+        <v>2.24</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5675,42 +5675,42 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>22.2</v>
+        <v>36</v>
       </c>
       <c r="H114" t="n">
-        <v>33.3</v>
+        <v>24</v>
       </c>
       <c r="I114" t="n">
-        <v>44.4</v>
+        <v>40</v>
       </c>
       <c r="J114" t="n">
-        <v>22.2</v>
+        <v>52</v>
       </c>
       <c r="K114" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L114" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Yangon United</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Thitsar Arman</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5721,42 +5721,42 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>69.7</v>
+        <v>64.3</v>
       </c>
       <c r="H115" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="I115" t="n">
-        <v>12.1</v>
+        <v>17.9</v>
       </c>
       <c r="J115" t="n">
-        <v>69.7</v>
+        <v>64.3</v>
       </c>
       <c r="K115" t="n">
         <v>0.8</v>
       </c>
       <c r="L115" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Birmingham</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>West Brom</t>
+          <t>Ruh Lviv</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1.86</v>
+        <v>2.62</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5767,42 +5767,42 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>42.4</v>
+        <v>30</v>
       </c>
       <c r="H116" t="n">
-        <v>37.3</v>
+        <v>35</v>
       </c>
       <c r="I116" t="n">
-        <v>20.3</v>
+        <v>35</v>
       </c>
       <c r="J116" t="n">
-        <v>50.8</v>
+        <v>40</v>
       </c>
       <c r="K116" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="L116" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Santo André</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1.8</v>
+        <v>2.33</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5813,42 +5813,42 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>42.4</v>
+        <v>32.7</v>
       </c>
       <c r="H117" t="n">
-        <v>37.3</v>
+        <v>22.4</v>
       </c>
       <c r="I117" t="n">
-        <v>20.3</v>
+        <v>44.9</v>
       </c>
       <c r="J117" t="n">
-        <v>50.8</v>
+        <v>49</v>
       </c>
       <c r="K117" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="L117" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Inter de Bebedouro</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Toluca W</t>
+          <t>Colorado Caieiras</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5859,42 +5859,42 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>42.4</v>
+        <v>49</v>
       </c>
       <c r="H118" t="n">
-        <v>37.3</v>
+        <v>25.5</v>
       </c>
       <c r="I118" t="n">
-        <v>20.3</v>
+        <v>25.5</v>
       </c>
       <c r="J118" t="n">
-        <v>50.8</v>
+        <v>54.9</v>
       </c>
       <c r="K118" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="L118" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Nottingham Forest U21</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Sunderland U21</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2.32</v>
+        <v>1.52</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5905,22 +5905,22 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>32.7</v>
+        <v>49</v>
       </c>
       <c r="H119" t="n">
-        <v>22.4</v>
+        <v>25.5</v>
       </c>
       <c r="I119" t="n">
-        <v>44.9</v>
+        <v>25.5</v>
       </c>
       <c r="J119" t="n">
-        <v>49</v>
+        <v>54.9</v>
       </c>
       <c r="K119" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="L119" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120">
@@ -5931,16 +5931,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AFC Telford United</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Hereford</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5951,42 +5951,42 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>44.1</v>
+        <v>31</v>
       </c>
       <c r="H120" t="n">
-        <v>8.800000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I120" t="n">
-        <v>47.1</v>
+        <v>33.3</v>
       </c>
       <c r="J120" t="n">
-        <v>41.2</v>
+        <v>38.1</v>
       </c>
       <c r="K120" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="L120" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AFC Totton</t>
+          <t>Al Ahed</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bath City</t>
+          <t>Al Hikma</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2.33</v>
+        <v>1.32</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5997,42 +5997,42 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>32.7</v>
+        <v>53.6</v>
       </c>
       <c r="H121" t="n">
-        <v>22.4</v>
+        <v>32.1</v>
       </c>
       <c r="I121" t="n">
-        <v>44.9</v>
+        <v>14.3</v>
       </c>
       <c r="J121" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K121" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="L121" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>02:05</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FC Racing</t>
+          <t>Paulista</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Gorilas de Juanacatlan</t>
+          <t>Desportivo Brasil</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6043,42 +6043,42 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>44.1</v>
+        <v>42.4</v>
       </c>
       <c r="H122" t="n">
-        <v>8.800000000000001</v>
+        <v>39.4</v>
       </c>
       <c r="I122" t="n">
-        <v>47.1</v>
+        <v>18.2</v>
       </c>
       <c r="J122" t="n">
-        <v>41.2</v>
+        <v>66.7</v>
       </c>
       <c r="K122" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="L122" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Curzon Ashton</t>
+          <t>Municipal Liberia</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Marine</t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2.46</v>
+        <v>3.24</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6089,42 +6089,42 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>31</v>
+        <v>21.4</v>
       </c>
       <c r="H123" t="n">
-        <v>35.7</v>
+        <v>28.6</v>
       </c>
       <c r="I123" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="J123" t="n">
-        <v>38.1</v>
+        <v>21.4</v>
       </c>
       <c r="K123" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="L123" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Qabala</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6135,42 +6135,42 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>43.9</v>
+        <v>21.4</v>
       </c>
       <c r="H124" t="n">
-        <v>22</v>
+        <v>28.6</v>
       </c>
       <c r="I124" t="n">
-        <v>34.1</v>
+        <v>50</v>
       </c>
       <c r="J124" t="n">
-        <v>36.6</v>
+        <v>21.4</v>
       </c>
       <c r="K124" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L124" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ebbsfleet United</t>
+          <t>Union St. Gilloise</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Enfield Town</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6181,42 +6181,42 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>53.6</v>
+        <v>41.9</v>
       </c>
       <c r="H125" t="n">
-        <v>32.1</v>
+        <v>20.9</v>
       </c>
       <c r="I125" t="n">
-        <v>14.3</v>
+        <v>37.2</v>
       </c>
       <c r="J125" t="n">
-        <v>50</v>
+        <v>39.5</v>
       </c>
       <c r="K125" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L125" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2.64</v>
+        <v>1.63</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6227,22 +6227,22 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>26.7</v>
+        <v>41.9</v>
       </c>
       <c r="H126" t="n">
-        <v>30</v>
+        <v>20.9</v>
       </c>
       <c r="I126" t="n">
-        <v>43.3</v>
+        <v>37.2</v>
       </c>
       <c r="J126" t="n">
-        <v>53.3</v>
+        <v>39.5</v>
       </c>
       <c r="K126" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L126" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -6253,16 +6253,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tamworth</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2.21</v>
+        <v>1.64</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6273,42 +6273,42 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>31.7</v>
+        <v>41.9</v>
       </c>
       <c r="H127" t="n">
-        <v>31.7</v>
+        <v>20.9</v>
       </c>
       <c r="I127" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="J127" t="n">
-        <v>41.7</v>
+        <v>39.5</v>
       </c>
       <c r="K127" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L127" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Montrose</t>
+          <t>West Bromwich Albion U21</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Peterhead</t>
+          <t>Queens Park Rangers U21</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6319,42 +6319,42 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>31.7</v>
+        <v>35.3</v>
       </c>
       <c r="H128" t="n">
-        <v>31.7</v>
+        <v>15.7</v>
       </c>
       <c r="I128" t="n">
-        <v>36.7</v>
+        <v>49</v>
       </c>
       <c r="J128" t="n">
-        <v>41.7</v>
+        <v>52.9</v>
       </c>
       <c r="K128" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L128" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Polokwane City</t>
+          <t>Ferencvarosi TC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Amazulu</t>
+          <t>Csakvar</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2.27</v>
+        <v>1.14</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6365,42 +6365,42 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>31.7</v>
+        <v>60</v>
       </c>
       <c r="H129" t="n">
-        <v>31.7</v>
+        <v>30</v>
       </c>
       <c r="I129" t="n">
-        <v>36.7</v>
+        <v>10</v>
       </c>
       <c r="J129" t="n">
-        <v>41.7</v>
+        <v>30</v>
       </c>
       <c r="K129" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L129" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Songkhla</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Esan Pattaya</t>
+          <t>Diosgyori VTK</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6411,42 +6411,42 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>31.7</v>
+        <v>41.9</v>
       </c>
       <c r="H130" t="n">
-        <v>31.7</v>
+        <v>20.9</v>
       </c>
       <c r="I130" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="J130" t="n">
-        <v>41.7</v>
+        <v>39.5</v>
       </c>
       <c r="K130" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L130" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>23:20</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Deportivo Tachira FC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6457,22 +6457,22 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>35.3</v>
+        <v>41.9</v>
       </c>
       <c r="H131" t="n">
-        <v>15.7</v>
+        <v>20.9</v>
       </c>
       <c r="I131" t="n">
-        <v>49</v>
+        <v>37.2</v>
       </c>
       <c r="J131" t="n">
-        <v>52.9</v>
+        <v>39.5</v>
       </c>
       <c r="K131" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="L131" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132">
@@ -6483,16 +6483,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lancaster City</t>
+          <t>York</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Rushall Olympic</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1.98</v>
+        <v>1.22</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6503,42 +6503,42 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>34.2</v>
+        <v>54.8</v>
       </c>
       <c r="H132" t="n">
-        <v>36.8</v>
+        <v>29</v>
       </c>
       <c r="I132" t="n">
-        <v>28.9</v>
+        <v>16.1</v>
       </c>
       <c r="J132" t="n">
-        <v>44.7</v>
+        <v>51.6</v>
       </c>
       <c r="K132" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="L132" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Rio Branco SP</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>União São João</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2.41</v>
+        <v>2.04</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6549,42 +6549,42 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>27.3</v>
+        <v>32.3</v>
       </c>
       <c r="H133" t="n">
-        <v>34.1</v>
+        <v>14.5</v>
       </c>
       <c r="I133" t="n">
-        <v>38.6</v>
+        <v>53.2</v>
       </c>
       <c r="J133" t="n">
-        <v>61.4</v>
+        <v>30.6</v>
       </c>
       <c r="K133" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="L133" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>USAC</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>AZ Picerno</t>
+          <t>Itapirense</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6595,42 +6595,42 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>27.3</v>
+        <v>28.1</v>
       </c>
       <c r="H134" t="n">
-        <v>34.1</v>
+        <v>37.5</v>
       </c>
       <c r="I134" t="n">
-        <v>38.6</v>
+        <v>34.4</v>
       </c>
       <c r="J134" t="n">
-        <v>61.4</v>
+        <v>25</v>
       </c>
       <c r="K134" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="L134" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Zamalek SC</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Johor Darul Takzim FC</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6641,42 +6641,42 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>37.2</v>
+        <v>32.3</v>
       </c>
       <c r="H135" t="n">
-        <v>27.9</v>
+        <v>14.5</v>
       </c>
       <c r="I135" t="n">
-        <v>34.9</v>
+        <v>53.2</v>
       </c>
       <c r="J135" t="n">
-        <v>52.3</v>
+        <v>30.6</v>
       </c>
       <c r="K135" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="L135" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Bamber Bridge</t>
+          <t>Pattani</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Gainsborough Trinity</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2.47</v>
+        <v>2.01</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6687,42 +6687,42 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>23.4</v>
+        <v>32.3</v>
       </c>
       <c r="H136" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="I136" t="n">
-        <v>59.6</v>
+        <v>53.2</v>
       </c>
       <c r="J136" t="n">
-        <v>55.3</v>
+        <v>30.6</v>
       </c>
       <c r="K136" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="L136" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cavese</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SS Monopoli</t>
+          <t>Linense</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6733,42 +6733,42 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>22.2</v>
+        <v>27.5</v>
       </c>
       <c r="H137" t="n">
-        <v>33.3</v>
+        <v>22.5</v>
       </c>
       <c r="I137" t="n">
-        <v>44.4</v>
+        <v>50</v>
       </c>
       <c r="J137" t="n">
-        <v>38.9</v>
+        <v>47.5</v>
       </c>
       <c r="K137" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="L137" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tiverton Town</t>
+          <t>U.N.A.M.</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wimborne Town</t>
+          <t>Pumas - San Diego</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3.12</v>
+        <v>1.6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6779,42 +6779,42 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>14.3</v>
+        <v>39.3</v>
       </c>
       <c r="H138" t="n">
-        <v>21.4</v>
+        <v>27</v>
       </c>
       <c r="I138" t="n">
-        <v>64.3</v>
+        <v>33.7</v>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>52.8</v>
       </c>
       <c r="K138" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="L138" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Al Wehda Club</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Al-Faisaly FC</t>
+          <t>Alcoyano</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3.18</v>
+        <v>2.39</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6825,42 +6825,42 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>14.3</v>
+        <v>27.5</v>
       </c>
       <c r="H139" t="n">
-        <v>21.4</v>
+        <v>22.5</v>
       </c>
       <c r="I139" t="n">
-        <v>64.3</v>
+        <v>50</v>
       </c>
       <c r="J139" t="n">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="K139" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="L139" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Tanabi</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Penapolense</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2.99</v>
+        <v>2.43</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6871,42 +6871,42 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>13.8</v>
+        <v>26.1</v>
       </c>
       <c r="H140" t="n">
-        <v>27.6</v>
+        <v>32.6</v>
       </c>
       <c r="I140" t="n">
-        <v>58.6</v>
+        <v>41.3</v>
       </c>
       <c r="J140" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="K140" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="L140" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Sertãozinho</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Independiente Medellin</t>
+          <t>Sao Bento</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3.82</v>
+        <v>1.85</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6917,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142">
@@ -6943,16 +6943,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Trapani 1905</t>
+          <t>Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>5.5</v>
+        <v>2.59</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6963,42 +6963,42 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ayeyawady United</t>
+          <t>Deportivo Universitario</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Shan United</t>
+          <t>San Francisco FC</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>10.5</v>
+        <v>2.51</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7009,42 +7009,42 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Dumbrăviţa</t>
+          <t>Ajka</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Kazincbarcikai</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>12.75</v>
+        <v>3.18</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7055,42 +7055,42 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sănătatea Cluj</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Petrolul Ploiesti</t>
+          <t>Taquaritinga</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>6.75</v>
+        <v>2.34</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7101,42 +7101,42 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Murata</t>
+          <t>FC ST. Gallen</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Juvenes / Dogana</t>
+          <t>BSC Young Boys</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5.45</v>
+        <v>2.33</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7147,42 +7147,42 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ST Johnstone</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ayr Utd</t>
+          <t>Inter De Limeira</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1.4</v>
+        <v>2.01</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7193,21 +7193,711 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="L147" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Giana Erminio</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H148" t="n">
+        <v>25</v>
+      </c>
+      <c r="I148" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L148" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>20</v>
+      </c>
+      <c r="H149" t="n">
+        <v>20</v>
+      </c>
+      <c r="I149" t="n">
+        <v>60</v>
+      </c>
+      <c r="J149" t="n">
+        <v>40</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Khalidiya</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Paranoá</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Brasiliense</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Digenis Morphou</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Pafos</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Carl Zeiss Jena W</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Bayern Munich W</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>23</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Grotta</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>IA Akranes</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Atlético San Luis W</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Pachuca W</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sporting Lieşti</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pennarossa</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Tre Fiori</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Arkadag</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Al-Nassr</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Al Tadamon SC</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Al-Rayyan SC</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>OH Leuven W</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Arsenal W</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Paris FC W</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Real Madrid W</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -838,29 +838,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>33.3</v>
       </c>
       <c r="I9" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1026,25 +1026,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>76.3</v>
+        <v>72.5</v>
       </c>
       <c r="G13" t="n">
-        <v>76.3</v>
+        <v>72.5</v>
       </c>
       <c r="H13" t="n">
-        <v>18.4</v>
+        <v>22.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>71.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K13" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>76.3</v>
+        <v>72.5</v>
       </c>
       <c r="G14" t="n">
-        <v>76.3</v>
+        <v>72.5</v>
       </c>
       <c r="H14" t="n">
-        <v>18.4</v>
+        <v>22.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>71.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1326,67 +1326,67 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Galícia</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jequié</t>
+          <t>Al Salt</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>40</v>
+        <v>61.5</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>23.1</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>15.4</v>
       </c>
       <c r="J20" t="n">
-        <v>30</v>
+        <v>46.2</v>
       </c>
       <c r="K20" t="n">
-        <v>1.46</v>
+        <v>2.24</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Nacional de Patos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Al Salt</t>
+          <t>Sousa</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.68</v>
+        <v>3.24</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1397,42 +1397,42 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>61.5</v>
+        <v>63.6</v>
       </c>
       <c r="H21" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.4</v>
+        <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>46.2</v>
+        <v>54.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.24</v>
+        <v>2.07</v>
       </c>
       <c r="L21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nacional de Patos</t>
+          <t>Səbail</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sousa</t>
+          <t>Safa Baku</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1443,42 +1443,42 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.6</v>
+        <v>65.2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>36.4</v>
+        <v>26.1</v>
       </c>
       <c r="J22" t="n">
-        <v>54.5</v>
+        <v>65.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Səbail</t>
+          <t>El Seka El Hadid</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Safa Baku</t>
+          <t>Abu Qair Semad</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1489,42 +1489,42 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>65.2</v>
+        <v>55.6</v>
       </c>
       <c r="H23" t="n">
-        <v>8.699999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="I23" t="n">
-        <v>26.1</v>
+        <v>22.2</v>
       </c>
       <c r="J23" t="n">
-        <v>65.2</v>
+        <v>44.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="L23" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El Seka El Hadid</t>
+          <t>Galícia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Abu Qair Semad</t>
+          <t>Jequié</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1535,42 +1535,42 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>55.6</v>
+        <v>45.5</v>
       </c>
       <c r="H24" t="n">
-        <v>22.2</v>
+        <v>36.4</v>
       </c>
       <c r="I24" t="n">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
       <c r="J24" t="n">
-        <v>44.4</v>
+        <v>36.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Serra Talhada</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Vitória ES</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.9</v>
+        <v>2.33</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1581,42 +1581,42 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>33.3</v>
+        <v>64.7</v>
       </c>
       <c r="H25" t="n">
-        <v>22.2</v>
+        <v>11.8</v>
       </c>
       <c r="I25" t="n">
-        <v>44.4</v>
+        <v>23.5</v>
       </c>
       <c r="J25" t="n">
-        <v>66.7</v>
+        <v>38.2</v>
       </c>
       <c r="K25" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vasco DA Gama</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1627,42 +1627,42 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>67.90000000000001</v>
+        <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>7.1</v>
+        <v>30</v>
       </c>
       <c r="I26" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J26" t="n">
-        <v>42.9</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="L26" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Serra Talhada</t>
+          <t>Vasco DA Gama</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vitória ES</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1673,42 +1673,42 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>64.7</v>
+        <v>65.5</v>
       </c>
       <c r="H27" t="n">
-        <v>11.8</v>
+        <v>6.9</v>
       </c>
       <c r="I27" t="n">
-        <v>23.5</v>
+        <v>27.6</v>
       </c>
       <c r="J27" t="n">
-        <v>38.2</v>
+        <v>41.4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="L27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Real Espana</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>3.04</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1719,42 +1719,42 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28.6</v>
+        <v>48.3</v>
       </c>
       <c r="H28" t="n">
-        <v>14.3</v>
+        <v>10.3</v>
       </c>
       <c r="I28" t="n">
-        <v>57.1</v>
+        <v>41.4</v>
       </c>
       <c r="J28" t="n">
-        <v>42.9</v>
+        <v>58.6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.04</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>46.4</v>
+        <v>28.6</v>
       </c>
       <c r="H29" t="n">
-        <v>10.7</v>
+        <v>14.3</v>
       </c>
       <c r="I29" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="J29" t="n">
         <v>42.9</v>
       </c>
-      <c r="J29" t="n">
-        <v>57.1</v>
-      </c>
       <c r="K29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="L29" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2200,21 +2200,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Universitatea Craiova</t>
+          <t>Real Estelí</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Diriangén</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2225,42 +2225,42 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>51.8</v>
       </c>
       <c r="H39" t="n">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="I39" t="n">
-        <v>21.5</v>
+        <v>28.9</v>
       </c>
       <c r="J39" t="n">
-        <v>61.5</v>
+        <v>51.8</v>
       </c>
       <c r="K39" t="n">
         <v>1.11</v>
       </c>
       <c r="L39" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Real Estelí</t>
+          <t>Universitatea Craiova</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Diriangén</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2271,42 +2271,42 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>50.6</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
-        <v>19.8</v>
+        <v>18.5</v>
       </c>
       <c r="I40" t="n">
-        <v>29.6</v>
+        <v>21.5</v>
       </c>
       <c r="J40" t="n">
-        <v>50.6</v>
+        <v>61.5</v>
       </c>
       <c r="K40" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="L40" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Atletico Madrid W</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Manchester United W</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.19</v>
+        <v>3.05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2317,22 +2317,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>48.9</v>
+        <v>35.3</v>
       </c>
       <c r="H41" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="I41" t="n">
-        <v>27.7</v>
+        <v>41.2</v>
       </c>
       <c r="J41" t="n">
-        <v>57.4</v>
+        <v>52.9</v>
       </c>
       <c r="K41" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="L41" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2384,21 +2384,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Talleres Córdoba Res.</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vélez Sársfield Res.</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.44</v>
+        <v>2.19</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2409,42 +2409,42 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.3</v>
+        <v>47.9</v>
       </c>
       <c r="H43" t="n">
-        <v>7.3</v>
+        <v>25</v>
       </c>
       <c r="I43" t="n">
-        <v>63.4</v>
+        <v>27.1</v>
       </c>
       <c r="J43" t="n">
-        <v>68.3</v>
+        <v>58.3</v>
       </c>
       <c r="K43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="L43" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Juventus U23</t>
+          <t>Talleres Córdoba Res.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Vélez Sársfield Res.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2.01</v>
+        <v>3.44</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2455,42 +2455,42 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>49.3</v>
+        <v>29.3</v>
       </c>
       <c r="H44" t="n">
-        <v>16.4</v>
+        <v>7.3</v>
       </c>
       <c r="I44" t="n">
-        <v>34.3</v>
+        <v>63.4</v>
       </c>
       <c r="J44" t="n">
-        <v>49.3</v>
+        <v>68.3</v>
       </c>
       <c r="K44" t="n">
         <v>1.01</v>
       </c>
       <c r="L44" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>Juventus U23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2.66</v>
+        <v>2.01</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>37.5</v>
+        <v>49.3</v>
       </c>
       <c r="H45" t="n">
-        <v>33.3</v>
+        <v>16.4</v>
       </c>
       <c r="I45" t="n">
-        <v>29.2</v>
+        <v>34.3</v>
       </c>
       <c r="J45" t="n">
-        <v>54.2</v>
+        <v>49.3</v>
       </c>
       <c r="K45" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="L45" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CS Uruguay</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Escorpiones Belén</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2547,42 +2547,42 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.3</v>
+        <v>37.5</v>
       </c>
       <c r="H46" t="n">
         <v>33.3</v>
       </c>
       <c r="I46" t="n">
-        <v>33.3</v>
+        <v>29.2</v>
       </c>
       <c r="J46" t="n">
-        <v>33.3</v>
+        <v>54.2</v>
       </c>
       <c r="K46" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FC Thun</t>
+          <t>CS Uruguay</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Escorpiones Belén</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.02</v>
+        <v>2.98</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2593,42 +2593,42 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>47.8</v>
+        <v>33.3</v>
       </c>
       <c r="H47" t="n">
-        <v>19.6</v>
+        <v>33.3</v>
       </c>
       <c r="I47" t="n">
-        <v>32.6</v>
+        <v>33.3</v>
       </c>
       <c r="J47" t="n">
-        <v>54.3</v>
+        <v>33.3</v>
       </c>
       <c r="K47" t="n">
         <v>0.98</v>
       </c>
       <c r="L47" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Akademija Pandev</t>
+          <t>FC Thun</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Makedonija GjP</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>58.1</v>
+        <v>47.8</v>
       </c>
       <c r="H48" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I48" t="n">
         <v>32.6</v>
       </c>
-      <c r="I48" t="n">
-        <v>9.300000000000001</v>
-      </c>
       <c r="J48" t="n">
-        <v>37.2</v>
+        <v>54.3</v>
       </c>
       <c r="K48" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="L48" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Atletico Madrid W</t>
+          <t>Akademija Pandev</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Manchester United W</t>
+          <t>Makedonija GjP</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3.05</v>
+        <v>1.62</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>31.2</v>
+        <v>58.1</v>
       </c>
       <c r="H49" t="n">
-        <v>25</v>
+        <v>32.6</v>
       </c>
       <c r="I49" t="n">
-        <v>43.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>50</v>
+        <v>37.2</v>
       </c>
       <c r="K49" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L49" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
@@ -2936,21 +2936,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>00:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Central Cordoba de Santiago</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2.23</v>
+        <v>1.8</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>39.1</v>
+        <v>46.3</v>
       </c>
       <c r="H55" t="n">
-        <v>21.7</v>
+        <v>29.3</v>
       </c>
       <c r="I55" t="n">
-        <v>39.1</v>
+        <v>24.4</v>
       </c>
       <c r="J55" t="n">
-        <v>34.8</v>
+        <v>40.2</v>
       </c>
       <c r="K55" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L55" t="n">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>02:15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>CS Cartagines</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A'Ali</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>39.1</v>
+        <v>44.2</v>
       </c>
       <c r="H56" t="n">
-        <v>21.7</v>
+        <v>18.6</v>
       </c>
       <c r="I56" t="n">
-        <v>39.1</v>
+        <v>37.2</v>
       </c>
       <c r="J56" t="n">
-        <v>34.8</v>
+        <v>25.6</v>
       </c>
       <c r="K56" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L56" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>02:15</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CS Cartagines</t>
+          <t>Campobasso FC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3074,21 +3074,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Campobasso FC</t>
+          <t>Herrera</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Union Cocle</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,16 +3099,16 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>44.2</v>
+        <v>32.6</v>
       </c>
       <c r="H58" t="n">
-        <v>18.6</v>
+        <v>37.2</v>
       </c>
       <c r="I58" t="n">
-        <v>37.2</v>
+        <v>30.2</v>
       </c>
       <c r="J58" t="n">
-        <v>25.6</v>
+        <v>48.8</v>
       </c>
       <c r="K58" t="n">
         <v>0.86</v>
@@ -3120,17 +3120,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Herrera</t>
+          <t>Aarhus</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Union Cocle</t>
+          <t>FC Midtjylland</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>32.6</v>
+        <v>32</v>
       </c>
       <c r="H59" t="n">
-        <v>37.2</v>
+        <v>32</v>
       </c>
       <c r="I59" t="n">
-        <v>30.2</v>
+        <v>36</v>
       </c>
       <c r="J59" t="n">
-        <v>48.8</v>
+        <v>48</v>
       </c>
       <c r="K59" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L59" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Central Cordoba de Santiago</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.8</v>
+        <v>2.23</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>45.7</v>
+        <v>37.5</v>
       </c>
       <c r="H60" t="n">
-        <v>29.6</v>
+        <v>25</v>
       </c>
       <c r="I60" t="n">
-        <v>24.7</v>
+        <v>37.5</v>
       </c>
       <c r="J60" t="n">
-        <v>40.7</v>
+        <v>37.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L60" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Aarhus</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FC Midtjylland</t>
+          <t>A'Ali</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.64</v>
+        <v>2.21</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>32</v>
+        <v>37.5</v>
       </c>
       <c r="H61" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I61" t="n">
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="J61" t="n">
-        <v>48</v>
+        <v>37.5</v>
       </c>
       <c r="K61" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -3513,22 +3513,22 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>30</v>
+        <v>29.3</v>
       </c>
       <c r="H67" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="I67" t="n">
-        <v>35</v>
+        <v>36.6</v>
       </c>
       <c r="J67" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L67" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
@@ -3672,21 +3672,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Porto Vitória</t>
+          <t>Bangkok United</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Vilavelhense</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>53.6</v>
+        <v>32.3</v>
       </c>
       <c r="H71" t="n">
-        <v>32.1</v>
+        <v>30.6</v>
       </c>
       <c r="I71" t="n">
-        <v>14.3</v>
+        <v>37.1</v>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>41.9</v>
       </c>
       <c r="K71" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="L71" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Al Wakrah</t>
+          <t>Porto Vitória</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Al-Sailiya</t>
+          <t>Vilavelhense</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.56</v>
+        <v>1.31</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>46.4</v>
+        <v>53.6</v>
       </c>
       <c r="H72" t="n">
         <v>32.1</v>
       </c>
       <c r="I72" t="n">
-        <v>21.4</v>
+        <v>14.3</v>
       </c>
       <c r="J72" t="n">
-        <v>57.1</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
         <v>0.72</v>
@@ -3764,21 +3764,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Internacional de Bogota</t>
+          <t>Al Wakrah</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Al-Sailiya</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2.62</v>
+        <v>1.56</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>26.7</v>
+        <v>46.4</v>
       </c>
       <c r="H73" t="n">
-        <v>30</v>
+        <v>32.1</v>
       </c>
       <c r="I73" t="n">
-        <v>43.3</v>
+        <v>21.4</v>
       </c>
       <c r="J73" t="n">
-        <v>53.3</v>
+        <v>57.1</v>
       </c>
       <c r="K73" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="L73" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lobos Upnfm</t>
+          <t>Internacional de Bogota</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.62</v>
+        <v>2.62</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>42.4</v>
+        <v>26.7</v>
       </c>
       <c r="H74" t="n">
-        <v>39.4</v>
+        <v>30</v>
       </c>
       <c r="I74" t="n">
-        <v>18.2</v>
+        <v>43.3</v>
       </c>
       <c r="J74" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="L74" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hapoel Umm al-Fahm</t>
+          <t>Lobos Upnfm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hapoel Beit Shean</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.53</v>
+        <v>1.62</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,16 +3881,16 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>27.3</v>
+        <v>42.4</v>
       </c>
       <c r="H75" t="n">
-        <v>24.2</v>
+        <v>39.4</v>
       </c>
       <c r="I75" t="n">
-        <v>48.5</v>
+        <v>18.2</v>
       </c>
       <c r="J75" t="n">
-        <v>51.5</v>
+        <v>66.7</v>
       </c>
       <c r="K75" t="n">
         <v>0.7</v>
@@ -3902,21 +3902,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Bangkok United</t>
+          <t>Hapoel Umm al-Fahm</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Macarthur</t>
+          <t>Hapoel Beit Shean</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.22</v>
+        <v>2.53</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>31.1</v>
+        <v>27.3</v>
       </c>
       <c r="H76" t="n">
-        <v>31.1</v>
+        <v>24.2</v>
       </c>
       <c r="I76" t="n">
-        <v>37.7</v>
+        <v>48.5</v>
       </c>
       <c r="J76" t="n">
-        <v>42.6</v>
+        <v>51.5</v>
       </c>
       <c r="K76" t="n">
         <v>0.7</v>
       </c>
       <c r="L76" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Şahdağ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cəbrayıl</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>32.3</v>
+        <v>34.6</v>
       </c>
       <c r="H77" t="n">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
       <c r="I77" t="n">
-        <v>53.2</v>
+        <v>50</v>
       </c>
       <c r="J77" t="n">
-        <v>30.6</v>
+        <v>51.9</v>
       </c>
       <c r="K77" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="L77" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Şahdağ</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RB Bragantino</t>
+          <t>Cəbrayıl</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4040,21 +4040,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>23:20</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>RB Bragantino</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4086,21 +4086,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proxy</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>La Viena FC</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>28.1</v>
+        <v>32.3</v>
       </c>
       <c r="H80" t="n">
-        <v>37.5</v>
+        <v>14.5</v>
       </c>
       <c r="I80" t="n">
-        <v>34.4</v>
+        <v>53.2</v>
       </c>
       <c r="J80" t="n">
-        <v>25</v>
+        <v>30.6</v>
       </c>
       <c r="K80" t="n">
         <v>0.66</v>
       </c>
       <c r="L80" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Proxy</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>La Viena FC</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,22 +4157,22 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>33.3</v>
+        <v>28.1</v>
       </c>
       <c r="H81" t="n">
-        <v>15.7</v>
+        <v>37.5</v>
       </c>
       <c r="I81" t="n">
-        <v>51</v>
+        <v>34.4</v>
       </c>
       <c r="J81" t="n">
-        <v>52.9</v>
+        <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="L81" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -4249,22 +4249,22 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>44.7</v>
+        <v>43.6</v>
       </c>
       <c r="H83" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="I83" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="J83" t="n">
-        <v>55.3</v>
+        <v>53.8</v>
       </c>
       <c r="K83" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="L83" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,251 +498,251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Keshla FC</t>
+          <t>ST Johnstone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>Ayr Utd</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.18</v>
+        <v>1.47</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Macclesfield</t>
+          <t>Al-Wasl FC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Al Zawra'a</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.5</v>
+        <v>1.26</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>US Chaouia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>Khroub</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.6</v>
+        <v>1.34</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>48.9</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.3</v>
+        <v>1.33</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>48.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Bath City</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Ebbsfleet United</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.8</v>
+        <v>3.34</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dinamo Bucuresti</t>
+          <t>ROHDA Raalte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>URK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -750,45 +750,45 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>91.7</v>
+        <v>81.5</v>
       </c>
       <c r="G7" t="n">
-        <v>91.7</v>
+        <v>81.5</v>
       </c>
       <c r="H7" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>22.2</v>
       </c>
       <c r="K7" t="n">
-        <v>1.15</v>
+        <v>0.86</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KAMAZ</t>
+          <t>Guadalajara W</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lokomotiv</t>
+          <t>Atlas W</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -796,45 +796,45 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>84.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="G8" t="n">
-        <v>84.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="H8" t="n">
-        <v>11.1</v>
+        <v>21.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>48.9</v>
+        <v>56.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="L8" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Xelajú</t>
+          <t>Dungannon Swifts</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marquense</t>
+          <t>Linfield</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.33</v>
+        <v>4.15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -842,45 +842,45 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>83.5</v>
+        <v>77.8</v>
       </c>
       <c r="G9" t="n">
-        <v>62</v>
+        <v>44.4</v>
       </c>
       <c r="H9" t="n">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.4</v>
+        <v>55.6</v>
       </c>
       <c r="J9" t="n">
-        <v>83.5</v>
+        <v>77.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.84</v>
+        <v>1.84</v>
       </c>
       <c r="L9" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Birmingham City W</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Crystal Palace W</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.71</v>
+        <v>3.56</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -888,91 +888,91 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>83.3</v>
+        <v>77.8</v>
       </c>
       <c r="G10" t="n">
-        <v>16.7</v>
+        <v>22.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.3</v>
+        <v>77.8</v>
       </c>
       <c r="J10" t="n">
-        <v>66.7</v>
+        <v>44.4</v>
       </c>
       <c r="K10" t="n">
-        <v>0.29</v>
+        <v>0.79</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Racing Club Res.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Godoy Cruz Res.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.32</v>
+        <v>1.59</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>83.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>33.3</v>
+        <v>12.9</v>
       </c>
       <c r="I11" t="n">
-        <v>66.7</v>
+        <v>9.4</v>
       </c>
       <c r="J11" t="n">
-        <v>83.3</v>
+        <v>63.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gulf United</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Al Hamriyah</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.35</v>
+        <v>1.59</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -980,229 +980,229 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>9.4</v>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>63.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.68</v>
+        <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Al Shorta</t>
+          <t>Brentford U21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Al-Duhail SC</t>
+          <t>Charlton Athletic U21</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.3</v>
+        <v>1.56</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I13" t="n">
-        <v>40</v>
+        <v>9.4</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>63.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.61</v>
+        <v>1.2</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bangu</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>43.1</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>13.8</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>43.1</v>
       </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.28</v>
+        <v>1.41</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>79.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="H15" t="n">
-        <v>20.8</v>
+        <v>13.8</v>
       </c>
       <c r="I15" t="n">
-        <v>79.2</v>
+        <v>43.1</v>
       </c>
       <c r="J15" t="n">
-        <v>50</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L15" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zeljeznicar Sarajevo</t>
+          <t>Vélez Sársfield Res.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Barracas Central Res.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>11.4</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>11.4</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>48.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.84</v>
+        <v>1.04</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aveley</t>
+          <t>Sheffield United U21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chichester City</t>
+          <t>Wigan Athletic U21</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1210,45 +1210,45 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>77.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="G17" t="n">
-        <v>77.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="H17" t="n">
-        <v>12.9</v>
+        <v>16.3</v>
       </c>
       <c r="I17" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>63.5</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="L17" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>WA Mostaganem</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Béchar Djedid</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1256,45 +1256,45 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>77.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="G18" t="n">
-        <v>77.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="H18" t="n">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="I18" t="n">
-        <v>11.4</v>
+        <v>16.7</v>
       </c>
       <c r="J18" t="n">
-        <v>48.6</v>
+        <v>61.9</v>
       </c>
       <c r="K18" t="n">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="L18" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01:05</t>
+          <t>22:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>América W</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Claypole</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1302,91 +1302,91 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>77.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="G19" t="n">
-        <v>77.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="H19" t="n">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="I19" t="n">
-        <v>11.4</v>
+        <v>16.7</v>
       </c>
       <c r="J19" t="n">
-        <v>48.6</v>
+        <v>61.9</v>
       </c>
       <c r="K19" t="n">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="L19" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ural</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dynamo</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.8</v>
+        <v>1.27</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>75</v>
+        <v>73.8</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>73.8</v>
       </c>
       <c r="H20" t="n">
-        <v>75</v>
+        <v>9.5</v>
       </c>
       <c r="I20" t="n">
-        <v>25</v>
+        <v>16.7</v>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>61.9</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Diriangén</t>
+          <t>Hull City U21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>H&amp;H Export</t>
+          <t>Sheffield Wednesday U21</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1394,45 +1394,45 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>73.8</v>
+        <v>73.2</v>
       </c>
       <c r="G21" t="n">
-        <v>73.8</v>
+        <v>73.2</v>
       </c>
       <c r="H21" t="n">
-        <v>9.5</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
-        <v>16.7</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>61.9</v>
+        <v>73.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="L21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Potters Bar Town</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1464,21 +1464,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Johor Darul Takzim FC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Anápolis</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,45 +1486,45 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>70.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="G23" t="n">
-        <v>70.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="H23" t="n">
-        <v>17.6</v>
+        <v>18.1</v>
       </c>
       <c r="I23" t="n">
-        <v>11.8</v>
+        <v>9.6</v>
       </c>
       <c r="J23" t="n">
-        <v>58.8</v>
+        <v>50.6</v>
       </c>
       <c r="K23" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="L23" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Al-Hilal Saudi FC</t>
+          <t>RC Kouba</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Al Wahda FC</t>
+          <t>CRB Adrar</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1532,45 +1532,45 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="G24" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="H24" t="n">
-        <v>17.6</v>
+        <v>16.7</v>
       </c>
       <c r="I24" t="n">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="J24" t="n">
-        <v>58.8</v>
+        <v>72.2</v>
       </c>
       <c r="K24" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="L24" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AFC Hermannstadt</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CFR 1907 Cluj</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1581,42 +1581,42 @@
         <v>66.7</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>66.7</v>
       </c>
       <c r="I25" t="n">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bouselem</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS Hammam-Lif</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.75</v>
+        <v>1.41</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1624,25 +1624,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>55.6</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>44.4</v>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>55.6</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -1653,16 +1653,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bishop's Stortford</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Real Bedford</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1670,45 +1670,45 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>53.7</v>
+        <v>54.5</v>
       </c>
       <c r="G27" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L27" t="n">
         <v>22</v>
-      </c>
-      <c r="H27" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>39</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L27" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qabala</t>
+          <t>Toluca W</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sabah FA</t>
+          <t>Pachuca W</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.6</v>
+        <v>2.36</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1716,45 +1716,45 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>53.7</v>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H28" t="n">
-        <v>50</v>
+        <v>53.7</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K28" t="n">
-        <v>2.82</v>
+        <v>0.52</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sassuolo U20</t>
+          <t>Bangkok</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Atalanta U20</t>
+          <t>Phrae United</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.18</v>
+        <v>3.22</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1762,45 +1762,45 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>47.2</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>39.3</v>
+        <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>47.2</v>
+        <v>52</v>
       </c>
       <c r="I29" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="J29" t="n">
-        <v>32.6</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
       <c r="L29" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FC UFA</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aktobe</t>
+          <t>Auckland</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1808,45 +1808,45 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>39.3</v>
+        <v>41.7</v>
       </c>
       <c r="H30" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>32.6</v>
+        <v>16.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.84</v>
+        <v>1.15</v>
       </c>
       <c r="L30" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LD Alajuelense</t>
+          <t>AFC Totton</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sporting San Jose</t>
+          <t>Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1854,45 +1854,45 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>44.8</v>
+        <v>47.2</v>
       </c>
       <c r="G31" t="n">
-        <v>40.3</v>
+        <v>39.3</v>
       </c>
       <c r="H31" t="n">
-        <v>44.8</v>
+        <v>47.2</v>
       </c>
       <c r="I31" t="n">
-        <v>14.9</v>
+        <v>13.5</v>
       </c>
       <c r="J31" t="n">
-        <v>31.3</v>
+        <v>32.6</v>
       </c>
       <c r="K31" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="L31" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bahla</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Saham</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1900,45 +1900,45 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40.6</v>
+        <v>47.2</v>
       </c>
       <c r="G32" t="n">
-        <v>15.6</v>
+        <v>39.3</v>
       </c>
       <c r="H32" t="n">
-        <v>40.6</v>
+        <v>47.2</v>
       </c>
       <c r="I32" t="n">
-        <v>43.8</v>
+        <v>13.5</v>
       </c>
       <c r="J32" t="n">
-        <v>78.09999999999999</v>
+        <v>32.6</v>
       </c>
       <c r="K32" t="n">
-        <v>0.35</v>
+        <v>0.84</v>
       </c>
       <c r="L32" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Maccabi Kabilio Jaffa</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bnei Yehuda</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1946,321 +1946,321 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>44.7</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>39.5</v>
       </c>
       <c r="H33" t="n">
-        <v>40</v>
+        <v>44.7</v>
       </c>
       <c r="I33" t="n">
-        <v>40</v>
+        <v>15.8</v>
       </c>
       <c r="J33" t="n">
-        <v>20</v>
+        <v>31.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="L33" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Bromsgrove Sporting</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Alvechurch</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.24</v>
+        <v>2.73</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="G34" t="n">
-        <v>63.6</v>
+        <v>44.4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="I34" t="n">
-        <v>36.4</v>
+        <v>11.1</v>
       </c>
       <c r="J34" t="n">
-        <v>54.5</v>
+        <v>27.8</v>
       </c>
       <c r="K34" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="L34" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Naxxar Lions</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Gzira United</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.02</v>
+        <v>2.7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="G35" t="n">
-        <v>53.8</v>
+        <v>44.4</v>
       </c>
       <c r="H35" t="n">
-        <v>30.8</v>
+        <v>44.4</v>
       </c>
       <c r="I35" t="n">
-        <v>15.4</v>
+        <v>11.1</v>
       </c>
       <c r="J35" t="n">
-        <v>53.8</v>
+        <v>27.8</v>
       </c>
       <c r="K35" t="n">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="L35" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Real Sociedad II</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3.02</v>
+        <v>2.48</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G36" t="n">
-        <v>53.8</v>
+        <v>27</v>
       </c>
       <c r="H36" t="n">
-        <v>30.8</v>
+        <v>40.5</v>
       </c>
       <c r="I36" t="n">
-        <v>15.4</v>
+        <v>32.4</v>
       </c>
       <c r="J36" t="n">
-        <v>53.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>1.64</v>
+        <v>0.66</v>
       </c>
       <c r="L36" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ospitaletto</t>
+          <t>Atlético San Luis W</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Inter U23</t>
+          <t>Querétaro W</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3.02</v>
+        <v>1.52</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="I37" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>64.3</v>
       </c>
       <c r="K37" t="n">
-        <v>1.52</v>
+        <v>0.63</v>
       </c>
       <c r="L37" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hapoel Acre</t>
+          <t>Atletico Torque</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hapoel Afula</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G38" t="n">
-        <v>64.09999999999999</v>
+        <v>40.5</v>
       </c>
       <c r="H38" t="n">
-        <v>12.8</v>
+        <v>40.5</v>
       </c>
       <c r="I38" t="n">
-        <v>23.1</v>
+        <v>19</v>
       </c>
       <c r="J38" t="n">
-        <v>43.6</v>
+        <v>64.3</v>
       </c>
       <c r="K38" t="n">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="L38" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.1</v>
+        <v>3.72</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>64.09999999999999</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>12.8</v>
+        <v>40</v>
       </c>
       <c r="I39" t="n">
-        <v>23.1</v>
+        <v>40</v>
       </c>
       <c r="J39" t="n">
-        <v>43.6</v>
+        <v>20</v>
       </c>
       <c r="K39" t="n">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="L39" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Etar Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Fratria</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2271,42 +2271,42 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>64.09999999999999</v>
+        <v>63.6</v>
       </c>
       <c r="H40" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.1</v>
+        <v>36.4</v>
       </c>
       <c r="J40" t="n">
-        <v>43.6</v>
+        <v>54.5</v>
       </c>
       <c r="K40" t="n">
-        <v>1.38</v>
+        <v>2.07</v>
       </c>
       <c r="L40" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Jaguares</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Estac Troyes</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.94</v>
+        <v>3.54</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2317,42 +2317,42 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>42.1</v>
+        <v>46.7</v>
       </c>
       <c r="H41" t="n">
-        <v>26.3</v>
+        <v>13.3</v>
       </c>
       <c r="I41" t="n">
-        <v>31.6</v>
+        <v>40</v>
       </c>
       <c r="J41" t="n">
-        <v>52.6</v>
+        <v>26.7</v>
       </c>
       <c r="K41" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="L41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Independiente Riva. Res.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Boca Juniors Res.</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.29</v>
+        <v>4.25</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2363,42 +2363,42 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>54.3</v>
+        <v>33.3</v>
       </c>
       <c r="H42" t="n">
-        <v>17.1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>28.6</v>
+        <v>66.7</v>
       </c>
       <c r="J42" t="n">
-        <v>51.4</v>
+        <v>66.7</v>
       </c>
       <c r="K42" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="L42" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Saba</t>
+          <t>Tranmere</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya</t>
+          <t>Accrington ST</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2409,42 +2409,42 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>52.9</v>
+        <v>63.3</v>
       </c>
       <c r="H43" t="n">
-        <v>25.5</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>21.6</v>
+        <v>26.7</v>
       </c>
       <c r="J43" t="n">
-        <v>35.3</v>
+        <v>40</v>
       </c>
       <c r="K43" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="L43" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Tamworth</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>West Ham United U21</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.77</v>
+        <v>2.29</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2455,42 +2455,42 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>67.3</v>
+        <v>61.4</v>
       </c>
       <c r="H44" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>11.4</v>
       </c>
       <c r="J44" t="n">
-        <v>43.6</v>
+        <v>48.6</v>
       </c>
       <c r="K44" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="L44" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dubai United</t>
+          <t>Achuapa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Al Thaid</t>
+          <t>Guastatoya</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>67.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>27.3</v>
+        <v>12.8</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>23.1</v>
       </c>
       <c r="J45" t="n">
         <v>43.6</v>
       </c>
       <c r="K45" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="L45" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>MSP Batna</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Midland</t>
+          <t>JS Bordj Ménaïel</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2547,42 +2547,42 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.7</v>
+        <v>53.6</v>
       </c>
       <c r="H46" t="n">
-        <v>7.7</v>
+        <v>28.6</v>
       </c>
       <c r="I46" t="n">
-        <v>25.6</v>
+        <v>17.9</v>
       </c>
       <c r="J46" t="n">
-        <v>59</v>
+        <v>46.4</v>
       </c>
       <c r="K46" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="L46" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sporting Ben Arous</t>
+          <t>Hereford</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ES Hammam-Sousse</t>
+          <t>Darlington 1883</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2593,42 +2593,42 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>44</v>
+        <v>53.6</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>28.6</v>
       </c>
       <c r="I47" t="n">
-        <v>48</v>
+        <v>17.9</v>
       </c>
       <c r="J47" t="n">
-        <v>52</v>
+        <v>46.4</v>
       </c>
       <c r="K47" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="L47" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2.58</v>
+        <v>2.51</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>45.2</v>
+        <v>51.2</v>
       </c>
       <c r="H48" t="n">
-        <v>32.3</v>
+        <v>30.2</v>
       </c>
       <c r="I48" t="n">
-        <v>22.6</v>
+        <v>18.6</v>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>46.5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="L48" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Elgin City</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>East Kilbride</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>57.6</v>
+        <v>49.4</v>
       </c>
       <c r="H49" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="I49" t="n">
         <v>15.3</v>
       </c>
-      <c r="I49" t="n">
-        <v>27.1</v>
-      </c>
       <c r="J49" t="n">
-        <v>56.5</v>
+        <v>38.8</v>
       </c>
       <c r="K49" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="L49" t="n">
         <v>85</v>
@@ -2706,21 +2706,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instituto Res.</t>
+          <t>Enfield Town</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rosario Central Res.</t>
+          <t>Horsham</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3.32</v>
+        <v>2.99</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>30.8</v>
+        <v>42.1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="I50" t="n">
-        <v>69.2</v>
+        <v>31.6</v>
       </c>
       <c r="J50" t="n">
-        <v>61.5</v>
+        <v>52.6</v>
       </c>
       <c r="K50" t="n">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="L50" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chelmsford City</t>
+          <t>MC Saida</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Maidstone Utd</t>
+          <t>JS El Biar</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.46</v>
+        <v>2.92</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>42</v>
+        <v>41.4</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>34.5</v>
       </c>
       <c r="I51" t="n">
-        <v>42</v>
+        <v>24.1</v>
       </c>
       <c r="J51" t="n">
-        <v>34</v>
+        <v>55.2</v>
       </c>
       <c r="K51" t="n">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="L51" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Waterhouse</t>
+          <t>Leamington</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tivoli Gardens</t>
+          <t>Spennymoor Town</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>36.4</v>
       </c>
       <c r="H52" t="n">
-        <v>28.3</v>
+        <v>27.3</v>
       </c>
       <c r="I52" t="n">
-        <v>21.7</v>
+        <v>36.4</v>
       </c>
       <c r="J52" t="n">
-        <v>54.3</v>
+        <v>36.4</v>
       </c>
       <c r="K52" t="n">
-        <v>0.98</v>
+        <v>1.22</v>
       </c>
       <c r="L52" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Newell's Old Boys Res.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Defensa y Justicia Res.</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>48.7</v>
+        <v>63.6</v>
       </c>
       <c r="H53" t="n">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
       <c r="I53" t="n">
-        <v>28.2</v>
+        <v>9.1</v>
       </c>
       <c r="J53" t="n">
-        <v>28.2</v>
+        <v>56.8</v>
       </c>
       <c r="K53" t="n">
-        <v>0.95</v>
+        <v>1.18</v>
       </c>
       <c r="L53" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Barnet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,42 +2915,42 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>45.5</v>
+        <v>66.7</v>
       </c>
       <c r="H54" t="n">
-        <v>25.5</v>
+        <v>7.7</v>
       </c>
       <c r="I54" t="n">
-        <v>29.1</v>
+        <v>25.6</v>
       </c>
       <c r="J54" t="n">
-        <v>47.3</v>
+        <v>59</v>
       </c>
       <c r="K54" t="n">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="L54" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Future FC</t>
+          <t>Portadown</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Cliftonville FC</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.66</v>
+        <v>2.62</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>56.2</v>
+        <v>44</v>
       </c>
       <c r="H55" t="n">
-        <v>18.8</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
+        <v>48</v>
+      </c>
+      <c r="J55" t="n">
+        <v>52</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L55" t="n">
         <v>25</v>
-      </c>
-      <c r="J55" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L55" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sunderland U21</t>
+          <t>MO Constantine</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Reading U21</t>
+          <t>JS Jijel</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>45.6</v>
+        <v>48.5</v>
       </c>
       <c r="H56" t="n">
-        <v>17.5</v>
+        <v>30.3</v>
       </c>
       <c r="I56" t="n">
-        <v>36.8</v>
+        <v>21.2</v>
       </c>
       <c r="J56" t="n">
-        <v>35.1</v>
+        <v>48.5</v>
       </c>
       <c r="K56" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="L56" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>JS Tixeraine</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aluminij</t>
+          <t>RC Arba</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>52</v>
+        <v>57.6</v>
       </c>
       <c r="H57" t="n">
-        <v>33.3</v>
+        <v>15.3</v>
       </c>
       <c r="I57" t="n">
-        <v>14.7</v>
+        <v>27.1</v>
       </c>
       <c r="J57" t="n">
-        <v>68</v>
+        <v>56.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="L57" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CFRJ / Maricá</t>
+          <t>Colchester</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>45.5</v>
+        <v>57.6</v>
       </c>
       <c r="H58" t="n">
-        <v>18.2</v>
+        <v>15.3</v>
       </c>
       <c r="I58" t="n">
-        <v>36.4</v>
+        <v>27.1</v>
       </c>
       <c r="J58" t="n">
-        <v>27.3</v>
+        <v>56.5</v>
       </c>
       <c r="K58" t="n">
-        <v>0.89</v>
+        <v>1.12</v>
       </c>
       <c r="L58" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Javor</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,22 +3145,22 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>45.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>36.4</v>
+        <v>32.4</v>
       </c>
       <c r="J59" t="n">
-        <v>27.3</v>
+        <v>37.8</v>
       </c>
       <c r="K59" t="n">
-        <v>0.89</v>
+        <v>1.12</v>
       </c>
       <c r="L59" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -3171,16 +3171,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M'saken</t>
+          <t>Tiaret</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kerkennah</t>
+          <t>WA Tlemcen</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,22 +3191,22 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H60" t="n">
-        <v>34.9</v>
+        <v>18.5</v>
       </c>
       <c r="I60" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="J60" t="n">
-        <v>54</v>
+        <v>61.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0.85</v>
+        <v>1.11</v>
       </c>
       <c r="L60" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -3217,16 +3217,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.27</v>
+        <v>3.04</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,42 +3237,42 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>37.5</v>
+        <v>35.3</v>
       </c>
       <c r="H61" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="I61" t="n">
-        <v>37.5</v>
+        <v>41.2</v>
       </c>
       <c r="J61" t="n">
-        <v>37.5</v>
+        <v>47.1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="L61" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Santa Clara U23</t>
+          <t>Arnett Gardens</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Leixões U23</t>
+          <t>Portmore United</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.86</v>
+        <v>3.04</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>45.3</v>
+        <v>35.3</v>
       </c>
       <c r="H62" t="n">
-        <v>35.8</v>
+        <v>23.5</v>
       </c>
       <c r="I62" t="n">
-        <v>18.9</v>
+        <v>41.2</v>
       </c>
       <c r="J62" t="n">
-        <v>50.9</v>
+        <v>47.1</v>
       </c>
       <c r="K62" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="L62" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>León W</t>
+          <t>Deportivo Riestra Res.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Puebla W</t>
+          <t>Ferro 2</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.28</v>
+        <v>2.11</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>65.40000000000001</v>
+        <v>49</v>
       </c>
       <c r="H63" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="I63" t="n">
-        <v>11.5</v>
+        <v>26.5</v>
       </c>
       <c r="J63" t="n">
-        <v>38.5</v>
+        <v>57.1</v>
       </c>
       <c r="K63" t="n">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="L63" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Chanthaburi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Chiangmai United</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>51.5</v>
+        <v>49</v>
       </c>
       <c r="H64" t="n">
-        <v>30.3</v>
+        <v>24.5</v>
       </c>
       <c r="I64" t="n">
-        <v>18.2</v>
+        <v>26.5</v>
       </c>
       <c r="J64" t="n">
-        <v>60.6</v>
+        <v>57.1</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="L64" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CS Chebba</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mégrine</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>37.1</v>
+        <v>49</v>
       </c>
       <c r="H65" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="I65" t="n">
-        <v>38.7</v>
+        <v>26.5</v>
       </c>
       <c r="J65" t="n">
-        <v>72.59999999999999</v>
+        <v>57.1</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="L65" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Al-Ahli Jeddah</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>44.9</v>
+        <v>47.9</v>
       </c>
       <c r="H66" t="n">
-        <v>8.699999999999999</v>
+        <v>27.1</v>
       </c>
       <c r="I66" t="n">
-        <v>46.4</v>
+        <v>25</v>
       </c>
       <c r="J66" t="n">
-        <v>40.6</v>
+        <v>47.9</v>
       </c>
       <c r="K66" t="n">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="L66" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Middlesbrough U21</t>
+          <t>Chesterfield</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nottingham Forest U21</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>32.7</v>
+        <v>47.9</v>
       </c>
       <c r="H67" t="n">
-        <v>22.4</v>
+        <v>27.1</v>
       </c>
       <c r="I67" t="n">
-        <v>44.9</v>
+        <v>25</v>
       </c>
       <c r="J67" t="n">
-        <v>49</v>
+        <v>47.9</v>
       </c>
       <c r="K67" t="n">
-        <v>0.77</v>
+        <v>1.03</v>
       </c>
       <c r="L67" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Birkirkara</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Matagalpa</t>
+          <t>Sliema Wanderers</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.54</v>
+        <v>3.35</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>49.1</v>
+        <v>30.8</v>
       </c>
       <c r="H68" t="n">
-        <v>26.4</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>24.5</v>
+        <v>69.2</v>
       </c>
       <c r="J68" t="n">
-        <v>54.7</v>
+        <v>61.5</v>
       </c>
       <c r="K68" t="n">
-        <v>0.76</v>
+        <v>1.03</v>
       </c>
       <c r="L68" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Everton U21</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Burnley U21</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.31</v>
+        <v>2.12</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>53.3</v>
+        <v>47.9</v>
       </c>
       <c r="H69" t="n">
-        <v>30</v>
+        <v>27.1</v>
       </c>
       <c r="I69" t="n">
-        <v>16.7</v>
+        <v>25</v>
       </c>
       <c r="J69" t="n">
-        <v>53.3</v>
+        <v>47.9</v>
       </c>
       <c r="K69" t="n">
-        <v>0.72</v>
+        <v>1.03</v>
       </c>
       <c r="L69" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Bagatelle</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sportist Svoge</t>
+          <t>Kick Start</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.66</v>
+        <v>3.04</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>42.4</v>
+        <v>33.3</v>
       </c>
       <c r="H70" t="n">
-        <v>39.4</v>
+        <v>22.2</v>
       </c>
       <c r="I70" t="n">
-        <v>18.2</v>
+        <v>44.4</v>
       </c>
       <c r="J70" t="n">
-        <v>66.7</v>
+        <v>55.6</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7</v>
+        <v>1.02</v>
       </c>
       <c r="L70" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sharjah FC</t>
+          <t>Whitby Town</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Nasaf</t>
+          <t>Gainsborough Trinity</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.32</v>
+        <v>3.05</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>52.2</v>
+        <v>33.3</v>
       </c>
       <c r="H71" t="n">
-        <v>23.9</v>
+        <v>5.6</v>
       </c>
       <c r="I71" t="n">
-        <v>23.9</v>
+        <v>61.1</v>
       </c>
       <c r="J71" t="n">
-        <v>63</v>
+        <v>61.1</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7</v>
+        <v>1.02</v>
       </c>
       <c r="L71" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lusitânia Lourosa</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>26.7</v>
+        <v>58</v>
       </c>
       <c r="H72" t="n">
-        <v>11.1</v>
+        <v>21</v>
       </c>
       <c r="I72" t="n">
-        <v>62.2</v>
+        <v>21</v>
       </c>
       <c r="J72" t="n">
-        <v>24.4</v>
+        <v>48.1</v>
       </c>
       <c r="K72" t="n">
-        <v>0.68</v>
+        <v>1.01</v>
       </c>
       <c r="L72" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Instituto Cordoba</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Central Cordoba de Santiago</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>34.2</v>
+        <v>57.7</v>
       </c>
       <c r="H73" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="I73" t="n">
-        <v>28.9</v>
+        <v>17.3</v>
       </c>
       <c r="J73" t="n">
-        <v>44.7</v>
+        <v>46.2</v>
       </c>
       <c r="K73" t="n">
-        <v>0.67</v>
+        <v>1.01</v>
       </c>
       <c r="L73" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tigres FC</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ind. Yumbo</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2.09</v>
+        <v>1.54</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>32.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>14.5</v>
+        <v>18.9</v>
       </c>
       <c r="I74" t="n">
-        <v>53.2</v>
+        <v>16.2</v>
       </c>
       <c r="J74" t="n">
-        <v>30.6</v>
+        <v>37.8</v>
       </c>
       <c r="K74" t="n">
-        <v>0.66</v>
+        <v>1.01</v>
       </c>
       <c r="L74" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tychy 71</t>
+          <t>Dorking Wanderers</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>AFC Hornchurch</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>27.3</v>
+        <v>57.7</v>
       </c>
       <c r="H75" t="n">
-        <v>36.4</v>
+        <v>25</v>
       </c>
       <c r="I75" t="n">
-        <v>36.4</v>
+        <v>17.3</v>
       </c>
       <c r="J75" t="n">
-        <v>27.3</v>
+        <v>46.2</v>
       </c>
       <c r="K75" t="n">
-        <v>0.64</v>
+        <v>1.01</v>
       </c>
       <c r="L75" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Persita</t>
+          <t>Machida Zelvia</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor</t>
+          <t>Chengdu Better City</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,42 +3927,42 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>43.6</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>25.6</v>
+        <v>18.9</v>
       </c>
       <c r="I76" t="n">
-        <v>30.8</v>
+        <v>16.2</v>
       </c>
       <c r="J76" t="n">
-        <v>53.8</v>
+        <v>37.8</v>
       </c>
       <c r="K76" t="n">
-        <v>0.63</v>
+        <v>1.01</v>
       </c>
       <c r="L76" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
+          <t>San Lorenzo Res.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Campobasso FC</t>
+          <t>Talleres Córdoba Res.</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3973,42 +3973,42 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>26.8</v>
+        <v>52.9</v>
       </c>
       <c r="H77" t="n">
-        <v>24.4</v>
+        <v>26.5</v>
       </c>
       <c r="I77" t="n">
-        <v>48.8</v>
+        <v>20.6</v>
       </c>
       <c r="J77" t="n">
-        <v>46.3</v>
+        <v>52.9</v>
       </c>
       <c r="K77" t="n">
-        <v>0.63</v>
+        <v>0.98</v>
       </c>
       <c r="L77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Yeovil Town</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Aldershot Town</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.32</v>
+        <v>2.83</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4019,42 +4019,42 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>23.7</v>
+        <v>34.5</v>
       </c>
       <c r="H78" t="n">
-        <v>23.7</v>
+        <v>31</v>
       </c>
       <c r="I78" t="n">
-        <v>52.6</v>
+        <v>34.5</v>
       </c>
       <c r="J78" t="n">
-        <v>67</v>
+        <v>62.1</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="L78" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Millwall U21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Bristol City U21</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4065,42 +4065,42 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>17.9</v>
+        <v>50</v>
       </c>
       <c r="H79" t="n">
-        <v>25</v>
+        <v>28.3</v>
       </c>
       <c r="I79" t="n">
-        <v>57.1</v>
+        <v>21.7</v>
       </c>
       <c r="J79" t="n">
-        <v>60.7</v>
+        <v>54.3</v>
       </c>
       <c r="K79" t="n">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="L79" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Werder Bremen W</t>
+          <t>Queens Park Rangers U21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bayern Munich W</t>
+          <t>Cardiff City U21</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>13.5</v>
+        <v>1.96</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4111,42 +4111,42 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Alianza Valledupar</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5.35</v>
+        <v>1.91</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4157,42 +4157,42 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>15:50</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sohar</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Al-Rustaq</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.75</v>
+        <v>2.94</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4203,42 +4203,42 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Majd</t>
+          <t>Bromley</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dibba Al Hisn</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>8.699999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4249,21 +4249,2137 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L83" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Crewe</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fleetwood Town</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L84" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Oldham</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L85" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ASM Oran</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Hussein Dey</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H86" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>21</v>
+      </c>
+      <c r="J86" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L86" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Benfica U23</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sporting CP U23</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21</v>
+      </c>
+      <c r="J87" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L87" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cheshunt</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>St Albans City</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L88" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Buriram United</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="H89" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L89" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L90" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Chesham United</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Eastbourne Borough</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H91" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L91" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Hanwell Town</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Farnham Town</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>25</v>
+      </c>
+      <c r="H92" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L92" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ballymena United</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Crusaders FC</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L93" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Notts County</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H94" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I94" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>20</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L94" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Fleury 91</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H95" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I95" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>20</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L95" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Stirling Albion</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I96" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>20</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L96" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Swansea City U21</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth U21</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L97" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AFC Telford United</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Chorley</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>46</v>
+      </c>
+      <c r="H98" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>54</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L98" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Czech Republic U19</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Turkey U19</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>46</v>
+      </c>
+      <c r="H99" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19</v>
+      </c>
+      <c r="J99" t="n">
+        <v>54</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L99" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Hartlepool</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>25</v>
+      </c>
+      <c r="I100" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L100" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Huddersfield Town U21</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Barnsley U21</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="I101" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L101" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Bashkimi Kumanovo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Pelister</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L102" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>East Fife</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H103" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L103" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I104" t="n">
+        <v>20</v>
+      </c>
+      <c r="J104" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L104" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="J105" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L105" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rotherham</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="H106" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J106" t="n">
+        <v>49</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L106" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="H107" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I107" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="J107" t="n">
+        <v>49</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L107" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I108" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L108" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Southport</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Buxton</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>31</v>
+      </c>
+      <c r="H109" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I109" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L109" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Fleetwood Town U21</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Crewe Alexandra U21</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J110" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L110" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sutton Utd</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Woking</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L111" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ipswich Town U21</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Blackburn Rovers U21</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="I112" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L112" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Trefelin</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Baglan Dragons</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I113" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>63</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L113" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>60</v>
+      </c>
+      <c r="H114" t="n">
+        <v>30</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10</v>
+      </c>
+      <c r="J114" t="n">
+        <v>30</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ægir</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H115" t="n">
+        <v>29</v>
+      </c>
+      <c r="I115" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L115" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Doncaster</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I116" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="J116" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L116" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Zamalek SC</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="I117" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J117" t="n">
+        <v>67</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L117" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Bradford</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H118" t="n">
+        <v>25</v>
+      </c>
+      <c r="I118" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L118" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Dunfermline</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H119" t="n">
+        <v>30</v>
+      </c>
+      <c r="I119" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="J119" t="n">
+        <v>30</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L119" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>HB Chelghoum Laïd</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NC Magra</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Salisbury</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Chippenham Town</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Stamford</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>St Ives Town</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Plymouth Parkway</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Walton &amp; Hersham</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Zabbar St. Patrick</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Valletta FC</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>03:10</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mazatlán W</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Tigres UANL W</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>23</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AS Soliman</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ES Tunis</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>76 Iğdır Belediyespor</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FC Seoul</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sports_data.xlsx
+++ b/sports_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,251 +498,251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.94</v>
+        <v>3.88</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SHANGHAI SIPG</t>
+          <t>Şimal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai FC</t>
+          <t>Şahdağ</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.95</v>
+        <v>5.65</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mosta</t>
+          <t>Budaiya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tarxien Rainbows</t>
+          <t>Al Riffa</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>6.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al-Nassr</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arkadag</t>
+          <t>Al-Raed</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.02</v>
+        <v>4.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>100</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arsenal W</t>
+          <t>Sarıyer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OH Leuven W</t>
+          <t>Amed</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>100</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>100</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hibernians</t>
+          <t>Drita</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hamrun Spartans</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -762,33 +762,33 @@
         <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -808,125 +808,125 @@
         <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Al-Ahli Jeddah</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.05</v>
+        <v>1.06</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>83.3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="J10" t="n">
-        <v>33.3</v>
+        <v>83.3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Defensa Y Justicia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Belgrano Cordoba</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -934,229 +934,229 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>81.2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>81.2</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>31.2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOIK</t>
+          <t>Barcelona BA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Səbail</t>
+          <t>Juazeirense</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>✈️ Away win</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>84.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="G12" t="n">
-        <v>84.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>15.4</v>
+        <v>20.8</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="J12" t="n">
-        <v>76.90000000000001</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cəbrayıl</t>
+          <t>Municipal Limeño</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Baku Sportinq</t>
+          <t>Zacatecoluca</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.22</v>
+        <v>1.39</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>✈️ Away win</t>
+          <t>⚽ 2.5 Over</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>79.2</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="H13" t="n">
-        <v>20.8</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>79.2</v>
+        <v>13.6</v>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="L13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wofoo Tai Po</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BC Rangers</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.51</v>
+        <v>3.7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>🏠 Home Win</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>77.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
-        <v>77.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.8</v>
+        <v>75</v>
       </c>
       <c r="I14" t="n">
-        <v>9.300000000000001</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Maguary PE</t>
+          <t>Al Ramtha</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Laguna</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>⚽ 2.5 Over</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>76.7</v>
+        <v>73.2</v>
       </c>
       <c r="G15" t="n">
-        <v>62.8</v>
+        <v>73.2</v>
       </c>
       <c r="H15" t="n">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7</v>
+        <v>73.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="L15" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Persib Bandung</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Pohang Steelers</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1164,117 +1164,117 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>75.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>75.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>16.3</v>
+        <v>17.9</v>
       </c>
       <c r="I16" t="n">
-        <v>8.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="J16" t="n">
-        <v>69.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="L16" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Paysandu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Tuna Luso</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.46</v>
+        <v>1.47</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>66.7</v>
+        <v>71.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="H17" t="n">
-        <v>66.7</v>
+        <v>17.3</v>
       </c>
       <c r="I17" t="n">
-        <v>33.3</v>
+        <v>11.5</v>
       </c>
       <c r="J17" t="n">
-        <v>33.3</v>
+        <v>59.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L17" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Araguaína</t>
+          <t>Antigua GFC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Primavera SP</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.88</v>
+        <v>1.35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🤝 Draw</t>
+          <t>🏠 Home Win</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>61.5</v>
+        <v>70.3</v>
       </c>
       <c r="G18" t="n">
-        <v>7.7</v>
+        <v>70.3</v>
       </c>
       <c r="H18" t="n">
-        <v>61.5</v>
+        <v>16.2</v>
       </c>
       <c r="I18" t="n">
-        <v>30.8</v>
+        <v>13.5</v>
       </c>
       <c r="J18" t="n">
-        <v>46.2</v>
+        <v>35.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="L18" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -1285,16 +1285,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Real Madrid W</t>
+          <t>Juventus W</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Paris FC W</t>
+          <t>VfL Wolfsburg W</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.42</v>
+        <v>2.7</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1302,45 +1302,45 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>55.6</v>
+        <v>53.8</v>
       </c>
       <c r="G19" t="n">
-        <v>44.4</v>
+        <v>38.5</v>
       </c>
       <c r="H19" t="n">
-        <v>55.6</v>
+        <v>53.8</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J19" t="n">
-        <v>16.7</v>
+        <v>15.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="L19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Capitao Poco</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Castanhal</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.1</v>
+        <v>2.35</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1348,45 +1348,45 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>52.4</v>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>21.4</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>52.4</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>0.5</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al Ahli Doha</t>
+          <t>CS Cartagines</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sepahan FC</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.28</v>
+        <v>4.7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1397,42 +1397,42 @@
         <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>16.7</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
         <v>50</v>
       </c>
       <c r="I21" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>0.54</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nordsjælland</t>
+          <t>Al Anwar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt W</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>3.92</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1443,19 +1443,19 @@
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H22" t="n">
         <v>50</v>
       </c>
       <c r="I22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -1464,21 +1464,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01:10</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Popayan</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.13</v>
+        <v>10.75</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,45 +1486,45 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>39.3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="J23" t="n">
-        <v>32.6</v>
+        <v>50</v>
       </c>
       <c r="K23" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Peterborough United U21</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Coventry City U21</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.74</v>
+        <v>4.6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1532,45 +1532,45 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>44.8</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>40.3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>44.8</v>
+        <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>14.9</v>
+        <v>50</v>
       </c>
       <c r="J24" t="n">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Van BB</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BB Bodrumspor</t>
+          <t>Ferencvarosi TC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1578,45 +1578,45 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>44.7</v>
+        <v>44.4</v>
       </c>
       <c r="G25" t="n">
-        <v>39.5</v>
+        <v>44.4</v>
       </c>
       <c r="H25" t="n">
-        <v>44.7</v>
+        <v>44.4</v>
       </c>
       <c r="I25" t="n">
-        <v>15.8</v>
+        <v>11.1</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6</v>
+        <v>27.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Baré</t>
+          <t>El Mokawloon</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Madureira</t>
+          <t>AL Masry</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.75</v>
+        <v>2.99</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1624,45 +1624,45 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>44.4</v>
+        <v>42.9</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="H26" t="n">
-        <v>44.4</v>
+        <v>42.9</v>
       </c>
       <c r="I26" t="n">
-        <v>55.6</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>11.1</v>
+        <v>38.1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gangwon FC</t>
+          <t>Club Guarani</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.91</v>
+        <v>2.27</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1670,91 +1670,91 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>15.6</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>43.8</v>
       </c>
       <c r="J27" t="n">
-        <v>40</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Siwelele</t>
+          <t>Hapoel Tirat HaCarmel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs</t>
+          <t>Hapoel Beit Shean</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3.5</v>
+        <v>4.65</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>🤝 Draw</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Farnborough</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dagenham &amp; Redbridge</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1765,42 +1765,42 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>48.3</v>
+        <v>53.8</v>
       </c>
       <c r="H29" t="n">
-        <v>10.3</v>
+        <v>23.1</v>
       </c>
       <c r="I29" t="n">
-        <v>41.4</v>
+        <v>23.1</v>
       </c>
       <c r="J29" t="n">
-        <v>58.6</v>
+        <v>61.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="L29" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liptovský Mikuláš</t>
+          <t>Frem</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Komárno</t>
+          <t>Roskilde</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2.54</v>
+        <v>4.45</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1811,42 +1811,42 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="H30" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25</v>
+        <v>66.7</v>
       </c>
       <c r="J30" t="n">
-        <v>46.4</v>
+        <v>66.7</v>
       </c>
       <c r="K30" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="L30" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pattani</t>
+          <t>Nacional Potosí</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rasi Salai United</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.54</v>
+        <v>2.15</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1857,42 +1857,42 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>12.8</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>23.1</v>
       </c>
       <c r="J31" t="n">
-        <v>46.4</v>
+        <v>43.6</v>
       </c>
       <c r="K31" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="L31" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rosenborg U19</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tromsø U19</t>
+          <t>KR Reykjavik</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.88</v>
+        <v>2.56</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1903,42 +1903,42 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>63.6</v>
+        <v>50</v>
       </c>
       <c r="H32" t="n">
-        <v>27.3</v>
+        <v>25</v>
       </c>
       <c r="I32" t="n">
-        <v>9.1</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
-        <v>56.8</v>
+        <v>46.4</v>
       </c>
       <c r="K32" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="L32" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Basel II</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Luzern II</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1949,42 +1949,42 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>67.5</v>
+        <v>50</v>
       </c>
       <c r="H33" t="n">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="I33" t="n">
         <v>25</v>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>46.4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="L33" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Grimsby</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Al Baten</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1995,42 +1995,42 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.6</v>
+        <v>38.9</v>
       </c>
       <c r="H34" t="n">
-        <v>15.3</v>
+        <v>16.7</v>
       </c>
       <c r="I34" t="n">
-        <v>27.1</v>
+        <v>44.4</v>
       </c>
       <c r="J34" t="n">
-        <v>56.5</v>
+        <v>61.1</v>
       </c>
       <c r="K34" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="L34" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sporting Cristal</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2041,42 +2041,42 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>40.7</v>
+        <v>48.8</v>
       </c>
       <c r="H35" t="n">
-        <v>23.7</v>
+        <v>36</v>
       </c>
       <c r="I35" t="n">
-        <v>35.6</v>
+        <v>15.1</v>
       </c>
       <c r="J35" t="n">
-        <v>64.40000000000001</v>
+        <v>38.4</v>
       </c>
       <c r="K35" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="L35" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Austria Wien W</t>
+          <t>Jagiellonia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sparta Praha W</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.95</v>
+        <v>2.93</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2087,42 +2087,42 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>57.6</v>
+        <v>41.4</v>
       </c>
       <c r="H36" t="n">
-        <v>15.3</v>
+        <v>34.5</v>
       </c>
       <c r="I36" t="n">
-        <v>27.1</v>
+        <v>24.1</v>
       </c>
       <c r="J36" t="n">
-        <v>56.5</v>
+        <v>55.2</v>
       </c>
       <c r="K36" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="L36" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sisaket United</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Manauara</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2133,42 +2133,42 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2</v>
+        <v>52.9</v>
       </c>
       <c r="H37" t="n">
-        <v>19</v>
+        <v>25.5</v>
       </c>
       <c r="I37" t="n">
-        <v>29.8</v>
+        <v>21.6</v>
       </c>
       <c r="J37" t="n">
-        <v>52.4</v>
+        <v>35.3</v>
       </c>
       <c r="K37" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="L37" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Botafogo PB</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Treze</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.88</v>
+        <v>1.7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2179,42 +2179,42 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>35.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>33.3</v>
+        <v>26.8</v>
       </c>
       <c r="I38" t="n">
-        <v>30.8</v>
+        <v>5.4</v>
       </c>
       <c r="J38" t="n">
-        <v>43.6</v>
+        <v>42.9</v>
       </c>
       <c r="K38" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="L38" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Spartak Trnava</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2.8</v>
+        <v>2.27</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2225,42 +2225,42 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>35.9</v>
+        <v>52.9</v>
       </c>
       <c r="H39" t="n">
-        <v>33.3</v>
+        <v>25.5</v>
       </c>
       <c r="I39" t="n">
-        <v>30.8</v>
+        <v>21.6</v>
       </c>
       <c r="J39" t="n">
-        <v>43.6</v>
+        <v>35.3</v>
       </c>
       <c r="K39" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="L39" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Orlando Pirates</t>
+          <t>Independ. Rivadavia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2271,42 +2271,42 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.9</v>
+        <v>44</v>
       </c>
       <c r="H40" t="n">
-        <v>33.3</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>30.8</v>
+        <v>48</v>
       </c>
       <c r="J40" t="n">
-        <v>43.6</v>
+        <v>52</v>
       </c>
       <c r="K40" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="L40" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Keçiörengücü</t>
+          <t>Carlos Renaux</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Joinville</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.85</v>
+        <v>2.34</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2317,42 +2317,42 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>35.9</v>
+        <v>48.5</v>
       </c>
       <c r="H41" t="n">
-        <v>33.3</v>
+        <v>30.3</v>
       </c>
       <c r="I41" t="n">
-        <v>30.8</v>
+        <v>21.2</v>
       </c>
       <c r="J41" t="n">
-        <v>43.6</v>
+        <v>48.5</v>
       </c>
       <c r="K41" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="L41" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Dimona</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Tzeirey Tira</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>37.5</v>
+        <v>48.5</v>
       </c>
       <c r="H42" t="n">
-        <v>33.3</v>
+        <v>30.3</v>
       </c>
       <c r="I42" t="n">
-        <v>29.2</v>
+        <v>21.2</v>
       </c>
       <c r="J42" t="n">
-        <v>54.2</v>
+        <v>48.5</v>
       </c>
       <c r="K42" t="n">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="L42" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -2389,16 +2389,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Floriana</t>
+          <t>Farense U23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Marsaxlokk</t>
+          <t>Portimonense U23</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2409,42 +2409,42 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>60.6</v>
       </c>
       <c r="H43" t="n">
-        <v>25</v>
+        <v>18.2</v>
       </c>
       <c r="I43" t="n">
-        <v>25</v>
+        <v>21.2</v>
       </c>
       <c r="J43" t="n">
-        <v>54.5</v>
+        <v>60.6</v>
       </c>
       <c r="K43" t="n">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="L43" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Betim</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2455,42 +2455,42 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>60</v>
+        <v>57.6</v>
       </c>
       <c r="H44" t="n">
-        <v>35</v>
+        <v>15.3</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>27.1</v>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>56.5</v>
       </c>
       <c r="K44" t="n">
-        <v>0.93</v>
+        <v>1.12</v>
       </c>
       <c r="L44" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Stellenbosch</t>
+          <t>Isidro Metapán</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Magesi</t>
+          <t>Firpo</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.91</v>
+        <v>2.78</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2501,42 +2501,42 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>47.5</v>
+        <v>40</v>
       </c>
       <c r="H45" t="n">
         <v>25</v>
       </c>
       <c r="I45" t="n">
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="J45" t="n">
-        <v>27.5</v>
+        <v>65</v>
       </c>
       <c r="K45" t="n">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="L45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Esan Pattaya</t>
+          <t>Al-Adalah</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2547,42 +2547,42 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>45.6</v>
+        <v>51.2</v>
       </c>
       <c r="H46" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="I46" t="n">
-        <v>36.8</v>
+        <v>29.8</v>
       </c>
       <c r="J46" t="n">
-        <v>35.1</v>
+        <v>52.4</v>
       </c>
       <c r="K46" t="n">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="L46" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Rotor Volgograd</t>
+          <t>Futbol Consultants Moravia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Volga Ulyanovsk</t>
+          <t>AD Carmelita</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2593,42 +2593,42 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>45.5</v>
+        <v>49</v>
       </c>
       <c r="H47" t="n">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="I47" t="n">
-        <v>29.1</v>
+        <v>24.5</v>
       </c>
       <c r="J47" t="n">
-        <v>47.3</v>
+        <v>46.9</v>
       </c>
       <c r="K47" t="n">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
       <c r="L47" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Ayeyawady United</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Rakhine United</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2639,42 +2639,42 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>51.2</v>
+        <v>55.6</v>
       </c>
       <c r="H48" t="n">
-        <v>26.8</v>
+        <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>22</v>
+        <v>24.4</v>
       </c>
       <c r="J48" t="n">
-        <v>47.6</v>
+        <v>48.9</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="L48" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Songkhla</t>
+          <t>Estrela U23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Khon Kaen United</t>
+          <t>Marítimo U23</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2685,42 +2685,42 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>34.1</v>
+        <v>66.7</v>
       </c>
       <c r="H49" t="n">
-        <v>36.4</v>
+        <v>16.7</v>
       </c>
       <c r="I49" t="n">
-        <v>29.5</v>
+        <v>16.7</v>
       </c>
       <c r="J49" t="n">
-        <v>47.7</v>
+        <v>54.2</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="L49" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fuerte San Francisco</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.81</v>
+        <v>2.42</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2731,42 +2731,42 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H50" t="n">
-        <v>34.9</v>
+        <v>16</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J50" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K50" t="n">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="L50" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nairobi United</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mara Sugar</t>
+          <t>Argentinos JRS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2777,42 +2777,42 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>46</v>
+        <v>35.9</v>
       </c>
       <c r="H51" t="n">
-        <v>34.9</v>
+        <v>33.3</v>
       </c>
       <c r="I51" t="n">
-        <v>19</v>
+        <v>30.8</v>
       </c>
       <c r="J51" t="n">
-        <v>54</v>
+        <v>43.6</v>
       </c>
       <c r="K51" t="n">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="L51" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Atlético Ottawa</t>
+          <t>Zaqatala</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Difai Ağsu</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.8</v>
+        <v>1.73</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2823,42 +2823,42 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>16.7</v>
+        <v>57.7</v>
       </c>
       <c r="H52" t="n">
-        <v>16.7</v>
+        <v>25</v>
       </c>
       <c r="I52" t="n">
-        <v>66.7</v>
+        <v>17.3</v>
       </c>
       <c r="J52" t="n">
-        <v>66.7</v>
+        <v>46.2</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cobán Imperial</t>
+          <t>South Melbourne</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Hume City</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.56</v>
+        <v>1.71</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2869,42 +2869,42 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>31.4</v>
+        <v>57.3</v>
       </c>
       <c r="H53" t="n">
-        <v>22.9</v>
+        <v>22</v>
       </c>
       <c r="I53" t="n">
-        <v>45.7</v>
+        <v>20.7</v>
       </c>
       <c r="J53" t="n">
-        <v>51.4</v>
+        <v>47.6</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Instituto Cordoba</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Trapani 1905</t>
+          <t>Atletico Tucuman</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.23</v>
+        <v>1.99</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2915,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>62.1</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
-        <v>17.2</v>
+        <v>28.3</v>
       </c>
       <c r="I54" t="n">
-        <v>20.7</v>
+        <v>21.7</v>
       </c>
       <c r="J54" t="n">
-        <v>65.5</v>
+        <v>54.3</v>
       </c>
       <c r="K54" t="n">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="L54" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>A'Ali</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sporting CP W</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2961,42 +2961,42 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>47.5</v>
+        <v>47.9</v>
       </c>
       <c r="H55" t="n">
-        <v>35</v>
+        <v>18.8</v>
       </c>
       <c r="I55" t="n">
-        <v>17.5</v>
+        <v>33.3</v>
       </c>
       <c r="J55" t="n">
-        <v>45</v>
+        <v>54.2</v>
       </c>
       <c r="K55" t="n">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="L55" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Galvez</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IAPE</t>
+          <t>Guaporé</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.5</v>
+        <v>2.83</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3007,42 +3007,42 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>49.1</v>
+        <v>34.5</v>
       </c>
       <c r="H56" t="n">
-        <v>26.4</v>
+        <v>31</v>
       </c>
       <c r="I56" t="n">
-        <v>24.5</v>
+        <v>34.5</v>
       </c>
       <c r="J56" t="n">
-        <v>54.7</v>
+        <v>62.1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="L56" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Malacateco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bahia de Feira</t>
+          <t>Xelajú</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1.38</v>
+        <v>1.94</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3053,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="H57" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I57" t="n">
-        <v>16.7</v>
+        <v>25</v>
       </c>
       <c r="J57" t="n">
-        <v>53.3</v>
+        <v>54.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0.72</v>
+        <v>0.98</v>
       </c>
       <c r="L57" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Baltika</t>
+          <t>Hapoel Migdal HaEmek</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Kaisar</t>
+          <t>Ironi Nesher</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3099,42 +3099,42 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="H58" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="I58" t="n">
-        <v>16.7</v>
+        <v>21.7</v>
       </c>
       <c r="J58" t="n">
-        <v>53.3</v>
+        <v>54.3</v>
       </c>
       <c r="K58" t="n">
-        <v>0.72</v>
+        <v>0.98</v>
       </c>
       <c r="L58" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CSKA Moscow</t>
+          <t>Gil Vicente U23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FC Rostov</t>
+          <t>Estoril U23</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3145,42 +3145,42 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>35.8</v>
+        <v>50</v>
       </c>
       <c r="H59" t="n">
-        <v>15.1</v>
+        <v>28.3</v>
       </c>
       <c r="I59" t="n">
-        <v>49.1</v>
+        <v>21.7</v>
       </c>
       <c r="J59" t="n">
-        <v>50.9</v>
+        <v>54.3</v>
       </c>
       <c r="K59" t="n">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="L59" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Zanaco</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ciudad de Bolívar</t>
+          <t>ZESCO United</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.18</v>
+        <v>2.08</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3191,42 +3191,42 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>60</v>
+        <v>47.8</v>
       </c>
       <c r="H60" t="n">
-        <v>30</v>
+        <v>15.9</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>36.2</v>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>49.3</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="L60" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Campinense</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sousa</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.03</v>
+        <v>3.62</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3237,42 +3237,42 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>32.3</v>
+        <v>26.7</v>
       </c>
       <c r="H61" t="n">
-        <v>14.5</v>
+        <v>26.7</v>
       </c>
       <c r="I61" t="n">
-        <v>53.2</v>
+        <v>46.7</v>
       </c>
       <c r="J61" t="n">
-        <v>30.6</v>
+        <v>46.7</v>
       </c>
       <c r="K61" t="n">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="L61" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Manisa BBSK</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bandırmaspor</t>
+          <t>FK Crvena Zvezda</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3283,42 +3283,42 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>26.8</v>
+        <v>57.1</v>
       </c>
       <c r="H62" t="n">
-        <v>22</v>
+        <v>31.4</v>
       </c>
       <c r="I62" t="n">
-        <v>51.2</v>
+        <v>11.4</v>
       </c>
       <c r="J62" t="n">
-        <v>48.8</v>
+        <v>51.4</v>
       </c>
       <c r="K62" t="n">
-        <v>0.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Gama</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Monte Roraima</t>
+          <t>Bangkok United</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3329,42 +3329,42 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>48.9</v>
+        <v>60</v>
       </c>
       <c r="H63" t="n">
-        <v>33.3</v>
+        <v>35</v>
       </c>
       <c r="I63" t="n">
-        <v>17.8</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>37.8</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="L63" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3375,42 +3375,42 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>23.5</v>
+        <v>43.9</v>
       </c>
       <c r="H64" t="n">
-        <v>24.5</v>
+        <v>28.1</v>
       </c>
       <c r="I64" t="n">
-        <v>52</v>
+        <v>28.1</v>
       </c>
       <c r="J64" t="n">
-        <v>66.3</v>
+        <v>36.8</v>
       </c>
       <c r="K64" t="n">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="L64" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo</t>
+          <t>Al Salt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Independiente Medellin</t>
+          <t>Al Jazeera</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.55</v>
+        <v>1.96</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3421,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>21.6</v>
+        <v>46.3</v>
       </c>
       <c r="H65" t="n">
-        <v>35.1</v>
+        <v>24.4</v>
       </c>
       <c r="I65" t="n">
-        <v>43.2</v>
+        <v>29.3</v>
       </c>
       <c r="J65" t="n">
-        <v>37.8</v>
+        <v>29.3</v>
       </c>
       <c r="K65" t="n">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="L65" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ODD Ballklubb</t>
+          <t>Croatia U19</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Stromsgodset</t>
+          <t>Czech Republic U19</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2.54</v>
+        <v>1.95</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3467,42 +3467,42 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>21.6</v>
+        <v>46.3</v>
       </c>
       <c r="H66" t="n">
-        <v>35.1</v>
+        <v>24.4</v>
       </c>
       <c r="I66" t="n">
-        <v>43.2</v>
+        <v>29.3</v>
       </c>
       <c r="J66" t="n">
-        <v>37.8</v>
+        <v>29.3</v>
       </c>
       <c r="K66" t="n">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="L66" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kristiansund BK</t>
+          <t>Mumbai City</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ham-Kam</t>
+          <t>Chennaiyin</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.52</v>
+        <v>1.89</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3513,42 +3513,42 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>21.6</v>
+        <v>45.3</v>
       </c>
       <c r="H67" t="n">
-        <v>35.1</v>
+        <v>35.8</v>
       </c>
       <c r="I67" t="n">
-        <v>43.2</v>
+        <v>18.9</v>
       </c>
       <c r="J67" t="n">
-        <v>37.8</v>
+        <v>50.9</v>
       </c>
       <c r="K67" t="n">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="L67" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Porto BA</t>
+          <t>Shimshon Tel Aviv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Serra Branca</t>
+          <t>Kfar Saba 1928</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3559,42 +3559,42 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>17.9</v>
+        <v>37.5</v>
       </c>
       <c r="H68" t="n">
         <v>25</v>
       </c>
       <c r="I68" t="n">
-        <v>57.1</v>
+        <v>37.5</v>
       </c>
       <c r="J68" t="n">
-        <v>60.7</v>
+        <v>37.5</v>
       </c>
       <c r="K68" t="n">
-        <v>0.47</v>
+        <v>0.84</v>
       </c>
       <c r="L68" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Police Tero</t>
+          <t>Omonia Nicosia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Trat FC</t>
+          <t>HNK Rijeka</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1.51</v>
+        <v>1.88</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3605,42 +3605,42 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>20</v>
+        <v>45.3</v>
       </c>
       <c r="H69" t="n">
-        <v>20</v>
+        <v>35.9</v>
       </c>
       <c r="I69" t="n">
-        <v>60</v>
+        <v>18.8</v>
       </c>
       <c r="J69" t="n">
-        <v>40</v>
+        <v>53.1</v>
       </c>
       <c r="K69" t="n">
-        <v>0.31</v>
+        <v>0.84</v>
       </c>
       <c r="L69" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Safa Baku</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Mingəçevir</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>11.75</v>
+        <v>1.57</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3651,42 +3651,42 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>29.4</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ipswich Town W</t>
+          <t>Real Estelí</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Charlton Athletic W</t>
+          <t>H&amp;H Export</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>1.26</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3697,42 +3697,42 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FC Winterthur</t>
+          <t>Aserri FC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>FC ST. Gallen</t>
+          <t>Pitbulls Santa Barbara FC</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4.4</v>
+        <v>2.12</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3743,42 +3743,42 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>Rio Ave U23</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Şanlıurfaspor</t>
+          <t>União Leiria U23</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>11.75</v>
+        <v>1.67</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3789,42 +3789,42 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tampines Rovers</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Công An Nhân Dân</t>
+          <t>Al-Fateh</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5.5</v>
+        <v>2.21</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3835,42 +3835,42 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Real Espana</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4.75</v>
+        <v>2.21</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3881,42 +3881,42 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Breidablik W</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Häcken</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7.7</v>
+        <v>2.47</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3927,21 +3927,711 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>38.1</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="L76" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FC Voluntari</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CSA Steaua Bucureşti</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L77" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Chainat</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mahasarakham United</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L78" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Al Wehda Club</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Al Bukayriyah</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>37</v>
+      </c>
+      <c r="H79" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L79" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>America de Cali</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="H80" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="I80" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L80" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Estudiantes de Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>33</v>
+      </c>
+      <c r="J81" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L81" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L82" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Nakhon Si Thammarat</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Kasetsart FC</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L83" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Club Sp. San Lorenzo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L84" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>El Gouna FC</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>50</v>
+      </c>
+      <c r="H85" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L85" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Manchester United W</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Atletico Madrid W</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L86" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Águila</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L87" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>50</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L88" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Real Madriz</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Diriangén</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>31</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Universidad O&amp;M</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
